--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -17,12 +17,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="74">
   <si>
     <t>Step 1</t>
   </si>
   <si>
     <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <t>Step 11</t>
+  </si>
+  <si>
+    <t>Step 12</t>
+  </si>
+  <si>
+    <t>Step 13</t>
+  </si>
+  <si>
+    <t>Step 14</t>
+  </si>
+  <si>
+    <t>Step 15</t>
+  </si>
+  <si>
+    <t>Step 16</t>
+  </si>
+  <si>
+    <t>Step 17</t>
+  </si>
+  <si>
+    <t>Step 18</t>
+  </si>
+  <si>
+    <t>Step 19</t>
+  </si>
+  <si>
+    <t>Step 20</t>
   </si>
   <si>
     <t>Total</t>
@@ -542,18 +596,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -564,73 +618,343 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>232.08</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>232.08</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>232.08</v>
+      </c>
+      <c r="F3">
+        <v>232.08</v>
+      </c>
+      <c r="G3">
+        <v>232.08</v>
+      </c>
+      <c r="H3">
+        <v>232.08</v>
+      </c>
+      <c r="I3">
+        <v>232.08</v>
+      </c>
+      <c r="J3">
+        <v>232.08</v>
+      </c>
+      <c r="K3">
+        <v>232.08</v>
+      </c>
+      <c r="L3">
+        <v>232.08</v>
+      </c>
+      <c r="M3">
+        <v>232.08</v>
+      </c>
+      <c r="N3">
+        <v>232.08</v>
+      </c>
+      <c r="O3">
+        <v>232.08</v>
+      </c>
+      <c r="P3">
+        <v>232.08</v>
+      </c>
+      <c r="Q3">
+        <v>232.08</v>
+      </c>
+      <c r="R3">
+        <v>232.08</v>
+      </c>
+      <c r="S3">
+        <v>232.08</v>
+      </c>
+      <c r="T3">
+        <v>232.08</v>
+      </c>
+      <c r="U3">
+        <v>232.08</v>
+      </c>
+      <c r="V3">
+        <v>232.08</v>
+      </c>
+      <c r="W3">
+        <v>232.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>10.2</v>
+        <v>176.06</v>
       </c>
       <c r="D4">
-        <v>10.2</v>
+        <v>176.06</v>
       </c>
       <c r="E4">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>176.06</v>
+      </c>
+      <c r="F4">
+        <v>176.06</v>
+      </c>
+      <c r="G4">
+        <v>176.06</v>
+      </c>
+      <c r="H4">
+        <v>176.06</v>
+      </c>
+      <c r="I4">
+        <v>176.06</v>
+      </c>
+      <c r="J4">
+        <v>176.06</v>
+      </c>
+      <c r="K4">
+        <v>176.06</v>
+      </c>
+      <c r="L4">
+        <v>176.06</v>
+      </c>
+      <c r="M4">
+        <v>176.06</v>
+      </c>
+      <c r="N4">
+        <v>176.06</v>
+      </c>
+      <c r="O4">
+        <v>176.06</v>
+      </c>
+      <c r="P4">
+        <v>176.06</v>
+      </c>
+      <c r="Q4">
+        <v>176.06</v>
+      </c>
+      <c r="R4">
+        <v>176.06</v>
+      </c>
+      <c r="S4">
+        <v>176.06</v>
+      </c>
+      <c r="T4">
+        <v>176.06</v>
+      </c>
+      <c r="U4">
+        <v>176.06</v>
+      </c>
+      <c r="V4">
+        <v>176.06</v>
+      </c>
+      <c r="W4">
+        <v>176.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>4.56</v>
+        <v>366.69</v>
       </c>
       <c r="D5">
-        <v>4.56</v>
+        <v>366.69</v>
       </c>
       <c r="E5">
-        <v>9.109999999999999</v>
+        <v>366.69</v>
+      </c>
+      <c r="F5">
+        <v>366.69</v>
+      </c>
+      <c r="G5">
+        <v>366.69</v>
+      </c>
+      <c r="H5">
+        <v>366.69</v>
+      </c>
+      <c r="I5">
+        <v>366.69</v>
+      </c>
+      <c r="J5">
+        <v>366.69</v>
+      </c>
+      <c r="K5">
+        <v>366.69</v>
+      </c>
+      <c r="L5">
+        <v>366.69</v>
+      </c>
+      <c r="M5">
+        <v>366.69</v>
+      </c>
+      <c r="N5">
+        <v>366.69</v>
+      </c>
+      <c r="O5">
+        <v>366.69</v>
+      </c>
+      <c r="P5">
+        <v>366.69</v>
+      </c>
+      <c r="Q5">
+        <v>366.69</v>
+      </c>
+      <c r="R5">
+        <v>366.69</v>
+      </c>
+      <c r="S5">
+        <v>366.69</v>
+      </c>
+      <c r="T5">
+        <v>366.69</v>
+      </c>
+      <c r="U5">
+        <v>366.69</v>
+      </c>
+      <c r="V5">
+        <v>366.69</v>
+      </c>
+      <c r="W5">
+        <v>366.69</v>
       </c>
     </row>
   </sheetData>
@@ -640,412 +964,1384 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2">
-        <v>57.165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2">
+        <v>1711.812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3">
-        <v>16.146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3">
+        <v>644.606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4">
-        <v>3.098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4">
+        <v>78.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5">
-        <v>37.921</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5">
+        <v>988.628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6">
+        <v>-0.002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7">
-        <v>0.3269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7">
+        <v>0.3401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>10.699</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>10.699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>464.166</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>-0</v>
+      </c>
+      <c r="M9">
+        <v>-0</v>
+      </c>
+      <c r="N9">
+        <v>-0</v>
+      </c>
+      <c r="O9">
+        <v>-0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>-0</v>
+      </c>
+      <c r="R9">
+        <v>-0</v>
+      </c>
+      <c r="S9">
+        <v>-0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>-0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>464.166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E10">
-        <v>4.081</v>
+        <v>70.423</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>70.42400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E11">
-        <v>1.367</v>
+        <v>110.008</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.001</v>
+      </c>
+      <c r="T11">
+        <v>0.001</v>
+      </c>
+      <c r="U11">
+        <v>0.001</v>
+      </c>
+      <c r="V11">
+        <v>0.001</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>110.016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12">
-        <v>1.822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s">
+        <v>44</v>
+      </c>
+      <c r="X12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13">
+        <v>19.759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14">
-        <v>0.082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" t="s">
+        <v>44</v>
+      </c>
+      <c r="X14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14">
+        <v>1.408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15">
-        <v>0.582</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15" t="s">
+        <v>44</v>
+      </c>
+      <c r="X15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15">
+        <v>46.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W16" t="s">
+        <v>44</v>
+      </c>
+      <c r="X16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17">
-        <v>0.912</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" t="s">
+        <v>44</v>
+      </c>
+      <c r="U17" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" t="s">
+        <v>44</v>
+      </c>
+      <c r="X17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17">
+        <v>14.016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18">
-        <v>37.009</v>
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" t="s">
+        <v>44</v>
+      </c>
+      <c r="U18" t="s">
+        <v>44</v>
+      </c>
+      <c r="V18" t="s">
+        <v>44</v>
+      </c>
+      <c r="W18" t="s">
+        <v>44</v>
+      </c>
+      <c r="X18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y18">
+        <v>974.611</v>
       </c>
     </row>
   </sheetData>
@@ -1068,62 +2364,62 @@
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1137,548 +2433,548 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D6">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E6">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H6">
-        <v>4.34</v>
+        <v>114.37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D7">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E7">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H7">
-        <v>4.35</v>
+        <v>114.43</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D8">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E8">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H8">
-        <v>4.35</v>
+        <v>114.44</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D9">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E9">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H9">
-        <v>4.35</v>
+        <v>114.45</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D10">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E10">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H10">
-        <v>4.35</v>
+        <v>114.46</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D11">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E11">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H11">
-        <v>4.35</v>
+        <v>114.47</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D12">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E12">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H12">
-        <v>4.35</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D13">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E13">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H13">
-        <v>4.35</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D14">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E14">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H14">
-        <v>4.35</v>
+        <v>114.49</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D15">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E15">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H15">
-        <v>4.35</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D16">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E16">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H16">
-        <v>4.35</v>
+        <v>114.51</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B17">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D17">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E17">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H17">
-        <v>4.35</v>
+        <v>114.52</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D18">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E18">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H18">
-        <v>4.35</v>
+        <v>114.53</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D19">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E19">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H19">
-        <v>4.35</v>
+        <v>114.55</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B20">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D20">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E20">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H20">
-        <v>4.35</v>
+        <v>114.56</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B21">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D21">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E21">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H21">
-        <v>4.35</v>
+        <v>114.57</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B22">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D22">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E22">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H22">
-        <v>4.35</v>
+        <v>114.58</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B23">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D23">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E23">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H23">
-        <v>4.35</v>
+        <v>114.59</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B24">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D24">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E24">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H24">
-        <v>4.35</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B25">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="D25">
-        <v>0.08</v>
+        <v>1.41</v>
       </c>
       <c r="E25">
-        <v>0.07000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.11</v>
+        <v>1.65</v>
       </c>
       <c r="H25">
-        <v>4.35</v>
+        <v>114.61</v>
       </c>
     </row>
   </sheetData>
@@ -1700,373 +2996,373 @@
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>56.77</v>
+        <v>51.93</v>
       </c>
       <c r="C4">
-        <v>46.03</v>
+        <v>56.24</v>
       </c>
       <c r="D4">
-        <v>4.17</v>
+        <v>15.37</v>
       </c>
       <c r="E4">
-        <v>10.04</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C5">
-        <v>46.02</v>
+        <v>56.23</v>
       </c>
       <c r="D5">
-        <v>4.17</v>
+        <v>15.37</v>
       </c>
       <c r="E5">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C6">
-        <v>46.02</v>
+        <v>56.22</v>
       </c>
       <c r="D6">
-        <v>4.17</v>
+        <v>15.36</v>
       </c>
       <c r="E6">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C7">
-        <v>46.02</v>
+        <v>56.22</v>
       </c>
       <c r="D7">
-        <v>4.17</v>
+        <v>15.36</v>
       </c>
       <c r="E7">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B8">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C8">
-        <v>46.02</v>
+        <v>56.22</v>
       </c>
       <c r="D8">
-        <v>4.17</v>
+        <v>15.36</v>
       </c>
       <c r="E8">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B9">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C9">
-        <v>46.02</v>
+        <v>56.22</v>
       </c>
       <c r="D9">
-        <v>4.17</v>
+        <v>15.36</v>
       </c>
       <c r="E9">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B10">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C10">
-        <v>46.02</v>
+        <v>56.22</v>
       </c>
       <c r="D10">
-        <v>4.17</v>
+        <v>15.35</v>
       </c>
       <c r="E10">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B11">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C11">
-        <v>46.02</v>
+        <v>56.21</v>
       </c>
       <c r="D11">
-        <v>4.17</v>
+        <v>15.35</v>
       </c>
       <c r="E11">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B12">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C12">
-        <v>46.02</v>
+        <v>56.21</v>
       </c>
       <c r="D12">
-        <v>4.17</v>
+        <v>15.35</v>
       </c>
       <c r="E12">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B13">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C13">
-        <v>46.02</v>
+        <v>56.21</v>
       </c>
       <c r="D13">
-        <v>4.17</v>
+        <v>15.34</v>
       </c>
       <c r="E13">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B14">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C14">
-        <v>46.02</v>
+        <v>56.21</v>
       </c>
       <c r="D14">
-        <v>4.17</v>
+        <v>15.34</v>
       </c>
       <c r="E14">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B15">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C15">
-        <v>46.02</v>
+        <v>56.21</v>
       </c>
       <c r="D15">
-        <v>4.17</v>
+        <v>15.34</v>
       </c>
       <c r="E15">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C16">
-        <v>46.02</v>
+        <v>56.2</v>
       </c>
       <c r="D16">
-        <v>4.17</v>
+        <v>15.33</v>
       </c>
       <c r="E16">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B17">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C17">
-        <v>46.02</v>
+        <v>56.2</v>
       </c>
       <c r="D17">
-        <v>4.17</v>
+        <v>15.33</v>
       </c>
       <c r="E17">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B18">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C18">
-        <v>46.02</v>
+        <v>56.2</v>
       </c>
       <c r="D18">
-        <v>4.17</v>
+        <v>15.33</v>
       </c>
       <c r="E18">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B19">
-        <v>56.81</v>
+        <v>51.96</v>
       </c>
       <c r="C19">
-        <v>46.02</v>
+        <v>56.2</v>
       </c>
       <c r="D19">
-        <v>4.17</v>
+        <v>15.32</v>
       </c>
       <c r="E19">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B20">
-        <v>56.81</v>
+        <v>51.97</v>
       </c>
       <c r="C20">
-        <v>46.02</v>
+        <v>56.19</v>
       </c>
       <c r="D20">
-        <v>4.17</v>
+        <v>15.32</v>
       </c>
       <c r="E20">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B21">
-        <v>56.81</v>
+        <v>51.97</v>
       </c>
       <c r="C21">
-        <v>46.02</v>
+        <v>56.19</v>
       </c>
       <c r="D21">
-        <v>4.17</v>
+        <v>15.31</v>
       </c>
       <c r="E21">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B22">
-        <v>56.81</v>
+        <v>51.97</v>
       </c>
       <c r="C22">
-        <v>46.02</v>
+        <v>56.19</v>
       </c>
       <c r="D22">
-        <v>4.17</v>
+        <v>15.31</v>
       </c>
       <c r="E22">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B23">
-        <v>56.81</v>
+        <v>51.97</v>
       </c>
       <c r="C23">
-        <v>46.02</v>
+        <v>56.19</v>
       </c>
       <c r="D23">
-        <v>4.17</v>
+        <v>15.31</v>
       </c>
       <c r="E23">
-        <v>10.01</v>
+        <v>5.34</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
   <si>
     <t>Total</t>
   </si>
@@ -31,9 +31,6 @@
     <t>PV panels</t>
   </si>
   <si>
-    <t>Wind turbines</t>
-  </si>
-  <si>
     <t>Battery bank</t>
   </si>
   <si>
@@ -85,12 +82,24 @@
     <t>Fuel cost</t>
   </si>
   <si>
+    <t>Grid electricity cost</t>
+  </si>
+  <si>
+    <t>Grid electricity revenue</t>
+  </si>
+  <si>
     <t>System</t>
   </si>
   <si>
+    <t>National grid</t>
+  </si>
+  <si>
     <t>Diesel</t>
   </si>
   <si>
+    <t>National Grid</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -103,6 +112,15 @@
     <t>Fixed costs</t>
   </si>
   <si>
+    <t>Grid cost</t>
+  </si>
+  <si>
+    <t>Grid revenue</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
     <t>Year 1</t>
   </si>
   <si>
@@ -176,6 +194,9 @@
   </si>
   <si>
     <t>Battery usage</t>
+  </si>
+  <si>
+    <t>Grid usage</t>
   </si>
   <si>
     <t>%</t>
@@ -536,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,10 +579,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>80.2</v>
+        <v>88.61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -572,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>276.21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -580,21 +601,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>59.68</v>
+        <v>4.29</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,13 +622,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -629,121 +639,121 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>858.5599999999999</v>
+        <v>139.802</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>212.552</v>
+        <v>204.719</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>38.224</v>
+        <v>84.824</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>607.784</v>
+        <v>84.328</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>-0</v>
+        <v>-234.069</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>0.3042</v>
+        <v>0.1508</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>200.507</v>
+        <v>106.329</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -752,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>0.027</v>
+        <v>96.673</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -767,45 +777,45 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>0.081</v>
+        <v>1.716</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>11.937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>34.141</v>
+        <v>18.105</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -814,13 +824,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>0.005</v>
+        <v>7.734</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -829,28 +839,30 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14">
-        <v>0.002</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>4.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -858,16 +870,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>48.184</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -875,16 +887,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>0.016</v>
+        <v>36.144</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -892,22 +904,39 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E18">
-        <v>607.768</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -915,20 +944,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
@@ -936,10 +967,13 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -953,33 +987,36 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -990,556 +1027,622 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H6">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H7">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H8">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H9">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H10">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H11">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H12">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B13">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H13">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H14">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H15">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B16">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E16">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H16">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E17">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H17">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B18">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E18">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H18">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B19">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E19">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H19">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B20">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E20">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H20">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B21">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E21">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H21">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E22">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H22">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E23">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H23">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E24">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H24">
-        <v>71.39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B25">
-        <v>4.01</v>
+        <v>2.13</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E25">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H25">
-        <v>71.39</v>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1547,382 +1650,448 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>5.37</v>
+      </c>
+      <c r="C4">
+        <v>95.77</v>
+      </c>
+      <c r="D4">
+        <v>15.32</v>
+      </c>
+      <c r="E4">
+        <v>48.2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>5.37</v>
+      </c>
+      <c r="C5">
+        <v>95.77</v>
+      </c>
+      <c r="D5">
+        <v>15.23</v>
+      </c>
+      <c r="E5">
+        <v>48.2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>5.37</v>
+      </c>
+      <c r="C6">
+        <v>95.77</v>
+      </c>
+      <c r="D6">
+        <v>15.23</v>
+      </c>
+      <c r="E6">
+        <v>48.2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>5.37</v>
+      </c>
+      <c r="C7">
+        <v>95.77</v>
+      </c>
+      <c r="D7">
+        <v>15.23</v>
+      </c>
+      <c r="E7">
+        <v>48.2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>5.37</v>
+      </c>
+      <c r="C8">
+        <v>95.77</v>
+      </c>
+      <c r="D8">
+        <v>15.23</v>
+      </c>
+      <c r="E8">
+        <v>48.2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>5.37</v>
+      </c>
+      <c r="C9">
+        <v>95.77</v>
+      </c>
+      <c r="D9">
+        <v>15.23</v>
+      </c>
+      <c r="E9">
+        <v>48.2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>5.37</v>
+      </c>
+      <c r="C10">
+        <v>95.77</v>
+      </c>
+      <c r="D10">
+        <v>15.23</v>
+      </c>
+      <c r="E10">
+        <v>48.2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>5.37</v>
+      </c>
+      <c r="C11">
+        <v>95.77</v>
+      </c>
+      <c r="D11">
+        <v>15.23</v>
+      </c>
+      <c r="E11">
+        <v>48.2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>5.37</v>
+      </c>
+      <c r="C12">
+        <v>95.77</v>
+      </c>
+      <c r="D12">
+        <v>15.23</v>
+      </c>
+      <c r="E12">
+        <v>48.2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>5.37</v>
+      </c>
+      <c r="C13">
+        <v>95.77</v>
+      </c>
+      <c r="D13">
+        <v>15.23</v>
+      </c>
+      <c r="E13">
+        <v>48.2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>5.37</v>
+      </c>
+      <c r="C14">
+        <v>95.77</v>
+      </c>
+      <c r="D14">
+        <v>15.23</v>
+      </c>
+      <c r="E14">
+        <v>48.2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>5.37</v>
+      </c>
+      <c r="C15">
+        <v>95.77</v>
+      </c>
+      <c r="D15">
+        <v>15.23</v>
+      </c>
+      <c r="E15">
+        <v>48.21</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>5.37</v>
+      </c>
+      <c r="C16">
+        <v>95.77</v>
+      </c>
+      <c r="D16">
+        <v>15.23</v>
+      </c>
+      <c r="E16">
+        <v>48.21</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>5.37</v>
+      </c>
+      <c r="C17">
+        <v>95.77</v>
+      </c>
+      <c r="D17">
+        <v>15.23</v>
+      </c>
+      <c r="E17">
+        <v>48.21</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>5.37</v>
+      </c>
+      <c r="C18">
+        <v>95.77</v>
+      </c>
+      <c r="D18">
+        <v>15.23</v>
+      </c>
+      <c r="E18">
+        <v>48.21</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B19">
+        <v>5.37</v>
+      </c>
+      <c r="C19">
+        <v>95.77</v>
+      </c>
+      <c r="D19">
+        <v>15.23</v>
+      </c>
+      <c r="E19">
+        <v>48.21</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B20">
+        <v>5.37</v>
+      </c>
+      <c r="C20">
+        <v>95.77</v>
+      </c>
+      <c r="D20">
+        <v>15.23</v>
+      </c>
+      <c r="E20">
+        <v>48.21</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B21">
+        <v>5.37</v>
+      </c>
+      <c r="C21">
+        <v>95.77</v>
+      </c>
+      <c r="D21">
+        <v>15.23</v>
+      </c>
+      <c r="E21">
+        <v>48.21</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B22">
+        <v>5.37</v>
+      </c>
+      <c r="C22">
+        <v>95.77</v>
+      </c>
+      <c r="D22">
+        <v>15.23</v>
+      </c>
+      <c r="E22">
+        <v>48.21</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>65.5</v>
-      </c>
-      <c r="C4">
-        <v>35.55</v>
-      </c>
-      <c r="D4">
-        <v>1.59</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>65.5</v>
-      </c>
-      <c r="C5">
-        <v>35.55</v>
-      </c>
-      <c r="D5">
-        <v>1.59</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>65.5</v>
-      </c>
-      <c r="C6">
-        <v>35.55</v>
-      </c>
-      <c r="D6">
-        <v>1.59</v>
-      </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>65.5</v>
-      </c>
-      <c r="C7">
-        <v>35.55</v>
-      </c>
-      <c r="D7">
-        <v>1.59</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>65.5</v>
-      </c>
-      <c r="C8">
-        <v>35.55</v>
-      </c>
-      <c r="D8">
-        <v>1.59</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>65.5</v>
-      </c>
-      <c r="C9">
-        <v>35.55</v>
-      </c>
-      <c r="D9">
-        <v>1.59</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>65.5</v>
-      </c>
-      <c r="C10">
-        <v>35.55</v>
-      </c>
-      <c r="D10">
-        <v>1.59</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>65.5</v>
-      </c>
-      <c r="C11">
-        <v>35.55</v>
-      </c>
-      <c r="D11">
-        <v>1.59</v>
-      </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>65.5</v>
-      </c>
-      <c r="C12">
-        <v>35.55</v>
-      </c>
-      <c r="D12">
-        <v>1.59</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>65.5</v>
-      </c>
-      <c r="C13">
-        <v>35.55</v>
-      </c>
-      <c r="D13">
-        <v>1.59</v>
-      </c>
-      <c r="E13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>65.5</v>
-      </c>
-      <c r="C14">
-        <v>35.55</v>
-      </c>
-      <c r="D14">
-        <v>1.6</v>
-      </c>
-      <c r="E14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15">
-        <v>65.5</v>
-      </c>
-      <c r="C15">
-        <v>35.55</v>
-      </c>
-      <c r="D15">
-        <v>1.6</v>
-      </c>
-      <c r="E15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>65.5</v>
-      </c>
-      <c r="C16">
-        <v>35.55</v>
-      </c>
-      <c r="D16">
-        <v>1.6</v>
-      </c>
-      <c r="E16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17">
-        <v>65.5</v>
-      </c>
-      <c r="C17">
-        <v>35.55</v>
-      </c>
-      <c r="D17">
-        <v>1.6</v>
-      </c>
-      <c r="E17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18">
-        <v>65.5</v>
-      </c>
-      <c r="C18">
-        <v>35.55</v>
-      </c>
-      <c r="D18">
-        <v>1.6</v>
-      </c>
-      <c r="E18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19">
-        <v>65.5</v>
-      </c>
-      <c r="C19">
-        <v>35.55</v>
-      </c>
-      <c r="D19">
-        <v>1.6</v>
-      </c>
-      <c r="E19">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20">
-        <v>65.5</v>
-      </c>
-      <c r="C20">
-        <v>35.55</v>
-      </c>
-      <c r="D20">
-        <v>1.6</v>
-      </c>
-      <c r="E20">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>65.5</v>
-      </c>
-      <c r="C21">
-        <v>35.55</v>
-      </c>
-      <c r="D21">
-        <v>1.6</v>
-      </c>
-      <c r="E21">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22">
-        <v>65.5</v>
-      </c>
-      <c r="C22">
-        <v>35.55</v>
-      </c>
-      <c r="D22">
-        <v>1.6</v>
-      </c>
-      <c r="E22">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="B23">
-        <v>65.5</v>
+        <v>5.37</v>
       </c>
       <c r="C23">
-        <v>35.55</v>
+        <v>95.77</v>
       </c>
       <c r="D23">
-        <v>1.6</v>
+        <v>15.26</v>
       </c>
       <c r="E23">
-        <v>0.01</v>
+        <v>48.21</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
   <si>
     <t>Total</t>
   </si>
@@ -94,10 +94,10 @@
     <t>National grid</t>
   </si>
   <si>
+    <t>National Grid</t>
+  </si>
+  <si>
     <t>Diesel</t>
-  </si>
-  <si>
-    <t>National Grid</t>
   </si>
   <si>
     <t>-</t>
@@ -582,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>88.61</v>
+        <v>58.18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -593,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>276.21</v>
+        <v>205.62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4.29</v>
+        <v>3.98</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +651,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>139.802</v>
+        <v>210.224</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -668,7 +668,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>204.719</v>
+        <v>122.81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -685,7 +685,7 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>84.824</v>
+        <v>47.746</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -702,7 +702,7 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>84.328</v>
+        <v>39.668</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -719,7 +719,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>-234.069</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -736,7 +736,7 @@
         <v>29</v>
       </c>
       <c r="E7">
-        <v>0.1508</v>
+        <v>0.2976</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -753,7 +753,7 @@
         <v>28</v>
       </c>
       <c r="E8">
-        <v>106.329</v>
+        <v>69.81100000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -768,7 +768,7 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>96.673</v>
+        <v>51.405</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -783,7 +783,7 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>1.716</v>
+        <v>1.594</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -815,7 +815,7 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>18.105</v>
+        <v>11.887</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -830,7 +830,7 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>7.734</v>
+        <v>4.112</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -845,18 +845,16 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>0.877</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>28</v>
@@ -867,10 +865,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -879,15 +877,15 @@
         <v>28</v>
       </c>
       <c r="E16">
-        <v>48.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -896,32 +894,32 @@
         <v>28</v>
       </c>
       <c r="E17">
-        <v>36.144</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
+      <c r="C18" s="1">
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>28.048</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -930,13 +928,30 @@
         <v>28</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -944,36 +959,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -987,22 +1003,25 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1015,8 +1034,8 @@
       <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1030,8 +1049,11 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1059,16 +1081,19 @@
       <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B6">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C6">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D6">
         <v>0.1</v>
@@ -1077,27 +1102,30 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.65</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B7">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C7">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D7">
         <v>0.1</v>
@@ -1106,27 +1134,30 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B8">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C8">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D8">
         <v>0.1</v>
@@ -1135,27 +1166,30 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C9">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D9">
         <v>0.1</v>
@@ -1164,27 +1198,30 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B10">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C10">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D10">
         <v>0.1</v>
@@ -1193,27 +1230,30 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B11">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C11">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D11">
         <v>0.1</v>
@@ -1222,27 +1262,30 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B12">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C12">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D12">
         <v>0.1</v>
@@ -1251,27 +1294,30 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B13">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C13">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D13">
         <v>0.1</v>
@@ -1280,27 +1326,30 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B14">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C14">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D14">
         <v>0.1</v>
@@ -1309,27 +1358,30 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B15">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C15">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D15">
         <v>0.1</v>
@@ -1338,27 +1390,30 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B16">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C16">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D16">
         <v>0.1</v>
@@ -1367,27 +1422,30 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B17">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C17">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D17">
         <v>0.1</v>
@@ -1396,27 +1454,30 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B18">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C18">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D18">
         <v>0.1</v>
@@ -1425,27 +1486,30 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B19">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C19">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D19">
         <v>0.1</v>
@@ -1454,27 +1518,30 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B20">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C20">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D20">
         <v>0.1</v>
@@ -1483,27 +1550,30 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B21">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C21">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D21">
         <v>0.1</v>
@@ -1512,27 +1582,30 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B22">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C22">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D22">
         <v>0.1</v>
@@ -1541,27 +1614,30 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B23">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C23">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D23">
         <v>0.1</v>
@@ -1570,27 +1646,30 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B24">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C24">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D24">
         <v>0.1</v>
@@ -1599,27 +1678,30 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B25">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="C25">
-        <v>7.73</v>
+        <v>4.11</v>
       </c>
       <c r="D25">
         <v>0.1</v>
@@ -1628,21 +1710,24 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>4.25</v>
+        <v>1.36</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1699,16 +1784,16 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>5.37</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="C4">
-        <v>95.77</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="D4">
-        <v>15.32</v>
+        <v>12.04</v>
       </c>
       <c r="E4">
-        <v>48.2</v>
+        <v>45.84</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1719,16 +1804,16 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C5">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D5">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E5">
-        <v>48.2</v>
+        <v>45.78</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1739,16 +1824,16 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C6">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D6">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E6">
-        <v>48.2</v>
+        <v>45.78</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1759,16 +1844,16 @@
         <v>37</v>
       </c>
       <c r="B7">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C7">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D7">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E7">
-        <v>48.2</v>
+        <v>45.78</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1779,16 +1864,16 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C8">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D8">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E8">
-        <v>48.2</v>
+        <v>45.78</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1799,16 +1884,16 @@
         <v>39</v>
       </c>
       <c r="B9">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C9">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D9">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E9">
-        <v>48.2</v>
+        <v>45.78</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1819,16 +1904,16 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C10">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D10">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E10">
-        <v>48.2</v>
+        <v>45.78</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1839,16 +1924,16 @@
         <v>41</v>
       </c>
       <c r="B11">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C11">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D11">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E11">
-        <v>48.2</v>
+        <v>45.78</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1859,16 +1944,16 @@
         <v>42</v>
       </c>
       <c r="B12">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C12">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D12">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E12">
-        <v>48.2</v>
+        <v>45.78</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1879,16 +1964,16 @@
         <v>43</v>
       </c>
       <c r="B13">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C13">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D13">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E13">
-        <v>48.2</v>
+        <v>45.78</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1899,16 +1984,16 @@
         <v>44</v>
       </c>
       <c r="B14">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C14">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D14">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E14">
-        <v>48.2</v>
+        <v>45.78</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1919,16 +2004,16 @@
         <v>45</v>
       </c>
       <c r="B15">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C15">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D15">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E15">
-        <v>48.21</v>
+        <v>45.78</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1939,16 +2024,16 @@
         <v>46</v>
       </c>
       <c r="B16">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C16">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D16">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E16">
-        <v>48.21</v>
+        <v>45.78</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1959,16 +2044,16 @@
         <v>47</v>
       </c>
       <c r="B17">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C17">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D17">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E17">
-        <v>48.21</v>
+        <v>45.78</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1979,16 +2064,16 @@
         <v>48</v>
       </c>
       <c r="B18">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C18">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D18">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E18">
-        <v>48.21</v>
+        <v>45.78</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1999,16 +2084,16 @@
         <v>49</v>
       </c>
       <c r="B19">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C19">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D19">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E19">
-        <v>48.21</v>
+        <v>45.78</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2019,16 +2104,16 @@
         <v>50</v>
       </c>
       <c r="B20">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C20">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D20">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E20">
-        <v>48.21</v>
+        <v>45.78</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2039,16 +2124,16 @@
         <v>51</v>
       </c>
       <c r="B21">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C21">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D21">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E21">
-        <v>48.21</v>
+        <v>45.78</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2059,16 +2144,16 @@
         <v>52</v>
       </c>
       <c r="B22">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C22">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D22">
-        <v>15.23</v>
+        <v>11.96</v>
       </c>
       <c r="E22">
-        <v>48.21</v>
+        <v>45.78</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2079,16 +2164,16 @@
         <v>53</v>
       </c>
       <c r="B23">
-        <v>5.37</v>
+        <v>9.44</v>
       </c>
       <c r="C23">
-        <v>95.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D23">
-        <v>15.26</v>
+        <v>11.96</v>
       </c>
       <c r="E23">
-        <v>48.21</v>
+        <v>45.78</v>
       </c>
       <c r="F23">
         <v>0</v>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="75">
   <si>
     <t>Total</t>
   </si>
@@ -32,9 +32,6 @@
     <t>PV panels</t>
   </si>
   <si>
-    <t>Wind turbines</t>
-  </si>
-  <si>
     <t>Battery bank</t>
   </si>
   <si>
@@ -174,6 +171,51 @@
   </si>
   <si>
     <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Year 7</t>
+  </si>
+  <si>
+    <t>Year 8</t>
+  </si>
+  <si>
+    <t>Year 9</t>
+  </si>
+  <si>
+    <t>Year 10</t>
+  </si>
+  <si>
+    <t>Year 11</t>
+  </si>
+  <si>
+    <t>Year 12</t>
+  </si>
+  <si>
+    <t>Year 13</t>
+  </si>
+  <si>
+    <t>Year 14</t>
+  </si>
+  <si>
+    <t>Year 15</t>
+  </si>
+  <si>
+    <t>Year 16</t>
+  </si>
+  <si>
+    <t>Year 17</t>
+  </si>
+  <si>
+    <t>Year 18</t>
+  </si>
+  <si>
+    <t>Year 19</t>
+  </si>
+  <si>
+    <t>Year 20</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -558,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>81.84999999999999</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -602,21 +644,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>161.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>9.43</v>
+        <v>22.63</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +657,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,13 +665,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -651,155 +682,155 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E2">
-        <v>131.404</v>
+        <v>97.386</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>131.404</v>
+        <v>97.386</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E4">
-        <v>258.82</v>
+        <v>97.02500000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E5">
-        <v>20.123</v>
+        <v>20.615</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>-20.123</v>
+        <v>-17.777</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E7">
-        <v>-127.417</v>
+        <v>-2.478</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>0.3483</v>
+        <v>0.1379</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>0.3483</v>
+        <v>0.1102</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E10">
-        <v>83.741</v>
+        <v>69.038</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -808,13 +839,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -823,253 +854,257 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E12">
-        <v>35.272</v>
+        <v>11.316</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E13">
-        <v>0.886</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E14">
-        <v>138.92</v>
+        <v>11.755</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E15">
-        <v>6.578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E16">
-        <v>0</v>
+        <v>6.021</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E17">
-        <v>0.71</v>
+        <v>2.838</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E18">
-        <v>0.322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E19">
-        <v>10.532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>4.441</v>
+        <v>93.47199999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22">
-        <v>0.024</v>
+        <v>111.962</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23">
-        <v>23.433</v>
+        <v>4.069</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>48.021</v>
+        <v>222.623</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>0.103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26">
-        <v>34.193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1077,59 +1112,25 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30">
-        <v>34.296</v>
+        <v>226.692</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1137,21 +1138,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1159,16 +1162,13 @@
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1182,45 +1182,42 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1234,51 +1231,45 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1287,33 +1278,30 @@
         <v>0.71</v>
       </c>
       <c r="E6">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="F6">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10.97</v>
       </c>
       <c r="J6">
-        <v>2.84</v>
-      </c>
-      <c r="K6">
-        <v>14.41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1322,33 +1310,30 @@
         <v>0.71</v>
       </c>
       <c r="E7">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="F7">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.18</v>
+        <v>0.17</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10.92</v>
       </c>
       <c r="J7">
-        <v>2.83</v>
-      </c>
-      <c r="K7">
-        <v>14.43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>13.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1357,33 +1342,30 @@
         <v>0.71</v>
       </c>
       <c r="E8">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="F8">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.18</v>
+        <v>0.16</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10.93</v>
       </c>
       <c r="J8">
-        <v>2.83</v>
-      </c>
-      <c r="K8">
-        <v>14.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1392,33 +1374,30 @@
         <v>0.71</v>
       </c>
       <c r="E9">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="F9">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.16</v>
+        <v>0.04</v>
       </c>
       <c r="I9">
-        <v>0.01</v>
+        <v>10.99</v>
       </c>
       <c r="J9">
-        <v>11.19</v>
-      </c>
-      <c r="K9">
-        <v>9.960000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1427,30 +1406,507 @@
         <v>0.71</v>
       </c>
       <c r="E10">
+        <v>0.33</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.06</v>
+      </c>
+      <c r="I10">
+        <v>10.99</v>
+      </c>
+      <c r="J10">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>1.38</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.71</v>
+      </c>
+      <c r="E11">
+        <v>0.33</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I11">
+        <v>10.98</v>
+      </c>
+      <c r="J11">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>1.38</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.71</v>
+      </c>
+      <c r="E12">
+        <v>0.33</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0.08</v>
       </c>
-      <c r="F10">
-        <v>2.78</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1.16</v>
-      </c>
-      <c r="I10">
+      <c r="I12">
+        <v>10.98</v>
+      </c>
+      <c r="J12">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>1.38</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.71</v>
+      </c>
+      <c r="E13">
+        <v>0.33</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.11</v>
+      </c>
+      <c r="I13">
+        <v>10.96</v>
+      </c>
+      <c r="J13">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>1.38</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.71</v>
+      </c>
+      <c r="E14">
+        <v>0.33</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>1.38</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.71</v>
+      </c>
+      <c r="E15">
+        <v>0.33</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.04</v>
+      </c>
+      <c r="I15">
+        <v>11.01</v>
+      </c>
+      <c r="J15">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>1.38</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.71</v>
+      </c>
+      <c r="E16">
+        <v>0.33</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.08</v>
+      </c>
+      <c r="I16">
+        <v>10.99</v>
+      </c>
+      <c r="J16">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>1.38</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.71</v>
+      </c>
+      <c r="E17">
+        <v>0.33</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.06</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>1.38</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.71</v>
+      </c>
+      <c r="E18">
+        <v>0.33</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>1.38</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.71</v>
+      </c>
+      <c r="E19">
+        <v>0.33</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.13</v>
+      </c>
+      <c r="I19">
+        <v>10.97</v>
+      </c>
+      <c r="J19">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>1.38</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.71</v>
+      </c>
+      <c r="E20">
+        <v>0.33</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.06</v>
+      </c>
+      <c r="I20">
+        <v>11.02</v>
+      </c>
+      <c r="J20">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
+        <v>1.38</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.71</v>
+      </c>
+      <c r="E21">
+        <v>0.33</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.03</v>
+      </c>
+      <c r="I21">
+        <v>11.04</v>
+      </c>
+      <c r="J21">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22">
+        <v>1.38</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.71</v>
+      </c>
+      <c r="E22">
+        <v>0.33</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>0.02</v>
       </c>
-      <c r="J10">
-        <v>14.08</v>
-      </c>
-      <c r="K10">
-        <v>8.609999999999999</v>
+      <c r="I22">
+        <v>11.05</v>
+      </c>
+      <c r="J22">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>1.38</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.71</v>
+      </c>
+      <c r="E23">
+        <v>0.33</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.09</v>
+      </c>
+      <c r="I23">
+        <v>11.02</v>
+      </c>
+      <c r="J23">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>1.38</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.71</v>
+      </c>
+      <c r="E24">
+        <v>0.33</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I24">
+        <v>11.03</v>
+      </c>
+      <c r="J24">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25">
+        <v>1.38</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.71</v>
+      </c>
+      <c r="E25">
+        <v>0.33</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.06</v>
+      </c>
+      <c r="I25">
+        <v>11.04</v>
+      </c>
+      <c r="J25">
+        <v>13.24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1458,7 +1914,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1467,139 +1923,439 @@
     <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C4">
-        <v>91.73</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="D4">
-        <v>0.09</v>
+        <v>0.35</v>
       </c>
       <c r="E4">
-        <v>34.85</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>15.12</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.47</v>
       </c>
       <c r="C5">
-        <v>91.73999999999999</v>
+        <v>66.75</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>0.64</v>
       </c>
       <c r="E5">
-        <v>34.83</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>15.11</v>
+        <v>54.82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="C6">
-        <v>91.75</v>
+        <v>66.75</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="E6">
-        <v>34.85</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>15.09</v>
+        <v>54.87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="C7">
-        <v>73.76000000000001</v>
+        <v>66.75</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E7">
-        <v>20.38</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>35.37</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>0.16</v>
+      </c>
+      <c r="C8">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.39</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>55.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B8">
-        <v>0.04</v>
-      </c>
-      <c r="C8">
-        <v>69.08</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>17.86</v>
-      </c>
-      <c r="F8">
-        <v>39.24</v>
+      <c r="B9">
+        <v>0.21</v>
+      </c>
+      <c r="C9">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.09</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>55.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>0.22</v>
+      </c>
+      <c r="C10">
+        <v>66.73</v>
+      </c>
+      <c r="D10">
+        <v>0.31</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>55.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>0.32</v>
+      </c>
+      <c r="C11">
+        <v>66.73</v>
+      </c>
+      <c r="D11">
+        <v>0.26</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>0.14</v>
+      </c>
+      <c r="C12">
+        <v>66.72</v>
+      </c>
+      <c r="D12">
+        <v>0.44</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>55.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.11</v>
+      </c>
+      <c r="C13">
+        <v>66.72</v>
+      </c>
+      <c r="D13">
+        <v>0.38</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>55.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>0.24</v>
+      </c>
+      <c r="C14">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.23</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>55.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>0.17</v>
+      </c>
+      <c r="C15">
+        <v>66.7</v>
+      </c>
+      <c r="D15">
+        <v>0.29</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>55.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16">
+        <v>66.69</v>
+      </c>
+      <c r="D16">
+        <v>0.17</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>55.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>0.37</v>
+      </c>
+      <c r="C17">
+        <v>66.69</v>
+      </c>
+      <c r="D17">
+        <v>0.35</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>0.17</v>
+      </c>
+      <c r="C18">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>55.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>0.09</v>
+      </c>
+      <c r="C19">
+        <v>66.67</v>
+      </c>
+      <c r="D19">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>55.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <v>0.06</v>
+      </c>
+      <c r="C20">
+        <v>66.65000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>55.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>0.24</v>
+      </c>
+      <c r="C21">
+        <v>66.64</v>
+      </c>
+      <c r="D21">
+        <v>0.33</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>55.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22">
+        <v>66.63</v>
+      </c>
+      <c r="D22">
+        <v>0.03</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>0.18</v>
+      </c>
+      <c r="C23">
+        <v>66.62</v>
+      </c>
+      <c r="D23">
+        <v>0.14</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>55.46</v>
       </c>
     </row>
   </sheetData>
@@ -1609,57 +2365,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1676,152 +2428,428 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>0.19</v>
+      </c>
+      <c r="C6">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.35</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0.47</v>
+      </c>
+      <c r="C7">
+        <v>66.75</v>
+      </c>
+      <c r="D7">
+        <v>0.64</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>54.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>0.44</v>
+      </c>
+      <c r="C8">
+        <v>66.75</v>
+      </c>
+      <c r="D8">
+        <v>0.26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>54.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>0.12</v>
+      </c>
+      <c r="C9">
+        <v>66.75</v>
+      </c>
+      <c r="D9">
+        <v>0.14</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0.16</v>
+      </c>
+      <c r="C10">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.39</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>55.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0.21</v>
+      </c>
+      <c r="C11">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.09</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>55.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B12">
+        <v>0.22</v>
+      </c>
+      <c r="C12">
+        <v>66.73</v>
+      </c>
+      <c r="D12">
+        <v>0.31</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>55.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>0.32</v>
+      </c>
+      <c r="C13">
+        <v>66.73</v>
+      </c>
+      <c r="D13">
+        <v>0.26</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>0.14</v>
+      </c>
+      <c r="C14">
+        <v>66.72</v>
+      </c>
+      <c r="D14">
+        <v>0.44</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>55.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>0.11</v>
+      </c>
+      <c r="C15">
+        <v>66.72</v>
+      </c>
+      <c r="D15">
+        <v>0.38</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>55.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>0.24</v>
+      </c>
+      <c r="C16">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.23</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>55.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>0.17</v>
+      </c>
+      <c r="C17">
+        <v>66.7</v>
+      </c>
+      <c r="D17">
+        <v>0.29</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>55.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>91.73</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>66.69</v>
+      </c>
+      <c r="D18">
+        <v>0.17</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>55.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>0.37</v>
+      </c>
+      <c r="C19">
+        <v>66.69</v>
+      </c>
+      <c r="D19">
+        <v>0.35</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>0.17</v>
+      </c>
+      <c r="C20">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.14</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>55.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
         <v>0.09</v>
       </c>
-      <c r="F6">
-        <v>34.85</v>
-      </c>
-      <c r="G6">
-        <v>15.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
-        <v>91.73999999999999</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.02</v>
-      </c>
-      <c r="F7">
-        <v>34.83</v>
-      </c>
-      <c r="G7">
-        <v>15.11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>91.75</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>34.85</v>
-      </c>
-      <c r="G8">
-        <v>15.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9">
+      <c r="C21">
+        <v>66.67</v>
+      </c>
+      <c r="D21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>55.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22">
+        <v>0.06</v>
+      </c>
+      <c r="C22">
+        <v>66.65000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.13</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>55.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>0.24</v>
+      </c>
+      <c r="C23">
+        <v>66.64</v>
+      </c>
+      <c r="D23">
+        <v>0.33</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>55.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>0.2</v>
+      </c>
+      <c r="C24">
+        <v>66.63</v>
+      </c>
+      <c r="D24">
         <v>0.03</v>
       </c>
-      <c r="C9">
-        <v>73.76000000000001</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>20.38</v>
-      </c>
-      <c r="G9">
-        <v>35.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10">
-        <v>0.04</v>
-      </c>
-      <c r="C10">
-        <v>69.08</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>17.86</v>
-      </c>
-      <c r="G10">
-        <v>39.24</v>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25">
+        <v>0.18</v>
+      </c>
+      <c r="C25">
+        <v>66.62</v>
+      </c>
+      <c r="D25">
+        <v>0.14</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>55.46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>156.94</v>
+        <v>131.13</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>436.17</v>
+        <v>529.75</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24.68</v>
+        <v>32.32</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>856.13</v>
+        <v>376.18</v>
       </c>
     </row>
     <row r="3">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>856.13</v>
+        <v>376.18</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>887.96</v>
+        <v>147.969</v>
       </c>
     </row>
     <row r="5">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>165.155</v>
+        <v>47.479</v>
       </c>
     </row>
     <row r="6">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-47.031</v>
+        <v>184.297</v>
       </c>
     </row>
     <row r="7">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-149.954</v>
+        <v>-3.565</v>
       </c>
     </row>
     <row r="8">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.4666</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="9">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.0009</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="10">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>134.557</v>
+        <v>107.199</v>
       </c>
     </row>
     <row r="11">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7.254</v>
+        <v>27.841</v>
       </c>
     </row>
     <row r="12">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.872999999999999</v>
+        <v>12.928</v>
       </c>
     </row>
     <row r="13">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>736.276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26.689</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="15">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.395</v>
+        <v>18.697</v>
       </c>
     </row>
     <row r="16">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.95</v>
+        <v>6.482</v>
       </c>
     </row>
     <row r="17">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>118.122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>24.666</v>
+        <v>27.883</v>
       </c>
     </row>
     <row r="20">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.158</v>
+        <v>156.414</v>
       </c>
     </row>
     <row r="21">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>88.797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>160.652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.262</v>
+        <v>1060.636</v>
       </c>
     </row>
     <row r="24">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>76.322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>77.584</v>
+        <v>1060.636</v>
       </c>
     </row>
   </sheetData>
@@ -1368,31 +1368,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C6" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D6" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.94</v>
+        <v>3.07</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="I6" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>30.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1402,31 +1402,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C7" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D7" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.14</v>
+        <v>3.41</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="I7" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1436,31 +1436,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C8" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D8" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.49</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="I8" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1470,31 +1470,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C9" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D9" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.14</v>
+        <v>3.69</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="I9" t="n">
-        <v>4.53</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>25.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1504,31 +1504,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C10" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D10" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.12</v>
+        <v>3.66</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>13.87</v>
       </c>
       <c r="I10" t="n">
-        <v>9.210000000000001</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1538,31 +1538,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C11" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D11" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.11</v>
+        <v>3.64</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>15.21</v>
       </c>
       <c r="I11" t="n">
-        <v>9.81</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>19.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1572,31 +1572,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C12" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D12" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.09</v>
+        <v>3.59</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01</v>
+        <v>28.04</v>
       </c>
       <c r="I12" t="n">
-        <v>15.95</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>16.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1606,31 +1606,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C13" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D13" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.09</v>
+        <v>3.59</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09</v>
+        <v>28.26</v>
       </c>
       <c r="I13" t="n">
-        <v>15.99</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1640,31 +1640,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C14" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D14" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.08</v>
+        <v>3.58</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01</v>
+        <v>29.76</v>
       </c>
       <c r="I14" t="n">
-        <v>16.72</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>15.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1674,31 +1674,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C15" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D15" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.08</v>
+        <v>3.58</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>30.35</v>
       </c>
       <c r="I15" t="n">
-        <v>16.98</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1708,31 +1708,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C16" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D16" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.04</v>
+        <v>3.43</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07000000000000001</v>
+        <v>37.98</v>
       </c>
       <c r="I16" t="n">
-        <v>19.9</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1742,31 +1742,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C17" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D17" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.03</v>
+        <v>3.43</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>38.14</v>
       </c>
       <c r="I17" t="n">
-        <v>19.96</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1776,31 +1776,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C18" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D18" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.03</v>
+        <v>3.44</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>41.93</v>
       </c>
       <c r="I18" t="n">
-        <v>21.52</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>11.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1810,31 +1810,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C19" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D19" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.02</v>
+        <v>3.39</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01</v>
+        <v>45.83</v>
       </c>
       <c r="I19" t="n">
-        <v>23.01</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>10.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1844,31 +1844,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C20" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D20" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.01</v>
+        <v>3.37</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05</v>
+        <v>48.58</v>
       </c>
       <c r="I20" t="n">
-        <v>24.02</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>9.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1878,31 +1878,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C21" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D21" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.01</v>
+        <v>3.37</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>48.57</v>
       </c>
       <c r="I21" t="n">
-        <v>24.06</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>9.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1912,31 +1912,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
       <c r="C22" t="n">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="D22" t="n">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.01</v>
+        <v>3.36</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>48.56</v>
       </c>
       <c r="I22" t="n">
-        <v>24.04</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>9.82</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2028,19 +2028,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C4" t="n">
-        <v>98.88</v>
+        <v>99.47</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>39.93</v>
       </c>
       <c r="E4" t="n">
-        <v>51.67</v>
+        <v>53.83</v>
       </c>
       <c r="F4" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="C5" t="n">
-        <v>97.09999999999999</v>
+        <v>98.59</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>32.47</v>
       </c>
       <c r="E5" t="n">
-        <v>48.5</v>
+        <v>52.77</v>
       </c>
       <c r="F5" t="n">
-        <v>5.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2072,19 +2072,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="C6" t="n">
-        <v>96.33</v>
+        <v>98.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>31.1</v>
       </c>
       <c r="E6" t="n">
-        <v>47.5</v>
+        <v>52.58</v>
       </c>
       <c r="F6" t="n">
-        <v>7.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2094,19 +2094,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="C7" t="n">
-        <v>92.94</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.32</v>
+        <v>25.03</v>
       </c>
       <c r="E7" t="n">
-        <v>42.37</v>
+        <v>49.78</v>
       </c>
       <c r="F7" t="n">
-        <v>12.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2116,19 +2116,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02</v>
+        <v>15.5</v>
       </c>
       <c r="C8" t="n">
-        <v>86.59999999999999</v>
+        <v>87.54000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09</v>
+        <v>14.54</v>
       </c>
       <c r="E8" t="n">
-        <v>33.09</v>
+        <v>38.81</v>
       </c>
       <c r="F8" t="n">
-        <v>20.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2138,19 +2138,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>16.46</v>
       </c>
       <c r="C9" t="n">
-        <v>85.86</v>
+        <v>86.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2</v>
+        <v>12.98</v>
       </c>
       <c r="E9" t="n">
-        <v>31.99</v>
+        <v>37.43</v>
       </c>
       <c r="F9" t="n">
-        <v>20.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02</v>
+        <v>25.39</v>
       </c>
       <c r="C10" t="n">
-        <v>78.88</v>
+        <v>77.66</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24</v>
+        <v>7.57</v>
       </c>
       <c r="E10" t="n">
-        <v>26.54</v>
+        <v>30.89</v>
       </c>
       <c r="F10" t="n">
-        <v>28.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2182,19 +2182,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1</v>
+        <v>25.51</v>
       </c>
       <c r="C11" t="n">
-        <v>78.78</v>
+        <v>77.52</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06</v>
+        <v>7.44</v>
       </c>
       <c r="E11" t="n">
-        <v>26.45</v>
+        <v>30.78</v>
       </c>
       <c r="F11" t="n">
-        <v>28.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2204,19 +2204,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01</v>
+        <v>26.29</v>
       </c>
       <c r="C12" t="n">
-        <v>78.09</v>
+        <v>76.61</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09</v>
+        <v>6.66</v>
       </c>
       <c r="E12" t="n">
-        <v>25.82</v>
+        <v>30.02</v>
       </c>
       <c r="F12" t="n">
-        <v>28.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2226,19 +2226,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>26.66</v>
       </c>
       <c r="C13" t="n">
-        <v>77.79000000000001</v>
+        <v>76.25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>6.59</v>
       </c>
       <c r="E13" t="n">
-        <v>25.69</v>
+        <v>29.85</v>
       </c>
       <c r="F13" t="n">
-        <v>29.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2248,19 +2248,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07000000000000001</v>
+        <v>29.89</v>
       </c>
       <c r="C14" t="n">
-        <v>74.92</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.11</v>
+        <v>2.25</v>
       </c>
       <c r="E14" t="n">
-        <v>22.7</v>
+        <v>25.68</v>
       </c>
       <c r="F14" t="n">
-        <v>30.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2270,19 +2270,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06</v>
+        <v>29.99</v>
       </c>
       <c r="C15" t="n">
-        <v>74.87</v>
+        <v>71.87</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08</v>
+        <v>2.27</v>
       </c>
       <c r="E15" t="n">
-        <v>22.65</v>
+        <v>25.64</v>
       </c>
       <c r="F15" t="n">
-        <v>30.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2292,19 +2292,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04</v>
+        <v>31.79</v>
       </c>
       <c r="C16" t="n">
-        <v>73.45</v>
+        <v>69.92</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09</v>
+        <v>1.54</v>
       </c>
       <c r="E16" t="n">
-        <v>21.84</v>
+        <v>24.81</v>
       </c>
       <c r="F16" t="n">
-        <v>31.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2314,19 +2314,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01</v>
+        <v>33.56</v>
       </c>
       <c r="C17" t="n">
-        <v>72.14</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>23.6</v>
       </c>
       <c r="F17" t="n">
-        <v>32.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2336,19 +2336,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>34.76</v>
       </c>
       <c r="C18" t="n">
-        <v>71.25</v>
+        <v>66.73</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E18" t="n">
-        <v>20.48</v>
+        <v>22.88</v>
       </c>
       <c r="F18" t="n">
-        <v>33.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2358,19 +2358,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>34.76</v>
       </c>
       <c r="C19" t="n">
-        <v>71.23999999999999</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="E19" t="n">
-        <v>20.47</v>
+        <v>22.88</v>
       </c>
       <c r="F19" t="n">
-        <v>33.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2380,19 +2380,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02</v>
+        <v>34.75</v>
       </c>
       <c r="C20" t="n">
-        <v>71.23999999999999</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="E20" t="n">
-        <v>20.46</v>
+        <v>22.85</v>
       </c>
       <c r="F20" t="n">
-        <v>33.67</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2535,19 +2535,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C6" t="n">
-        <v>98.88</v>
+        <v>99.47</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>39.93</v>
       </c>
       <c r="E6" t="n">
-        <v>51.67</v>
+        <v>53.83</v>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="C7" t="n">
-        <v>97.09999999999999</v>
+        <v>98.59</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>32.47</v>
       </c>
       <c r="E7" t="n">
-        <v>48.5</v>
+        <v>52.77</v>
       </c>
       <c r="F7" t="n">
-        <v>5.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2579,19 +2579,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="C8" t="n">
-        <v>96.33</v>
+        <v>98.2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.12</v>
+        <v>31.1</v>
       </c>
       <c r="E8" t="n">
-        <v>47.5</v>
+        <v>52.58</v>
       </c>
       <c r="F8" t="n">
-        <v>7.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2601,19 +2601,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="C9" t="n">
-        <v>92.94</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.32</v>
+        <v>25.03</v>
       </c>
       <c r="E9" t="n">
-        <v>42.37</v>
+        <v>49.78</v>
       </c>
       <c r="F9" t="n">
-        <v>12.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2623,19 +2623,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02</v>
+        <v>15.5</v>
       </c>
       <c r="C10" t="n">
-        <v>86.59999999999999</v>
+        <v>87.54000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09</v>
+        <v>14.54</v>
       </c>
       <c r="E10" t="n">
-        <v>33.09</v>
+        <v>38.81</v>
       </c>
       <c r="F10" t="n">
-        <v>20.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2645,19 +2645,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>16.46</v>
       </c>
       <c r="C11" t="n">
-        <v>85.86</v>
+        <v>86.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2</v>
+        <v>12.98</v>
       </c>
       <c r="E11" t="n">
-        <v>31.99</v>
+        <v>37.43</v>
       </c>
       <c r="F11" t="n">
-        <v>20.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2667,19 +2667,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02</v>
+        <v>25.39</v>
       </c>
       <c r="C12" t="n">
-        <v>78.88</v>
+        <v>77.66</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24</v>
+        <v>7.57</v>
       </c>
       <c r="E12" t="n">
-        <v>26.54</v>
+        <v>30.89</v>
       </c>
       <c r="F12" t="n">
-        <v>28.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2689,19 +2689,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1</v>
+        <v>25.51</v>
       </c>
       <c r="C13" t="n">
-        <v>78.78</v>
+        <v>77.52</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06</v>
+        <v>7.44</v>
       </c>
       <c r="E13" t="n">
-        <v>26.45</v>
+        <v>30.78</v>
       </c>
       <c r="F13" t="n">
-        <v>28.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2711,19 +2711,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01</v>
+        <v>26.29</v>
       </c>
       <c r="C14" t="n">
-        <v>78.09</v>
+        <v>76.61</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09</v>
+        <v>6.66</v>
       </c>
       <c r="E14" t="n">
-        <v>25.82</v>
+        <v>30.02</v>
       </c>
       <c r="F14" t="n">
-        <v>28.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2733,19 +2733,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>26.66</v>
       </c>
       <c r="C15" t="n">
-        <v>77.79000000000001</v>
+        <v>76.25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>6.59</v>
       </c>
       <c r="E15" t="n">
-        <v>25.69</v>
+        <v>29.85</v>
       </c>
       <c r="F15" t="n">
-        <v>29.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2755,19 +2755,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07000000000000001</v>
+        <v>29.89</v>
       </c>
       <c r="C16" t="n">
-        <v>74.92</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.11</v>
+        <v>2.25</v>
       </c>
       <c r="E16" t="n">
-        <v>22.7</v>
+        <v>25.68</v>
       </c>
       <c r="F16" t="n">
-        <v>30.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2777,19 +2777,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06</v>
+        <v>29.99</v>
       </c>
       <c r="C17" t="n">
-        <v>74.87</v>
+        <v>71.87</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08</v>
+        <v>2.27</v>
       </c>
       <c r="E17" t="n">
-        <v>22.65</v>
+        <v>25.64</v>
       </c>
       <c r="F17" t="n">
-        <v>30.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2799,19 +2799,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.04</v>
+        <v>31.79</v>
       </c>
       <c r="C18" t="n">
-        <v>73.45</v>
+        <v>69.92</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09</v>
+        <v>1.54</v>
       </c>
       <c r="E18" t="n">
-        <v>21.84</v>
+        <v>24.81</v>
       </c>
       <c r="F18" t="n">
-        <v>31.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2821,19 +2821,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01</v>
+        <v>33.56</v>
       </c>
       <c r="C19" t="n">
-        <v>72.14</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>23.6</v>
       </c>
       <c r="F19" t="n">
-        <v>32.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>34.76</v>
       </c>
       <c r="C20" t="n">
-        <v>71.25</v>
+        <v>66.73</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E20" t="n">
-        <v>20.48</v>
+        <v>22.88</v>
       </c>
       <c r="F20" t="n">
-        <v>33.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2865,19 +2865,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>34.76</v>
       </c>
       <c r="C21" t="n">
-        <v>71.23999999999999</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="E21" t="n">
-        <v>20.47</v>
+        <v>22.88</v>
       </c>
       <c r="F21" t="n">
-        <v>33.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2887,19 +2887,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02</v>
+        <v>34.75</v>
       </c>
       <c r="C22" t="n">
-        <v>71.23999999999999</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="E22" t="n">
-        <v>20.46</v>
+        <v>22.85</v>
       </c>
       <c r="F22" t="n">
-        <v>33.67</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,7 +54,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -107,18 +106,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +499,31 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Step 1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Step 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Step 3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Step 4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Step 5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -439,7 +531,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PV panels</t>
+          <t>Solar PV</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -448,7 +540,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>131.13</v>
+        <v>373.79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25.27</v>
+      </c>
+      <c r="H2" t="n">
+        <v>471.29</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +570,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>529.75</v>
+        <v>581.8099999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>581.8099999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -478,11 +600,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32.32</v>
+        <v>113.64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>149.76</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -492,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,29 +638,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Cost item</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Scenario</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Step 1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Step 2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Step 3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Step 4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Step 5</t>
         </is>
       </c>
     </row>
@@ -549,7 +691,32 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>376.18</v>
+        <v>790.366</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -572,24 +739,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>376.18</v>
+        <v>1024.653</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Total Investment cost</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
@@ -597,13 +779,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>147.969</v>
+        <v>438.936</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Total fixed O&amp;M cost</t>
+          <t>Total Investment cost</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -622,13 +829,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>47.479</v>
+        <v>556.0119999999999</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Total variable O&amp;M cost</t>
+          <t>Total fixed O&amp;M cost</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -636,8 +868,10 @@
           <t>System</t>
         </is>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
@@ -645,13 +879,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>184.297</v>
+        <v>48.963</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Salvage value</t>
+          <t>Total variable O&amp;M cost</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -659,10 +918,8 @@
           <t>System</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
@@ -670,38 +927,78 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-3.565</v>
+        <v>586.273</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Levelized Cost of Energy </t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>USD/kWh</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.205</v>
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Levelized Cost of Energy scenarios</t>
+          <t>Salvage value</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -709,27 +1006,54 @@
           <t>System</t>
         </is>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>1</v>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>USD/kWh</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.205</v>
+        <v>-166.595</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Investment cost</t>
+          <t xml:space="preserve">Levelized Cost of Energy </t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>PV panels</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -739,106 +1063,207 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>USD/kWh</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>107.199</v>
+        <v>0.2058</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Levelized Cost of Energy scenarios</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>USD/kWh</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.841</v>
+        <v>0.293</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Genset</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
+          <t>USD/kWh</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1.2761</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Investment cost</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Solar PV</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>12.928</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>National grid</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="E13" t="n">
+        <v>414.096</v>
+      </c>
+      <c r="F13" t="n">
+        <v>355.103</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14.775</v>
+      </c>
+      <c r="H13" t="n">
+        <v>19.142</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.499</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11.577</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fixed cost</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>PV panels</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
       <c r="E14" t="n">
-        <v>22.3</v>
+        <v>87.271</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.271</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -852,14 +1277,33 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18.697</v>
+        <v>54.645</v>
+      </c>
+      <c r="F15" t="n">
+        <v>45.457</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.757</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.267</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.199</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.965</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fixed cost</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset</t>
+          <t>Solar PV</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -873,14 +1317,39 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6.482</v>
+        <v>21.075</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>National Grid</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -894,22 +1363,45 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>15.66</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Lost load cost</t>
-        </is>
-      </c>
+      <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>1</v>
+          <t>Diesel Genset 1</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
@@ -917,18 +1409,43 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>12.228</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Replacement cost</t>
+          <t>Lost load cost</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C19" s="1" t="n">
@@ -940,22 +1457,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.883</v>
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Fuel cost</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
@@ -963,18 +1497,43 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>156.414</v>
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Grid electricity cost</t>
+          <t>Replacement cost</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>National Grid</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C21" s="1" t="n">
@@ -986,22 +1545,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>9.917999999999999</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Grid electricity revenue</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>National Grid</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
@@ -1009,18 +1585,43 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fuel CO2 emission</t>
+          <t>Fuel cost</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="C23" s="1" t="n">
@@ -1028,51 +1629,91 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1060.636</v>
+        <v>576.355</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Grid CO2 emission</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RES CO2 emission</t>
+          <t>Fuel CO2 emission</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
@@ -1080,24 +1721,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1893.236</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>GEN CO2 emission</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
@@ -1106,17 +1762,42 @@
       </c>
       <c r="E26" t="n">
         <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BESS CO2 emission</t>
+          <t>RES CO2 emission</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>BESS</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -1131,37 +1812,243 @@
       </c>
       <c r="E27" t="n">
         <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
+          <t>GEN CO2 emission</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>BESS CO2 emission</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
           <t>TOTAL CO2 emission</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="D30" s="1" t="inlineStr">
         <is>
           <t>ton</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>1060.636</v>
+      <c r="E30" t="n">
+        <v>1893.236</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
+  <mergeCells count="18">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1171,7 +2058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1188,32 +2075,24 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Lost load cost</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Replacement cost</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fuel cost</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Grid cost</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Grid revenue</t>
-        </is>
-      </c>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1223,7 +2102,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>PV panels</t>
+          <t>Solar PV</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -1233,39 +2112,27 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Grid</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
           <t>System</t>
         </is>
       </c>
+      <c r="F2" s="1" t="n"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Diesel</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Grid</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>Grid</t>
-        </is>
-      </c>
+      <c r="J2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1288,25 +2155,23 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +2233,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.78</v>
+        <v>6.39</v>
       </c>
       <c r="C6" t="n">
-        <v>2.33</v>
+        <v>5.24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1383,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="H6" t="n">
-        <v>0.52</v>
+        <v>0.17</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>143.24</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1402,13 +2267,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.78</v>
+        <v>6.71</v>
       </c>
       <c r="C7" t="n">
-        <v>2.33</v>
+        <v>5.24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1417,13 +2282,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.41</v>
+        <v>3.31</v>
       </c>
       <c r="H7" t="n">
-        <v>1.39</v>
+        <v>0.18</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>170.08</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1436,13 +2301,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.78</v>
+        <v>7.21</v>
       </c>
       <c r="C8" t="n">
-        <v>2.33</v>
+        <v>5.24</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8100000000000001</v>
+        <v>4.16</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1451,13 +2316,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.49</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>1.78</v>
+        <v>0.19</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>199.19</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1470,13 +2335,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.78</v>
+        <v>7.63</v>
       </c>
       <c r="C9" t="n">
-        <v>2.33</v>
+        <v>5.24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8100000000000001</v>
+        <v>4.47</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1485,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.69</v>
+        <v>3.36</v>
       </c>
       <c r="H9" t="n">
-        <v>4.22</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1504,13 +2369,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.78</v>
+        <v>8.06</v>
       </c>
       <c r="C10" t="n">
-        <v>2.33</v>
+        <v>5.24</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8100000000000001</v>
+        <v>4.79</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1519,431 +2384,29 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.66</v>
+        <v>3.39</v>
       </c>
       <c r="H10" t="n">
-        <v>13.87</v>
+        <v>0.21</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>275.6</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Year 6</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="H11" t="n">
-        <v>15.21</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Year 7</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28.04</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Year 8</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="H13" t="n">
-        <v>28.26</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Year 9</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="H14" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Year 10</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="H15" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Year 11</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="H16" t="n">
-        <v>37.98</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Year 12</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="H17" t="n">
-        <v>38.14</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Year 13</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="H18" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Year 14</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="H19" t="n">
-        <v>45.83</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Year 15</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="H20" t="n">
-        <v>48.58</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Year 16</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="H21" t="n">
-        <v>48.57</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Year 17</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="H22" t="n">
-        <v>48.56</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="7">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1953,7 +2416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1983,16 +2446,11 @@
           <t>Battery usage</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Grid usage</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -2011,11 +2469,6 @@
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -2028,19 +2481,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.95</v>
+        <v>32.8</v>
       </c>
       <c r="C4" t="n">
-        <v>99.47</v>
+        <v>99.02</v>
       </c>
       <c r="D4" t="n">
-        <v>39.93</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>53.83</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="5">
@@ -2050,19 +2500,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.26</v>
+        <v>33.62</v>
       </c>
       <c r="C5" t="n">
-        <v>98.59</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>32.47</v>
+        <v>96.98</v>
       </c>
       <c r="E5" t="n">
-        <v>52.77</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="6">
@@ -2072,19 +2519,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.83</v>
+        <v>33.7</v>
       </c>
       <c r="C6" t="n">
-        <v>98.2</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n">
-        <v>31.1</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>52.58</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="7">
@@ -2094,19 +2538,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.98</v>
+        <v>34.08</v>
       </c>
       <c r="C7" t="n">
-        <v>95.84999999999999</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>25.03</v>
+        <v>97.02</v>
       </c>
       <c r="E7" t="n">
-        <v>49.78</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="8">
@@ -2116,287 +2557,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.5</v>
+        <v>34.65</v>
       </c>
       <c r="C8" t="n">
-        <v>87.54000000000001</v>
+        <v>98.98</v>
       </c>
       <c r="D8" t="n">
-        <v>14.54</v>
+        <v>97.03</v>
       </c>
       <c r="E8" t="n">
-        <v>38.81</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Year 6</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="C9" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="E9" t="n">
-        <v>37.43</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Year 7</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="C10" t="n">
-        <v>77.66</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="E10" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Year 8</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="C11" t="n">
-        <v>77.52</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E11" t="n">
-        <v>30.78</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Year 9</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.29</v>
-      </c>
-      <c r="C12" t="n">
-        <v>76.61</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Year 10</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.66</v>
-      </c>
-      <c r="C13" t="n">
-        <v>76.25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="E13" t="n">
-        <v>29.85</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Year 11</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>29.89</v>
-      </c>
-      <c r="C14" t="n">
-        <v>71.95999999999999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Year 12</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="C15" t="n">
-        <v>71.87</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25.64</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Year 13</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="C16" t="n">
-        <v>69.92</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24.81</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Year 14</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>33.56</v>
-      </c>
-      <c r="C17" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E17" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Year 15</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="C18" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E18" t="n">
-        <v>22.88</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Year 16</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="C19" t="n">
-        <v>66.73999999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E19" t="n">
-        <v>22.88</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Year 17</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="C20" t="n">
-        <v>66.73999999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E20" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
+        <v>11.74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2406,7 +2580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2421,26 +2595,25 @@
           <t>Generator share</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Renewable penetration</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Curtailment share</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Battery usage</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Grid usage</t>
-        </is>
-      </c>
+      <c r="I1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2450,29 +2623,28 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>PV panels</t>
-        </is>
-      </c>
+          <t>Diesel Genset 1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n"/>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+          <t>Solar PV</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Grid</t>
-        </is>
-      </c>
+      <c r="I2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2484,22 +2656,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -2523,6 +2704,21 @@
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -2535,19 +2731,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.95</v>
+        <v>34.97</v>
       </c>
       <c r="C6" t="n">
-        <v>99.47</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.93</v>
+        <v>66.36</v>
       </c>
       <c r="E6" t="n">
-        <v>53.83</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>99.81</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.67</v>
       </c>
     </row>
     <row r="7">
@@ -2557,19 +2762,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.26</v>
+        <v>35.84</v>
       </c>
       <c r="C7" t="n">
-        <v>98.59</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.47</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>52.77</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3.87</v>
+      </c>
+      <c r="G7" t="n">
+        <v>99.81</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.67</v>
       </c>
     </row>
     <row r="8">
@@ -2579,19 +2793,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.83</v>
+        <v>35.9</v>
       </c>
       <c r="C8" t="n">
-        <v>98.2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>31.1</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>52.58</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.59</v>
+      </c>
+      <c r="G8" t="n">
+        <v>99.81</v>
+      </c>
+      <c r="H8" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.66</v>
       </c>
     </row>
     <row r="9">
@@ -2601,19 +2824,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.98</v>
+        <v>36.29</v>
       </c>
       <c r="C9" t="n">
-        <v>95.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>25.03</v>
+        <v>65.73</v>
       </c>
       <c r="E9" t="n">
-        <v>49.78</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5.08</v>
+      </c>
+      <c r="G9" t="n">
+        <v>99.81</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.66</v>
       </c>
     </row>
     <row r="10">
@@ -2623,286 +2855,41 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.5</v>
+        <v>36.89</v>
       </c>
       <c r="C10" t="n">
-        <v>87.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.54</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>38.81</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Year 6</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="C11" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="E11" t="n">
-        <v>37.43</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Year 7</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="C12" t="n">
-        <v>77.66</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Year 8</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="C13" t="n">
-        <v>77.52</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30.78</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Year 9</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>26.29</v>
-      </c>
-      <c r="C14" t="n">
-        <v>76.61</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E14" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Year 10</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>26.66</v>
-      </c>
-      <c r="C15" t="n">
-        <v>76.25</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="E15" t="n">
-        <v>29.85</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Year 11</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>29.89</v>
-      </c>
-      <c r="C16" t="n">
-        <v>71.95999999999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E16" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Year 12</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="C17" t="n">
-        <v>71.87</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25.64</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Year 13</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="C18" t="n">
-        <v>69.92</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="E18" t="n">
-        <v>24.81</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Year 14</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>33.56</v>
-      </c>
-      <c r="C19" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E19" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Year 15</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="C20" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E20" t="n">
-        <v>22.88</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Year 16</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="C21" t="n">
-        <v>66.73999999999999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E21" t="n">
-        <v>22.88</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Year 17</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="C22" t="n">
-        <v>66.73999999999999</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E22" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
+        <v>5.83</v>
+      </c>
+      <c r="G10" t="n">
+        <v>99.81</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,21 +509,6 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Step 3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Step 4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Step 5</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>Total</t>
         </is>
       </c>
@@ -540,22 +525,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>373.79</v>
+        <v>86.62</v>
       </c>
       <c r="D2" t="n">
-        <v>18.66</v>
+        <v>7.55</v>
       </c>
       <c r="E2" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="G2" t="n">
-        <v>25.27</v>
-      </c>
-      <c r="H2" t="n">
-        <v>471.29</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="3">
@@ -570,22 +546,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>581.8099999999999</v>
+        <v>189.62</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>581.8099999999999</v>
+        <v>189.62</v>
       </c>
     </row>
     <row r="4">
@@ -600,22 +567,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>113.64</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.27</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="H4" t="n">
-        <v>149.76</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,21 +611,6 @@
           <t>Step 2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Step 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Step 4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Step 5</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -691,7 +634,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>790.366</v>
+        <v>65.75700000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -699,21 +642,6 @@
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -739,7 +667,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1024.653</v>
+        <v>65.75700000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -751,27 +679,22 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Total Investment cost</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
@@ -779,7 +702,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>438.936</v>
+        <v>116.707</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -787,21 +710,6 @@
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -810,7 +718,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Total Investment cost</t>
+          <t>Total fixed O&amp;M cost</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -829,7 +737,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>556.0119999999999</v>
+        <v>4.96</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -837,21 +745,6 @@
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -860,7 +753,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Total fixed O&amp;M cost</t>
+          <t>Total variable O&amp;M cost</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -868,10 +761,8 @@
           <t>System</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
@@ -879,7 +770,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>48.963</v>
+        <v>1.445</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -887,21 +778,6 @@
         </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -910,7 +786,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Total variable O&amp;M cost</t>
+          <t>Salvage value</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -918,8 +794,10 @@
           <t>System</t>
         </is>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>1</v>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
@@ -927,7 +805,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>586.273</v>
+        <v>-57.354</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -939,35 +817,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n">
-        <v>2</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Levelized Cost of Energy </t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>USD/kWh</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5071</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -975,21 +848,6 @@
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -998,7 +856,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Salvage value</t>
+          <t>Levelized Cost of Energy scenarios</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1006,18 +864,16 @@
           <t>System</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>USD/kWh</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-166.595</v>
+        <v>0.5071</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1025,21 +881,6 @@
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1048,12 +889,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Levelized Cost of Energy </t>
+          <t>Investment cost</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Solar PV</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -1063,130 +904,77 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>USD/kWh</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2058</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>88.264</v>
+      </c>
+      <c r="F10" t="n">
+        <v>82.28700000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.977</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Levelized Cost of Energy scenarios</t>
-        </is>
-      </c>
+      <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>1</v>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>USD/kWh</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.293</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>28.443</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.443</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n">
-        <v>2</v>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Diesel Genset 1</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>USD/kWh</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.2761</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Investment cost</t>
+          <t>Fixed cost</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -1205,22 +993,17 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>414.096</v>
-      </c>
-      <c r="F13" t="n">
-        <v>355.103</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14.775</v>
-      </c>
-      <c r="H13" t="n">
-        <v>19.142</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13.499</v>
-      </c>
-      <c r="J13" t="n">
-        <v>11.577</v>
+        <v>2.353</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1241,22 +1024,17 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>87.271</v>
-      </c>
-      <c r="F14" t="n">
-        <v>87.271</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
+        <v>2.607</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1277,39 +1055,32 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>54.645</v>
-      </c>
-      <c r="F15" t="n">
-        <v>45.457</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.757</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.267</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.199</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.965</v>
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fixed cost</t>
+          <t>Lost load cost</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
@@ -1317,7 +1088,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>21.075</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1329,33 +1100,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Replacement cost</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
@@ -1363,7 +1121,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.66</v>
+        <v>1.445</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1375,33 +1133,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Fuel cost</t>
+        </is>
+      </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
@@ -1409,7 +1154,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12.228</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1417,21 +1162,6 @@
         </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1440,7 +1170,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Lost load cost</t>
+          <t>Fuel CO2 emission</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -1453,7 +1183,7 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1469,31 +1199,26 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n">
-        <v>2</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RES CO2 emission</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1505,21 +1230,6 @@
         </is>
       </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1528,24 +1238,26 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Replacement cost</t>
+          <t>GEN CO2 emission</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>1</v>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.917999999999999</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1557,35 +1269,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n">
-        <v>2</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>BESS CO2 emission</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5570000000000001</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1593,21 +1300,6 @@
         </is>
       </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1616,12 +1308,12 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fuel cost</t>
+          <t>TOTAL CO2 emission</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C23" s="1" t="n">
@@ -1629,11 +1321,11 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>576.355</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1645,407 +1337,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Fuel CO2 emission</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>1893.236</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>RES CO2 emission</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>GEN CO2 emission</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>BESS CO2 emission</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>BESS</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL CO2 emission</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>1893.236</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A11:A12"/>
+  <mergeCells count="2">
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2058,7 +1353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,19 +1375,16 @@
           <t>Lost load cost</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Replacement cost</t>
+        </is>
+      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>Fuel cost</t>
         </is>
       </c>
-      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2120,19 +1412,16 @@
           <t>System</t>
         </is>
       </c>
-      <c r="F2" s="1" t="n"/>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Battery bank</t>
+        </is>
+      </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="n"/>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
           <t>Diesel</t>
         </is>
       </c>
-      <c r="J2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2159,20 +1448,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2210,21 +1490,6 @@
           <t>kUSD</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2233,30 +1498,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.39</v>
+        <v>1.48</v>
       </c>
       <c r="C6" t="n">
-        <v>5.24</v>
+        <v>1.71</v>
       </c>
       <c r="D6" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="G6" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I6" t="n">
-        <v>143.24</v>
-      </c>
-      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2267,144 +1523,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.71</v>
+        <v>1.61</v>
       </c>
       <c r="C7" t="n">
-        <v>5.24</v>
+        <v>1.71</v>
       </c>
       <c r="D7" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="G7" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I7" t="n">
-        <v>170.08</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Year 3</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I8" t="n">
-        <v>199.19</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>234</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I10" t="n">
-        <v>275.6</v>
-      </c>
-      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2416,7 +1555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2481,16 +1620,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.8</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>99.02</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>96.98999999999999</v>
+        <v>50.27</v>
       </c>
       <c r="E4" t="n">
-        <v>13.92</v>
+        <v>52.46</v>
       </c>
     </row>
     <row r="5">
@@ -2500,73 +1639,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.62</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>98.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>96.98</v>
+        <v>51.92</v>
       </c>
       <c r="E5" t="n">
-        <v>13.48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Year 3</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>99</v>
-      </c>
-      <c r="D6" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12.88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>34.08</v>
-      </c>
-      <c r="C7" t="n">
-        <v>98.98999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>97.02</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="C8" t="n">
-        <v>98.98</v>
-      </c>
-      <c r="D8" t="n">
-        <v>97.03</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11.74</v>
+        <v>52.41</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +1662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2595,25 +1677,21 @@
           <t>Generator share</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Renewable penetration</t>
+        </is>
+      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Renewable penetration</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Curtailment share</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Battery usage</t>
         </is>
       </c>
-      <c r="I1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2626,25 +1704,21 @@
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Solar PV</t>
+        </is>
+      </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="I2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2656,25 +1730,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2703,26 +1765,6 @@
           <t>%</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2731,28 +1773,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.97</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>66.36</v>
+        <v>50.27</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>99.81</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.67</v>
+        <v>52.46</v>
       </c>
     </row>
     <row r="7">
@@ -2762,134 +1792,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.84</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>65.73999999999999</v>
+        <v>51.92</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="G7" t="n">
-        <v>99.81</v>
-      </c>
-      <c r="H7" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.67</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Year 3</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>65.93000000000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="G8" t="n">
-        <v>99.81</v>
-      </c>
-      <c r="H8" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.66</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>36.29</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>65.73</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="G9" t="n">
-        <v>99.81</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.66</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>65.43000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="G10" t="n">
-        <v>99.81</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.66</v>
+        <v>52.41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,16 +499,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Step 1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Step 2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Total</t>
         </is>
       </c>
@@ -525,13 +515,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>86.62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E2" t="n">
-        <v>94.17</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="3">
@@ -546,13 +530,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>189.62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>189.62</v>
+        <v>187.17</v>
       </c>
     </row>
     <row r="4">
@@ -567,13 +545,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+        <v>19.99</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,16 +573,6 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Step 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Step 2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -634,17 +596,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65.75700000000001</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>131.949</v>
       </c>
     </row>
     <row r="3">
@@ -667,17 +619,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65.75700000000001</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>131.949</v>
       </c>
     </row>
     <row r="4">
@@ -702,17 +644,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>116.707</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>87.548</v>
       </c>
     </row>
     <row r="5">
@@ -737,17 +669,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>15.831</v>
       </c>
     </row>
     <row r="6">
@@ -770,17 +692,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.445</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>28.839</v>
       </c>
     </row>
     <row r="7">
@@ -805,17 +717,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-57.354</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-0.269</v>
       </c>
     </row>
     <row r="8">
@@ -840,17 +742,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5071</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="9">
@@ -873,17 +765,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5071</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="10">
@@ -908,13 +790,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>88.264</v>
-      </c>
-      <c r="F10" t="n">
-        <v>82.28700000000001</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.977</v>
+        <v>51.475</v>
       </c>
     </row>
     <row r="11">
@@ -935,13 +811,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.443</v>
-      </c>
-      <c r="F11" t="n">
-        <v>28.443</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+        <v>28.076</v>
       </c>
     </row>
     <row r="12">
@@ -962,13 +832,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
+        <v>7.998</v>
       </c>
     </row>
     <row r="13">
@@ -993,17 +857,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.353</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4.512</v>
       </c>
     </row>
     <row r="14">
@@ -1024,17 +878,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.607</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>8.202999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1055,17 +899,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3.116</v>
       </c>
     </row>
     <row r="16">
@@ -1090,16 +924,6 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1121,17 +945,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.445</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4.795</v>
       </c>
     </row>
     <row r="18">
@@ -1154,17 +968,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>24.044</v>
       </c>
     </row>
     <row r="19">
@@ -1187,17 +991,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>668.522</v>
       </c>
     </row>
     <row r="20">
@@ -1224,16 +1018,6 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1259,16 +1043,6 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1294,16 +1068,6 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1325,17 +1089,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>668.522</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,22 +1252,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.48</v>
+        <v>0.93</v>
       </c>
       <c r="C6" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -1523,22 +1277,472 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.61</v>
+        <v>0.93</v>
       </c>
       <c r="C7" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Year 3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Year 6</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Year 7</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Year 8</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Year 9</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Year 10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.97</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
+      <c r="G15" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Year 11</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Year 12</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Year 13</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Year 14</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Year 15</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G20" t="n">
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Year 16</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Year 17</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G22" t="n">
+        <v>29.28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Year 18</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G23" t="n">
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Year 19</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G24" t="n">
+        <v>36.43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Year 20</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G25" t="n">
+        <v>40.32</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,16 +1824,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>99.55</v>
       </c>
       <c r="D4" t="n">
-        <v>50.27</v>
+        <v>20.83</v>
       </c>
       <c r="E4" t="n">
-        <v>52.46</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="5">
@@ -1639,16 +1843,358 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>51.92</v>
+        <v>17.13</v>
       </c>
       <c r="E5" t="n">
-        <v>52.41</v>
+        <v>53.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Year 3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="C6" t="n">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>96.94</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>51.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C8" t="n">
+        <v>94.81</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>49.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Year 6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>92.03</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E9" t="n">
+        <v>46.69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Year 7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="C10" t="n">
+        <v>88.97</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="E10" t="n">
+        <v>43.84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Year 8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="C11" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>41.03</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Year 9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="C12" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38.31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Year 10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="C13" t="n">
+        <v>79.69</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E13" t="n">
+        <v>35.61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Year 11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32.86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Year 12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30.15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Year 13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="C16" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27.51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Year 14</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>33.39</v>
+      </c>
+      <c r="C17" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E17" t="n">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Year 15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>36.33</v>
+      </c>
+      <c r="C18" t="n">
+        <v>64.08</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E18" t="n">
+        <v>22.57</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Year 16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>61.15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Year 17</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="C20" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18.92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Year 18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="C21" t="n">
+        <v>55.57</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17.94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Year 19</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>47.42</v>
+      </c>
+      <c r="C22" t="n">
+        <v>52.93</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Year 20</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="C23" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,16 +2319,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>99.55</v>
       </c>
       <c r="D6" t="n">
-        <v>50.27</v>
+        <v>20.83</v>
       </c>
       <c r="E6" t="n">
-        <v>52.46</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="7">
@@ -1792,16 +2338,358 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>51.92</v>
+        <v>17.13</v>
       </c>
       <c r="E7" t="n">
-        <v>52.41</v>
+        <v>53.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Year 3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="C8" t="n">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>52.57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>96.94</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>51.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C10" t="n">
+        <v>94.81</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>49.34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Year 6</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>92.03</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E11" t="n">
+        <v>46.69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Year 7</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="C12" t="n">
+        <v>88.97</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="E12" t="n">
+        <v>43.84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Year 8</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="C13" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E13" t="n">
+        <v>41.03</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Year 9</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="C14" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E14" t="n">
+        <v>38.31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Year 10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="C15" t="n">
+        <v>79.69</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E15" t="n">
+        <v>35.61</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Year 11</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32.86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Year 12</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="C17" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30.15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Year 13</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>27.51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Year 14</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>33.39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E19" t="n">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Year 15</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>36.33</v>
+      </c>
+      <c r="C20" t="n">
+        <v>64.08</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E20" t="n">
+        <v>22.57</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Year 16</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="C21" t="n">
+        <v>61.15</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Year 17</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="C22" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18.92</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Year 18</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="C23" t="n">
+        <v>55.57</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17.94</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Year 19</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>47.42</v>
+      </c>
+      <c r="C24" t="n">
+        <v>52.93</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Year 20</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,26 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Step 1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Step 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Step 3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Step 4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -515,7 +535,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54.18</v>
+        <v>48.07</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>56.96</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +562,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187.17</v>
+        <v>170.91</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>196.04</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +589,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.99</v>
+        <v>4.93</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.87</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +629,26 @@
           <t>Total</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Step 1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Step 2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Step 3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Step 4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -596,7 +672,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>131.949</v>
+        <v>112.488</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -619,7 +715,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>131.949</v>
+        <v>112.488</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -644,7 +760,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>87.548</v>
+        <v>79.965</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -669,7 +805,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.831</v>
+        <v>13.252</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -692,7 +848,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.839</v>
+        <v>20.79</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -717,7 +893,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.269</v>
+        <v>-1.519</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -742,7 +938,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2562</v>
+        <v>0.2184</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -765,7 +981,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2562</v>
+        <v>0.2155</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -790,7 +1026,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>51.475</v>
+        <v>49.057</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45.663</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.393</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -811,7 +1059,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.076</v>
+        <v>27.151</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.636</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.514</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -832,131 +1092,231 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.998</v>
+        <v>2.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.972</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.194</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>National Grid</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>11.398</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.813</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.454</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Fixed cost</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>Solar PV</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>4.512</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
       <c r="E14" t="n">
-        <v>8.202999999999999</v>
+        <v>4.288</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7.915</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>3.116</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Lost load cost</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="E16" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>National Grid</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
       <c r="E17" t="n">
-        <v>4.795</v>
+        <v>0.147</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fuel cost</t>
+          <t>Lost load cost</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C18" s="1" t="n">
@@ -968,18 +1328,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.044</v>
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fuel CO2 emission</t>
+          <t>Replacement cost</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C19" s="1" t="n">
@@ -987,92 +1367,166 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>668.522</v>
+        <v>4.729</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RES CO2 emission</t>
+          <t>Fuel cost</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>10.908</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GEN CO2 emission</t>
+          <t>Grid electricity cost</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>National Grid</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>5.152</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BESS CO2 emission</t>
+          <t>Grid electricity revenue</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>BESS</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>National Grid</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>TOTAL CO2 emission</t>
+          <t>Fuel CO2 emission</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1089,13 +1543,254 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>668.522</v>
+        <v>73.048</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Grid CO2 emission</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>93.932</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RES CO2 emission</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>GEN CO2 emission</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>BESS CO2 emission</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL CO2 emission</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>166.98</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1107,7 +1802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,19 +1819,30 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Lost load cost</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Replacement cost</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Fuel cost</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Grid cost</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Grid revenue</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1869,32 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>System</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Grid</t>
         </is>
       </c>
     </row>
@@ -1198,8 +1919,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
@@ -1207,6 +1930,15 @@
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1244,6 +1976,21 @@
           <t>kUSD</t>
         </is>
       </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1252,22 +1999,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="C6" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="D6" t="n">
-        <v>0.64</v>
+        <v>0.16</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.19</v>
+        <v>0.92</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1277,22 +2033,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="C7" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="D7" t="n">
-        <v>0.64</v>
+        <v>0.16</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.37</v>
+        <v>0.95</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1302,22 +2067,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="C8" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="D8" t="n">
-        <v>0.64</v>
+        <v>0.16</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>0.95</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1327,22 +2101,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="C9" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="D9" t="n">
-        <v>0.64</v>
+        <v>0.16</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.29</v>
+        <v>0.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1352,22 +2135,31 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.93</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.24</v>
+      <c r="H10" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1377,22 +2169,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C11" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D11" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>1.11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1402,22 +2203,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C12" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D12" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5.08</v>
+        <v>1.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1427,22 +2237,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C13" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D13" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>6.73</v>
+        <v>1.09</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1452,22 +2271,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C14" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D14" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.51</v>
+        <v>1.07</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1477,22 +2305,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C15" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D15" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F15" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>10.44</v>
+        <v>1.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1502,22 +2339,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C16" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D16" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>12.58</v>
+        <v>1.02</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1527,22 +2373,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C17" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D17" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F17" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>14.91</v>
+        <v>0.99</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1552,22 +2407,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C18" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D18" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F18" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>17.41</v>
+        <v>0.96</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1577,22 +2441,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C19" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D19" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F19" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>20.09</v>
+        <v>0.92</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1602,22 +2475,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C20" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D20" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F20" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>22.96</v>
+        <v>0.87</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1627,22 +2509,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C21" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D21" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F21" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>26.02</v>
+        <v>0.83</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1652,22 +2543,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C22" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D22" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F22" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>29.28</v>
+        <v>0.78</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1677,22 +2577,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C23" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D23" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.73</v>
       </c>
-      <c r="G23" t="n">
-        <v>32.75</v>
+      <c r="H23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1702,22 +2611,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C24" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D24" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F24" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>36.43</v>
+        <v>0.67</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1727,27 +2645,36 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C25" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="D25" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F25" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>40.32</v>
+        <v>0.62</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I25" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1759,7 +2686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,6 +2716,11 @@
           <t>Battery usage</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Grid usage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1816,6 +2748,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1824,16 +2761,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.58</v>
+        <v>2.28</v>
       </c>
       <c r="C4" t="n">
-        <v>99.55</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>20.83</v>
+        <v>12.14</v>
       </c>
       <c r="E4" t="n">
-        <v>53.45</v>
+        <v>52.39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1843,16 +2783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.11</v>
+        <v>3.91</v>
       </c>
       <c r="C5" t="n">
-        <v>99.09999999999999</v>
+        <v>96.52</v>
       </c>
       <c r="D5" t="n">
-        <v>17.13</v>
+        <v>9.1</v>
       </c>
       <c r="E5" t="n">
-        <v>53.18</v>
+        <v>51.04</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1862,16 +2805,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.99</v>
+        <v>6.3</v>
       </c>
       <c r="C6" t="n">
-        <v>98.31999999999999</v>
+        <v>94.25</v>
       </c>
       <c r="D6" t="n">
-        <v>13.7</v>
+        <v>6.88</v>
       </c>
       <c r="E6" t="n">
-        <v>52.57</v>
+        <v>48.94</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1881,16 +2827,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>96.94</v>
+        <v>91.36</v>
       </c>
       <c r="D7" t="n">
-        <v>10.7</v>
+        <v>5.33</v>
       </c>
       <c r="E7" t="n">
-        <v>51.34</v>
+        <v>46.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1900,16 +2849,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.78</v>
+        <v>12.52</v>
       </c>
       <c r="C8" t="n">
-        <v>94.81</v>
+        <v>88.2</v>
       </c>
       <c r="D8" t="n">
-        <v>8.369999999999999</v>
+        <v>4.14</v>
       </c>
       <c r="E8" t="n">
-        <v>49.34</v>
+        <v>43.52</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1919,16 +2871,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.710000000000001</v>
+        <v>5.83</v>
       </c>
       <c r="C9" t="n">
-        <v>92.03</v>
+        <v>94.77</v>
       </c>
       <c r="D9" t="n">
-        <v>6.72</v>
+        <v>8.49</v>
       </c>
       <c r="E9" t="n">
-        <v>46.69</v>
+        <v>49.28</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1938,16 +2893,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.87</v>
+        <v>8.76</v>
       </c>
       <c r="C10" t="n">
-        <v>88.97</v>
+        <v>92</v>
       </c>
       <c r="D10" t="n">
-        <v>5.42</v>
+        <v>6.85</v>
       </c>
       <c r="E10" t="n">
-        <v>43.84</v>
+        <v>46.64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1957,16 +2915,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.98</v>
+        <v>11.91</v>
       </c>
       <c r="C11" t="n">
-        <v>85.89</v>
+        <v>88.95</v>
       </c>
       <c r="D11" t="n">
-        <v>4.24</v>
+        <v>5.54</v>
       </c>
       <c r="E11" t="n">
-        <v>41.03</v>
+        <v>43.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1976,16 +2937,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.04</v>
+        <v>15.02</v>
       </c>
       <c r="C12" t="n">
-        <v>82.8</v>
+        <v>85.88</v>
       </c>
       <c r="D12" t="n">
-        <v>3.17</v>
+        <v>4.35</v>
       </c>
       <c r="E12" t="n">
-        <v>38.31</v>
+        <v>41.23</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1995,16 +2959,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.08</v>
+        <v>0.03</v>
       </c>
       <c r="C13" t="n">
-        <v>79.69</v>
+        <v>82.81</v>
       </c>
       <c r="D13" t="n">
-        <v>2.26</v>
+        <v>3.95</v>
       </c>
       <c r="E13" t="n">
-        <v>35.61</v>
+        <v>38.28</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18.03</v>
       </c>
     </row>
     <row r="14">
@@ -2014,16 +2981,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.2</v>
+        <v>0.01</v>
       </c>
       <c r="C14" t="n">
-        <v>76.5</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>1.58</v>
+        <v>2.94</v>
       </c>
       <c r="E14" t="n">
-        <v>32.86</v>
+        <v>35.61</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21.07</v>
       </c>
     </row>
     <row r="15">
@@ -2033,16 +3003,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.31</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>73.31999999999999</v>
+        <v>76.54000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>1.07</v>
+        <v>2.15</v>
       </c>
       <c r="E15" t="n">
-        <v>30.15</v>
+        <v>32.87</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24.13</v>
       </c>
     </row>
     <row r="16">
@@ -2052,16 +3025,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.37</v>
+        <v>0.08</v>
       </c>
       <c r="C16" t="n">
-        <v>70.17</v>
+        <v>73.36</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="E16" t="n">
-        <v>27.51</v>
+        <v>30.18</v>
+      </c>
+      <c r="F16" t="n">
+        <v>27.2</v>
       </c>
     </row>
     <row r="17">
@@ -2071,16 +3047,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.39</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>67.09</v>
+        <v>70.22</v>
       </c>
       <c r="D17" t="n">
-        <v>0.41</v>
+        <v>1.03</v>
       </c>
       <c r="E17" t="n">
-        <v>24.95</v>
+        <v>27.53</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30.26</v>
       </c>
     </row>
     <row r="18">
@@ -2090,16 +3069,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.33</v>
+        <v>0.15</v>
       </c>
       <c r="C18" t="n">
-        <v>64.08</v>
+        <v>67.14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.21</v>
+        <v>0.65</v>
       </c>
       <c r="E18" t="n">
-        <v>22.57</v>
+        <v>24.98</v>
+      </c>
+      <c r="F18" t="n">
+        <v>33.19</v>
       </c>
     </row>
     <row r="19">
@@ -2109,16 +3091,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.22</v>
+        <v>0.13</v>
       </c>
       <c r="C19" t="n">
-        <v>61.15</v>
+        <v>64.14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="E19" t="n">
-        <v>20.5</v>
+        <v>22.53</v>
+      </c>
+      <c r="F19" t="n">
+        <v>36.15</v>
       </c>
     </row>
     <row r="20">
@@ -2128,16 +3113,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.03</v>
+        <v>0.11</v>
       </c>
       <c r="C20" t="n">
-        <v>58.31</v>
+        <v>61.22</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="E20" t="n">
-        <v>18.92</v>
+        <v>20.24</v>
+      </c>
+      <c r="F20" t="n">
+        <v>39.03</v>
       </c>
     </row>
     <row r="21">
@@ -2147,16 +3135,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.76</v>
+        <v>0.21</v>
       </c>
       <c r="C21" t="n">
-        <v>55.57</v>
+        <v>58.4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E21" t="n">
-        <v>17.94</v>
+        <v>17.97</v>
+      </c>
+      <c r="F21" t="n">
+        <v>41.72</v>
       </c>
     </row>
     <row r="22">
@@ -2166,16 +3157,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.42</v>
+        <v>0.2</v>
       </c>
       <c r="C22" t="n">
-        <v>52.93</v>
+        <v>55.68</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E22" t="n">
-        <v>17.89</v>
+        <v>15.84</v>
+      </c>
+      <c r="F22" t="n">
+        <v>44.41</v>
       </c>
     </row>
     <row r="23">
@@ -2185,16 +3179,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.99</v>
+        <v>0.11</v>
       </c>
       <c r="C23" t="n">
-        <v>50.4</v>
+        <v>53.08</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E23" t="n">
-        <v>18.66</v>
+        <v>13.89</v>
+      </c>
+      <c r="F23" t="n">
+        <v>47.09</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +3205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2238,6 +3235,11 @@
           <t>Battery usage</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Grid usage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2265,6 +3267,11 @@
           <t>Battery bank</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2284,6 +3291,9 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2311,6 +3321,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2319,16 +3334,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.58</v>
+        <v>2.28</v>
       </c>
       <c r="C6" t="n">
-        <v>99.55</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>20.83</v>
+        <v>12.14</v>
       </c>
       <c r="E6" t="n">
-        <v>53.45</v>
+        <v>52.39</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2338,16 +3356,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.11</v>
+        <v>3.91</v>
       </c>
       <c r="C7" t="n">
-        <v>99.09999999999999</v>
+        <v>96.52</v>
       </c>
       <c r="D7" t="n">
-        <v>17.13</v>
+        <v>9.1</v>
       </c>
       <c r="E7" t="n">
-        <v>53.18</v>
+        <v>51.04</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2357,16 +3378,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.99</v>
+        <v>6.3</v>
       </c>
       <c r="C8" t="n">
-        <v>98.31999999999999</v>
+        <v>94.25</v>
       </c>
       <c r="D8" t="n">
-        <v>13.7</v>
+        <v>6.88</v>
       </c>
       <c r="E8" t="n">
-        <v>52.57</v>
+        <v>48.94</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2376,16 +3400,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>96.94</v>
+        <v>91.36</v>
       </c>
       <c r="D9" t="n">
-        <v>10.7</v>
+        <v>5.33</v>
       </c>
       <c r="E9" t="n">
-        <v>51.34</v>
+        <v>46.28</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2395,16 +3422,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.78</v>
+        <v>12.52</v>
       </c>
       <c r="C10" t="n">
-        <v>94.81</v>
+        <v>88.2</v>
       </c>
       <c r="D10" t="n">
-        <v>8.369999999999999</v>
+        <v>4.14</v>
       </c>
       <c r="E10" t="n">
-        <v>49.34</v>
+        <v>43.52</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2414,16 +3444,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.710000000000001</v>
+        <v>5.83</v>
       </c>
       <c r="C11" t="n">
-        <v>92.03</v>
+        <v>94.77</v>
       </c>
       <c r="D11" t="n">
-        <v>6.72</v>
+        <v>8.49</v>
       </c>
       <c r="E11" t="n">
-        <v>46.69</v>
+        <v>49.28</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2433,16 +3466,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.87</v>
+        <v>8.76</v>
       </c>
       <c r="C12" t="n">
-        <v>88.97</v>
+        <v>92</v>
       </c>
       <c r="D12" t="n">
-        <v>5.42</v>
+        <v>6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>43.84</v>
+        <v>46.64</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2452,16 +3488,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.98</v>
+        <v>11.91</v>
       </c>
       <c r="C13" t="n">
-        <v>85.89</v>
+        <v>88.95</v>
       </c>
       <c r="D13" t="n">
-        <v>4.24</v>
+        <v>5.54</v>
       </c>
       <c r="E13" t="n">
-        <v>41.03</v>
+        <v>43.84</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2471,16 +3510,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.04</v>
+        <v>15.02</v>
       </c>
       <c r="C14" t="n">
-        <v>82.8</v>
+        <v>85.88</v>
       </c>
       <c r="D14" t="n">
-        <v>3.17</v>
+        <v>4.35</v>
       </c>
       <c r="E14" t="n">
-        <v>38.31</v>
+        <v>41.23</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2490,16 +3532,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.08</v>
+        <v>0.03</v>
       </c>
       <c r="C15" t="n">
-        <v>79.69</v>
+        <v>82.81</v>
       </c>
       <c r="D15" t="n">
-        <v>2.26</v>
+        <v>3.95</v>
       </c>
       <c r="E15" t="n">
-        <v>35.61</v>
+        <v>38.28</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18.03</v>
       </c>
     </row>
     <row r="16">
@@ -2509,16 +3554,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.2</v>
+        <v>0.01</v>
       </c>
       <c r="C16" t="n">
-        <v>76.5</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>1.58</v>
+        <v>2.94</v>
       </c>
       <c r="E16" t="n">
-        <v>32.86</v>
+        <v>35.61</v>
+      </c>
+      <c r="F16" t="n">
+        <v>21.07</v>
       </c>
     </row>
     <row r="17">
@@ -2528,16 +3576,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.31</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>73.31999999999999</v>
+        <v>76.54000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>1.07</v>
+        <v>2.15</v>
       </c>
       <c r="E17" t="n">
-        <v>30.15</v>
+        <v>32.87</v>
+      </c>
+      <c r="F17" t="n">
+        <v>24.13</v>
       </c>
     </row>
     <row r="18">
@@ -2547,16 +3598,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.37</v>
+        <v>0.08</v>
       </c>
       <c r="C18" t="n">
-        <v>70.17</v>
+        <v>73.36</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="E18" t="n">
-        <v>27.51</v>
+        <v>30.18</v>
+      </c>
+      <c r="F18" t="n">
+        <v>27.2</v>
       </c>
     </row>
     <row r="19">
@@ -2566,16 +3620,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.39</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>67.09</v>
+        <v>70.22</v>
       </c>
       <c r="D19" t="n">
-        <v>0.41</v>
+        <v>1.03</v>
       </c>
       <c r="E19" t="n">
-        <v>24.95</v>
+        <v>27.53</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30.26</v>
       </c>
     </row>
     <row r="20">
@@ -2585,16 +3642,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.33</v>
+        <v>0.15</v>
       </c>
       <c r="C20" t="n">
-        <v>64.08</v>
+        <v>67.14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.21</v>
+        <v>0.65</v>
       </c>
       <c r="E20" t="n">
-        <v>22.57</v>
+        <v>24.98</v>
+      </c>
+      <c r="F20" t="n">
+        <v>33.19</v>
       </c>
     </row>
     <row r="21">
@@ -2604,16 +3664,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.22</v>
+        <v>0.13</v>
       </c>
       <c r="C21" t="n">
-        <v>61.15</v>
+        <v>64.14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="E21" t="n">
-        <v>20.5</v>
+        <v>22.53</v>
+      </c>
+      <c r="F21" t="n">
+        <v>36.15</v>
       </c>
     </row>
     <row r="22">
@@ -2623,16 +3686,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.03</v>
+        <v>0.11</v>
       </c>
       <c r="C22" t="n">
-        <v>58.31</v>
+        <v>61.22</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="E22" t="n">
-        <v>18.92</v>
+        <v>20.24</v>
+      </c>
+      <c r="F22" t="n">
+        <v>39.03</v>
       </c>
     </row>
     <row r="23">
@@ -2642,16 +3708,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.76</v>
+        <v>0.21</v>
       </c>
       <c r="C23" t="n">
-        <v>55.57</v>
+        <v>58.4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E23" t="n">
-        <v>17.94</v>
+        <v>17.97</v>
+      </c>
+      <c r="F23" t="n">
+        <v>41.72</v>
       </c>
     </row>
     <row r="24">
@@ -2661,16 +3730,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.42</v>
+        <v>0.2</v>
       </c>
       <c r="C24" t="n">
-        <v>52.93</v>
+        <v>55.68</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E24" t="n">
-        <v>17.89</v>
+        <v>15.84</v>
+      </c>
+      <c r="F24" t="n">
+        <v>44.41</v>
       </c>
     </row>
     <row r="25">
@@ -2680,16 +3752,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.99</v>
+        <v>0.11</v>
       </c>
       <c r="C25" t="n">
-        <v>50.4</v>
+        <v>53.08</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E25" t="n">
-        <v>18.66</v>
+        <v>13.89</v>
+      </c>
+      <c r="F25" t="n">
+        <v>47.09</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,26 +499,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Step 1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Step 2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Step 3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Step 4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Total</t>
         </is>
       </c>
@@ -535,19 +515,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48.07</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>56.96</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="3">
@@ -562,19 +530,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>170.91</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.11</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>196.04</v>
+        <v>187.17</v>
       </c>
     </row>
     <row r="4">
@@ -589,19 +545,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13.87</v>
+        <v>19.99</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,26 +573,6 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Step 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Step 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Step 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Step 4</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -672,27 +596,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>112.488</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>131.949</v>
       </c>
     </row>
     <row r="3">
@@ -715,27 +619,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>112.488</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>131.949</v>
       </c>
     </row>
     <row r="4">
@@ -760,27 +644,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>79.965</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>87.548</v>
       </c>
     </row>
     <row r="5">
@@ -805,27 +669,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13.252</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>15.831</v>
       </c>
     </row>
     <row r="6">
@@ -848,27 +692,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>28.839</v>
       </c>
     </row>
     <row r="7">
@@ -893,27 +717,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1.519</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-0.269</v>
       </c>
     </row>
     <row r="8">
@@ -938,27 +742,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2184</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="9">
@@ -981,27 +765,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2155</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="10">
@@ -1026,19 +790,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.057</v>
-      </c>
-      <c r="F10" t="n">
-        <v>45.663</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.393</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
+        <v>51.475</v>
       </c>
     </row>
     <row r="11">
@@ -1059,19 +811,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.151</v>
-      </c>
-      <c r="F11" t="n">
-        <v>25.636</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.514</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
+        <v>28.076</v>
       </c>
     </row>
     <row r="12">
@@ -1092,26 +832,18 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.972</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.194</v>
+        <v>7.998</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Fixed cost</t>
+        </is>
+      </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>National Grid</t>
+          <t>Solar PV</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1125,30 +857,14 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>11.398</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.813</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.131</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.454</v>
+        <v>4.512</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fixed cost</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1162,161 +878,85 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.288</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>8.202999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
+          <t>Diesel Genset 1</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3.116</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Lost load cost</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Replacement cost</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>7.915</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Genset 1</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>National Grid</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
       <c r="E17" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4.795</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Lost load cost</t>
+          <t>Fuel cost</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="C18" s="1" t="n">
@@ -1328,38 +968,18 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>24.044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Replacement cost</t>
+          <t>Fuel CO2 emission</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C19" s="1" t="n">
@@ -1367,166 +987,92 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.729</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>668.522</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fuel cost</t>
+          <t>RES CO2 emission</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>1</v>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.908</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Grid electricity cost</t>
+          <t>GEN CO2 emission</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>National Grid</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>1</v>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.152</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Grid electricity revenue</t>
+          <t>BESS CO2 emission</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>National Grid</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>1</v>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fuel CO2 emission</t>
+          <t>TOTAL CO2 emission</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1543,254 +1089,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>73.048</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Grid CO2 emission</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>93.932</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>RES CO2 emission</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>GEN CO2 emission</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>BESS CO2 emission</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>BESS</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL CO2 emission</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>166.98</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>668.522</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1802,7 +1107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1819,30 +1124,19 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lost load cost</t>
+        </is>
+      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Lost load cost</t>
+          <t>Replacement cost</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>Fuel cost</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Grid cost</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Grid revenue</t>
         </is>
       </c>
     </row>
@@ -1869,32 +1163,17 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Grid</t>
+          <t>System</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
           <t>Diesel</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Grid</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>Grid</t>
         </is>
       </c>
     </row>
@@ -1919,10 +1198,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
@@ -1930,15 +1207,6 @@
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1976,21 +1244,6 @@
           <t>kUSD</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1999,31 +1252,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="C6" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -2033,31 +1277,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="C7" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="G7" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
@@ -2067,31 +1302,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="C8" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G8" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -2101,31 +1327,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="C9" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="D9" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="10">
@@ -2135,31 +1352,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="C10" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="11">
@@ -2169,31 +1377,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C11" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="G11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="12">
@@ -2203,31 +1402,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C12" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="13">
@@ -2237,31 +1427,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C13" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="14">
@@ -2271,31 +1452,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C14" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="15">
@@ -2305,31 +1477,22 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.97</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="16">
@@ -2339,31 +1502,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C16" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="E16" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="17">
@@ -2373,31 +1527,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C17" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="E17" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="G17" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="18">
@@ -2407,31 +1552,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C18" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="E18" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="G18" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="19">
@@ -2441,31 +1577,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C19" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="E19" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="G19" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="20">
@@ -2475,31 +1602,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C20" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="E20" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="G20" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="21">
@@ -2509,31 +1627,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C21" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D21" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="E21" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G21" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
+        <v>26.02</v>
       </c>
     </row>
     <row r="22">
@@ -2543,31 +1652,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C22" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D22" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="E22" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="G22" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
+        <v>29.28</v>
       </c>
     </row>
     <row r="23">
@@ -2577,31 +1677,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C23" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D23" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="E23" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="G23" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I23" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="24">
@@ -2611,31 +1702,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C24" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D24" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="E24" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="G24" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="I24" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
+        <v>36.43</v>
       </c>
     </row>
     <row r="25">
@@ -2645,36 +1727,27 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="C25" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="D25" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="E25" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="G25" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I25" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
+        <v>40.32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2686,7 +1759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2716,11 +1789,6 @@
           <t>Battery usage</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Grid usage</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2748,11 +1816,6 @@
           <t>%</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2761,19 +1824,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.28</v>
+        <v>0.58</v>
       </c>
       <c r="C4" t="n">
-        <v>98.04000000000001</v>
+        <v>99.55</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14</v>
+        <v>20.83</v>
       </c>
       <c r="E4" t="n">
-        <v>52.39</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="5">
@@ -2783,19 +1843,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.91</v>
+        <v>1.11</v>
       </c>
       <c r="C5" t="n">
-        <v>96.52</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9.1</v>
+        <v>17.13</v>
       </c>
       <c r="E5" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="6">
@@ -2805,19 +1862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.3</v>
+        <v>1.99</v>
       </c>
       <c r="C6" t="n">
-        <v>94.25</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>6.88</v>
+        <v>13.7</v>
       </c>
       <c r="E6" t="n">
-        <v>48.94</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="7">
@@ -2827,19 +1881,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.300000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="C7" t="n">
-        <v>91.36</v>
+        <v>96.94</v>
       </c>
       <c r="D7" t="n">
-        <v>5.33</v>
+        <v>10.7</v>
       </c>
       <c r="E7" t="n">
-        <v>46.28</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+        <v>51.34</v>
       </c>
     </row>
     <row r="8">
@@ -2849,19 +1900,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.52</v>
+        <v>5.78</v>
       </c>
       <c r="C8" t="n">
-        <v>88.2</v>
+        <v>94.81</v>
       </c>
       <c r="D8" t="n">
-        <v>4.14</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>43.52</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="9">
@@ -2871,19 +1919,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.83</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>94.77</v>
+        <v>92.03</v>
       </c>
       <c r="D9" t="n">
-        <v>8.49</v>
+        <v>6.72</v>
       </c>
       <c r="E9" t="n">
-        <v>49.28</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="10">
@@ -2893,19 +1938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.76</v>
+        <v>11.87</v>
       </c>
       <c r="C10" t="n">
-        <v>92</v>
+        <v>88.97</v>
       </c>
       <c r="D10" t="n">
-        <v>6.85</v>
+        <v>5.42</v>
       </c>
       <c r="E10" t="n">
-        <v>46.64</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
+        <v>43.84</v>
       </c>
     </row>
     <row r="11">
@@ -2915,19 +1957,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.91</v>
+        <v>14.98</v>
       </c>
       <c r="C11" t="n">
-        <v>88.95</v>
+        <v>85.89</v>
       </c>
       <c r="D11" t="n">
-        <v>5.54</v>
+        <v>4.24</v>
       </c>
       <c r="E11" t="n">
-        <v>43.84</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="12">
@@ -2937,19 +1976,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.02</v>
+        <v>18.04</v>
       </c>
       <c r="C12" t="n">
-        <v>85.88</v>
+        <v>82.8</v>
       </c>
       <c r="D12" t="n">
-        <v>4.35</v>
+        <v>3.17</v>
       </c>
       <c r="E12" t="n">
-        <v>41.23</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
+        <v>38.31</v>
       </c>
     </row>
     <row r="13">
@@ -2959,19 +1995,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03</v>
+        <v>21.08</v>
       </c>
       <c r="C13" t="n">
-        <v>82.81</v>
+        <v>79.69</v>
       </c>
       <c r="D13" t="n">
-        <v>3.95</v>
+        <v>2.26</v>
       </c>
       <c r="E13" t="n">
-        <v>38.28</v>
-      </c>
-      <c r="F13" t="n">
-        <v>18.03</v>
+        <v>35.61</v>
       </c>
     </row>
     <row r="14">
@@ -2981,19 +2014,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01</v>
+        <v>24.2</v>
       </c>
       <c r="C14" t="n">
-        <v>79.70999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D14" t="n">
-        <v>2.94</v>
+        <v>1.58</v>
       </c>
       <c r="E14" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="F14" t="n">
-        <v>21.07</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="15">
@@ -3003,19 +2033,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>27.31</v>
       </c>
       <c r="C15" t="n">
-        <v>76.54000000000001</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>2.15</v>
+        <v>1.07</v>
       </c>
       <c r="E15" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="F15" t="n">
-        <v>24.13</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="16">
@@ -3025,19 +2052,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08</v>
+        <v>30.37</v>
       </c>
       <c r="C16" t="n">
-        <v>73.36</v>
+        <v>70.17</v>
       </c>
       <c r="D16" t="n">
-        <v>1.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>30.18</v>
-      </c>
-      <c r="F16" t="n">
-        <v>27.2</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="17">
@@ -3047,19 +2071,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07000000000000001</v>
+        <v>33.39</v>
       </c>
       <c r="C17" t="n">
-        <v>70.22</v>
+        <v>67.09</v>
       </c>
       <c r="D17" t="n">
-        <v>1.03</v>
+        <v>0.41</v>
       </c>
       <c r="E17" t="n">
-        <v>27.53</v>
-      </c>
-      <c r="F17" t="n">
-        <v>30.26</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="18">
@@ -3069,19 +2090,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.15</v>
+        <v>36.33</v>
       </c>
       <c r="C18" t="n">
-        <v>67.14</v>
+        <v>64.08</v>
       </c>
       <c r="D18" t="n">
-        <v>0.65</v>
+        <v>0.21</v>
       </c>
       <c r="E18" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="F18" t="n">
-        <v>33.19</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="19">
@@ -3091,19 +2109,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.13</v>
+        <v>39.22</v>
       </c>
       <c r="C19" t="n">
-        <v>64.14</v>
+        <v>61.15</v>
       </c>
       <c r="D19" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="F19" t="n">
-        <v>36.15</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="20">
@@ -3113,19 +2128,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.11</v>
+        <v>42.03</v>
       </c>
       <c r="C20" t="n">
-        <v>61.22</v>
+        <v>58.31</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="E20" t="n">
-        <v>20.24</v>
-      </c>
-      <c r="F20" t="n">
-        <v>39.03</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="21">
@@ -3135,19 +2147,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.21</v>
+        <v>44.76</v>
       </c>
       <c r="C21" t="n">
-        <v>58.4</v>
+        <v>55.57</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E21" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="F21" t="n">
-        <v>41.72</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="22">
@@ -3157,19 +2166,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2</v>
+        <v>47.42</v>
       </c>
       <c r="C22" t="n">
-        <v>55.68</v>
+        <v>52.93</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="F22" t="n">
-        <v>44.41</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="23">
@@ -3179,19 +2185,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.11</v>
+        <v>49.99</v>
       </c>
       <c r="C23" t="n">
-        <v>53.08</v>
+        <v>50.4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="F23" t="n">
-        <v>47.09</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,11 +2238,6 @@
           <t>Battery usage</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Grid usage</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3267,11 +2265,6 @@
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Grid</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3291,9 +2284,6 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3321,11 +2311,6 @@
           <t>%</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3334,19 +2319,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.28</v>
+        <v>0.58</v>
       </c>
       <c r="C6" t="n">
-        <v>98.04000000000001</v>
+        <v>99.55</v>
       </c>
       <c r="D6" t="n">
-        <v>12.14</v>
+        <v>20.83</v>
       </c>
       <c r="E6" t="n">
-        <v>52.39</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="7">
@@ -3356,19 +2338,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.91</v>
+        <v>1.11</v>
       </c>
       <c r="C7" t="n">
-        <v>96.52</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>9.1</v>
+        <v>17.13</v>
       </c>
       <c r="E7" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="8">
@@ -3378,19 +2357,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.3</v>
+        <v>1.99</v>
       </c>
       <c r="C8" t="n">
-        <v>94.25</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>6.88</v>
+        <v>13.7</v>
       </c>
       <c r="E8" t="n">
-        <v>48.94</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="9">
@@ -3400,19 +2376,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.300000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="C9" t="n">
-        <v>91.36</v>
+        <v>96.94</v>
       </c>
       <c r="D9" t="n">
-        <v>5.33</v>
+        <v>10.7</v>
       </c>
       <c r="E9" t="n">
-        <v>46.28</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
+        <v>51.34</v>
       </c>
     </row>
     <row r="10">
@@ -3422,19 +2395,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.52</v>
+        <v>5.78</v>
       </c>
       <c r="C10" t="n">
-        <v>88.2</v>
+        <v>94.81</v>
       </c>
       <c r="D10" t="n">
-        <v>4.14</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>43.52</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +2414,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.83</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>94.77</v>
+        <v>92.03</v>
       </c>
       <c r="D11" t="n">
-        <v>8.49</v>
+        <v>6.72</v>
       </c>
       <c r="E11" t="n">
-        <v>49.28</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="12">
@@ -3466,19 +2433,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.76</v>
+        <v>11.87</v>
       </c>
       <c r="C12" t="n">
-        <v>92</v>
+        <v>88.97</v>
       </c>
       <c r="D12" t="n">
-        <v>6.85</v>
+        <v>5.42</v>
       </c>
       <c r="E12" t="n">
-        <v>46.64</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
+        <v>43.84</v>
       </c>
     </row>
     <row r="13">
@@ -3488,19 +2452,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.91</v>
+        <v>14.98</v>
       </c>
       <c r="C13" t="n">
-        <v>88.95</v>
+        <v>85.89</v>
       </c>
       <c r="D13" t="n">
-        <v>5.54</v>
+        <v>4.24</v>
       </c>
       <c r="E13" t="n">
-        <v>43.84</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="14">
@@ -3510,19 +2471,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.02</v>
+        <v>18.04</v>
       </c>
       <c r="C14" t="n">
-        <v>85.88</v>
+        <v>82.8</v>
       </c>
       <c r="D14" t="n">
-        <v>4.35</v>
+        <v>3.17</v>
       </c>
       <c r="E14" t="n">
-        <v>41.23</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
+        <v>38.31</v>
       </c>
     </row>
     <row r="15">
@@ -3532,19 +2490,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03</v>
+        <v>21.08</v>
       </c>
       <c r="C15" t="n">
-        <v>82.81</v>
+        <v>79.69</v>
       </c>
       <c r="D15" t="n">
-        <v>3.95</v>
+        <v>2.26</v>
       </c>
       <c r="E15" t="n">
-        <v>38.28</v>
-      </c>
-      <c r="F15" t="n">
-        <v>18.03</v>
+        <v>35.61</v>
       </c>
     </row>
     <row r="16">
@@ -3554,19 +2509,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01</v>
+        <v>24.2</v>
       </c>
       <c r="C16" t="n">
-        <v>79.70999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D16" t="n">
-        <v>2.94</v>
+        <v>1.58</v>
       </c>
       <c r="E16" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="F16" t="n">
-        <v>21.07</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="17">
@@ -3576,19 +2528,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>27.31</v>
       </c>
       <c r="C17" t="n">
-        <v>76.54000000000001</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>2.15</v>
+        <v>1.07</v>
       </c>
       <c r="E17" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="F17" t="n">
-        <v>24.13</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="18">
@@ -3598,19 +2547,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.08</v>
+        <v>30.37</v>
       </c>
       <c r="C18" t="n">
-        <v>73.36</v>
+        <v>70.17</v>
       </c>
       <c r="D18" t="n">
-        <v>1.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>30.18</v>
-      </c>
-      <c r="F18" t="n">
-        <v>27.2</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="19">
@@ -3620,19 +2566,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07000000000000001</v>
+        <v>33.39</v>
       </c>
       <c r="C19" t="n">
-        <v>70.22</v>
+        <v>67.09</v>
       </c>
       <c r="D19" t="n">
-        <v>1.03</v>
+        <v>0.41</v>
       </c>
       <c r="E19" t="n">
-        <v>27.53</v>
-      </c>
-      <c r="F19" t="n">
-        <v>30.26</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="20">
@@ -3642,19 +2585,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.15</v>
+        <v>36.33</v>
       </c>
       <c r="C20" t="n">
-        <v>67.14</v>
+        <v>64.08</v>
       </c>
       <c r="D20" t="n">
-        <v>0.65</v>
+        <v>0.21</v>
       </c>
       <c r="E20" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="F20" t="n">
-        <v>33.19</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="21">
@@ -3664,19 +2604,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.13</v>
+        <v>39.22</v>
       </c>
       <c r="C21" t="n">
-        <v>64.14</v>
+        <v>61.15</v>
       </c>
       <c r="D21" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="E21" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="F21" t="n">
-        <v>36.15</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="22">
@@ -3686,19 +2623,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.11</v>
+        <v>42.03</v>
       </c>
       <c r="C22" t="n">
-        <v>61.22</v>
+        <v>58.31</v>
       </c>
       <c r="D22" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="E22" t="n">
-        <v>20.24</v>
-      </c>
-      <c r="F22" t="n">
-        <v>39.03</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="23">
@@ -3708,19 +2642,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.21</v>
+        <v>44.76</v>
       </c>
       <c r="C23" t="n">
-        <v>58.4</v>
+        <v>55.57</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E23" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="F23" t="n">
-        <v>41.72</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="24">
@@ -3730,19 +2661,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2</v>
+        <v>47.42</v>
       </c>
       <c r="C24" t="n">
-        <v>55.68</v>
+        <v>52.93</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="F24" t="n">
-        <v>44.41</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="25">
@@ -3752,19 +2680,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.11</v>
+        <v>49.99</v>
       </c>
       <c r="C25" t="n">
-        <v>53.08</v>
+        <v>50.4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="F25" t="n">
-        <v>47.09</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,26 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Step 1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Step 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Step 3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Step 4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -515,7 +535,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54.18</v>
+        <v>49.07</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>112.05</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +562,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187.17</v>
+        <v>174.84</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.32</v>
+      </c>
+      <c r="E3" t="n">
+        <v>70.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>79.03</v>
+      </c>
+      <c r="G3" t="n">
+        <v>381.05</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +589,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.99</v>
+        <v>4.77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.9</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +629,26 @@
           <t>Total</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Step 1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Step 2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Step 3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Step 4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -596,7 +672,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>131.949</v>
+        <v>122.388</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -619,7 +715,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>131.949</v>
+        <v>122.388</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -644,7 +760,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>87.548</v>
+        <v>91.852</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -669,7 +805,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.831</v>
+        <v>14.956</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -692,7 +848,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.839</v>
+        <v>16.833</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -717,7 +893,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.269</v>
+        <v>-1.254</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -742,7 +938,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2562</v>
+        <v>0.2376</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -765,7 +981,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2562</v>
+        <v>0.2376</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -790,7 +1026,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>51.475</v>
+        <v>57.548</v>
+      </c>
+      <c r="F10" t="n">
+        <v>46.613</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.156</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.619</v>
       </c>
     </row>
     <row r="11">
@@ -811,7 +1059,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.076</v>
+        <v>32.107</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26.226</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.395</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.769</v>
       </c>
     </row>
     <row r="12">
@@ -832,7 +1092,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.998</v>
+        <v>2.197</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.048</v>
       </c>
     </row>
     <row r="13">
@@ -857,7 +1129,27 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.512</v>
+        <v>4.929</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -878,7 +1170,27 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.202999999999999</v>
+        <v>9.185</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -899,7 +1211,27 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.116</v>
+        <v>0.842</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -924,6 +1256,26 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -945,7 +1297,27 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.795</v>
+        <v>5.545</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -968,7 +1340,27 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.044</v>
+        <v>11.289</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -991,7 +1383,27 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>668.522</v>
+        <v>95.032</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1018,6 +1430,26 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1043,6 +1475,26 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1068,6 +1520,26 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1089,7 +1561,27 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>668.522</v>
+        <v>95.032</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1252,22 +1744,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="C6" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="D6" t="n">
-        <v>0.64</v>
+        <v>0.15</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="G6" t="n">
-        <v>0.19</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1277,22 +1769,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="C7" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="D7" t="n">
-        <v>0.64</v>
+        <v>0.15</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G7" t="n">
-        <v>0.37</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="8">
@@ -1302,22 +1794,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="C8" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="D8" t="n">
-        <v>0.64</v>
+        <v>0.15</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1327,22 +1819,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="C9" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="D9" t="n">
-        <v>0.64</v>
+        <v>0.15</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="G9" t="n">
-        <v>1.29</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="10">
@@ -1352,22 +1844,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="C10" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="D10" t="n">
-        <v>0.64</v>
+        <v>0.15</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="G10" t="n">
-        <v>2.24</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="11">
@@ -1377,22 +1869,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="C11" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="D11" t="n">
-        <v>0.64</v>
+        <v>0.18</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
@@ -1402,22 +1894,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="C12" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="D12" t="n">
-        <v>0.64</v>
+        <v>0.18</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="G12" t="n">
-        <v>5.08</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="13">
@@ -1427,22 +1919,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="C13" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="D13" t="n">
-        <v>0.64</v>
+        <v>0.18</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="G13" t="n">
-        <v>6.73</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="14">
@@ -1452,22 +1944,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="C14" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="D14" t="n">
-        <v>0.64</v>
+        <v>0.18</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="G14" t="n">
-        <v>8.51</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="15">
@@ -1477,22 +1969,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="C15" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="D15" t="n">
-        <v>0.64</v>
+        <v>0.18</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="G15" t="n">
-        <v>10.44</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="16">
@@ -1502,22 +1994,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="C16" t="n">
-        <v>1.68</v>
+        <v>2.72</v>
       </c>
       <c r="D16" t="n">
-        <v>0.64</v>
+        <v>0.22</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="G16" t="n">
-        <v>12.58</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17">
@@ -1527,22 +2019,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="C17" t="n">
-        <v>1.68</v>
+        <v>2.72</v>
       </c>
       <c r="D17" t="n">
-        <v>0.64</v>
+        <v>0.22</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.91</v>
+        <v>1.6</v>
       </c>
       <c r="G17" t="n">
-        <v>14.91</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="18">
@@ -1552,22 +2044,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="C18" t="n">
-        <v>1.68</v>
+        <v>2.72</v>
       </c>
       <c r="D18" t="n">
-        <v>0.64</v>
+        <v>0.22</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.87</v>
+        <v>1.65</v>
       </c>
       <c r="G18" t="n">
-        <v>17.41</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="19">
@@ -1577,22 +2069,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="C19" t="n">
-        <v>1.68</v>
+        <v>2.72</v>
       </c>
       <c r="D19" t="n">
-        <v>0.64</v>
+        <v>0.22</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.83</v>
+        <v>1.69</v>
       </c>
       <c r="G19" t="n">
-        <v>20.09</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="20">
@@ -1602,22 +2094,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="C20" t="n">
-        <v>1.68</v>
+        <v>2.72</v>
       </c>
       <c r="D20" t="n">
-        <v>0.64</v>
+        <v>0.22</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.79</v>
+        <v>1.69</v>
       </c>
       <c r="G20" t="n">
-        <v>22.96</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1627,22 +2119,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.93</v>
+        <v>1.92</v>
       </c>
       <c r="C21" t="n">
-        <v>1.68</v>
+        <v>3.43</v>
       </c>
       <c r="D21" t="n">
-        <v>0.64</v>
+        <v>0.28</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.75</v>
+        <v>1.96</v>
       </c>
       <c r="G21" t="n">
-        <v>26.02</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1652,22 +2144,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.93</v>
+        <v>1.92</v>
       </c>
       <c r="C22" t="n">
-        <v>1.68</v>
+        <v>3.43</v>
       </c>
       <c r="D22" t="n">
-        <v>0.64</v>
+        <v>0.28</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.73</v>
+        <v>2.04</v>
       </c>
       <c r="G22" t="n">
-        <v>29.28</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="23">
@@ -1677,22 +2169,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.93</v>
+        <v>1.92</v>
       </c>
       <c r="C23" t="n">
-        <v>1.68</v>
+        <v>3.43</v>
       </c>
       <c r="D23" t="n">
-        <v>0.64</v>
+        <v>0.28</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.73</v>
+        <v>2.12</v>
       </c>
       <c r="G23" t="n">
-        <v>32.75</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="24">
@@ -1702,22 +2194,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.93</v>
+        <v>1.92</v>
       </c>
       <c r="C24" t="n">
-        <v>1.68</v>
+        <v>3.43</v>
       </c>
       <c r="D24" t="n">
-        <v>0.64</v>
+        <v>0.28</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.76</v>
+        <v>2.16</v>
       </c>
       <c r="G24" t="n">
-        <v>36.43</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="25">
@@ -1727,22 +2219,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.93</v>
+        <v>1.92</v>
       </c>
       <c r="C25" t="n">
-        <v>1.68</v>
+        <v>3.43</v>
       </c>
       <c r="D25" t="n">
-        <v>0.64</v>
+        <v>0.28</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.83</v>
+        <v>2.17</v>
       </c>
       <c r="G25" t="n">
-        <v>40.32</v>
+        <v>13.27</v>
       </c>
     </row>
   </sheetData>
@@ -1824,16 +2316,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.58</v>
+        <v>1.76</v>
       </c>
       <c r="C4" t="n">
-        <v>99.55</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>20.83</v>
+        <v>13.5</v>
       </c>
       <c r="E4" t="n">
-        <v>53.45</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="5">
@@ -1843,16 +2335,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.11</v>
+        <v>3.1</v>
       </c>
       <c r="C5" t="n">
-        <v>99.09999999999999</v>
+        <v>97.27</v>
       </c>
       <c r="D5" t="n">
-        <v>17.13</v>
+        <v>10.23</v>
       </c>
       <c r="E5" t="n">
-        <v>53.18</v>
+        <v>51.74</v>
       </c>
     </row>
     <row r="6">
@@ -1862,16 +2354,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.99</v>
+        <v>5.16</v>
       </c>
       <c r="C6" t="n">
-        <v>98.31999999999999</v>
+        <v>95.33</v>
       </c>
       <c r="D6" t="n">
-        <v>13.7</v>
+        <v>7.69</v>
       </c>
       <c r="E6" t="n">
-        <v>52.57</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="7">
@@ -1881,16 +2373,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.5</v>
+        <v>7.92</v>
       </c>
       <c r="C7" t="n">
-        <v>96.94</v>
+        <v>92.69</v>
       </c>
       <c r="D7" t="n">
-        <v>10.7</v>
+        <v>5.86</v>
       </c>
       <c r="E7" t="n">
-        <v>51.34</v>
+        <v>47.53</v>
       </c>
     </row>
     <row r="8">
@@ -1900,16 +2392,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.78</v>
+        <v>11.11</v>
       </c>
       <c r="C8" t="n">
-        <v>94.81</v>
+        <v>89.59</v>
       </c>
       <c r="D8" t="n">
-        <v>8.369999999999999</v>
+        <v>4.57</v>
       </c>
       <c r="E8" t="n">
-        <v>49.34</v>
+        <v>44.77</v>
       </c>
     </row>
     <row r="9">
@@ -1919,16 +2411,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.710000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="C9" t="n">
-        <v>92.03</v>
+        <v>99.06</v>
       </c>
       <c r="D9" t="n">
-        <v>6.72</v>
+        <v>16.3</v>
       </c>
       <c r="E9" t="n">
-        <v>46.69</v>
+        <v>53.19</v>
       </c>
     </row>
     <row r="10">
@@ -1938,16 +2430,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.87</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>88.97</v>
+        <v>98.3</v>
       </c>
       <c r="D10" t="n">
-        <v>5.42</v>
+        <v>12.83</v>
       </c>
       <c r="E10" t="n">
-        <v>43.84</v>
+        <v>52.61</v>
       </c>
     </row>
     <row r="11">
@@ -1957,16 +2449,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.98</v>
+        <v>3.48</v>
       </c>
       <c r="C11" t="n">
-        <v>85.89</v>
+        <v>96.93000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>4.24</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>41.03</v>
+        <v>51.41</v>
       </c>
     </row>
     <row r="12">
@@ -1976,16 +2468,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.04</v>
+        <v>5.71</v>
       </c>
       <c r="C12" t="n">
-        <v>82.8</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>3.17</v>
+        <v>7.41</v>
       </c>
       <c r="E12" t="n">
-        <v>38.31</v>
+        <v>49.49</v>
       </c>
     </row>
     <row r="13">
@@ -1995,16 +2487,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.08</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>79.69</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>2.26</v>
+        <v>5.73</v>
       </c>
       <c r="E13" t="n">
-        <v>35.61</v>
+        <v>46.97</v>
       </c>
     </row>
     <row r="14">
@@ -2014,16 +2506,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.2</v>
+        <v>0.82</v>
       </c>
       <c r="C14" t="n">
-        <v>76.5</v>
+        <v>99.34</v>
       </c>
       <c r="D14" t="n">
-        <v>1.58</v>
+        <v>18.58</v>
       </c>
       <c r="E14" t="n">
-        <v>32.86</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="15">
@@ -2033,16 +2525,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.31</v>
+        <v>1.42</v>
       </c>
       <c r="C15" t="n">
-        <v>73.31999999999999</v>
+        <v>98.81</v>
       </c>
       <c r="D15" t="n">
-        <v>1.07</v>
+        <v>14.99</v>
       </c>
       <c r="E15" t="n">
-        <v>30.15</v>
+        <v>53.02</v>
       </c>
     </row>
     <row r="16">
@@ -2052,16 +2544,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.37</v>
+        <v>2.56</v>
       </c>
       <c r="C16" t="n">
-        <v>70.17</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6899999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="E16" t="n">
-        <v>27.51</v>
+        <v>52.16</v>
       </c>
     </row>
     <row r="17">
@@ -2071,16 +2563,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.39</v>
+        <v>4.35</v>
       </c>
       <c r="C17" t="n">
-        <v>67.09</v>
+        <v>96.12</v>
       </c>
       <c r="D17" t="n">
-        <v>0.41</v>
+        <v>8.92</v>
       </c>
       <c r="E17" t="n">
-        <v>24.95</v>
+        <v>50.67</v>
       </c>
     </row>
     <row r="18">
@@ -2090,16 +2582,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.33</v>
+        <v>6.9</v>
       </c>
       <c r="C18" t="n">
-        <v>64.08</v>
+        <v>93.7</v>
       </c>
       <c r="D18" t="n">
-        <v>0.21</v>
+        <v>6.86</v>
       </c>
       <c r="E18" t="n">
-        <v>22.57</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="19">
@@ -2109,16 +2601,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.22</v>
+        <v>0.68</v>
       </c>
       <c r="C19" t="n">
-        <v>61.15</v>
+        <v>99.47</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1</v>
+        <v>20.35</v>
       </c>
       <c r="E19" t="n">
-        <v>20.5</v>
+        <v>53.39</v>
       </c>
     </row>
     <row r="20">
@@ -2128,16 +2620,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.03</v>
+        <v>1.25</v>
       </c>
       <c r="C20" t="n">
-        <v>58.31</v>
+        <v>98.98</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03</v>
+        <v>16.8</v>
       </c>
       <c r="E20" t="n">
-        <v>18.92</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="21">
@@ -2147,16 +2639,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.76</v>
+        <v>2.3</v>
       </c>
       <c r="C21" t="n">
-        <v>55.57</v>
+        <v>98.05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01</v>
+        <v>13.49</v>
       </c>
       <c r="E21" t="n">
-        <v>17.94</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="22">
@@ -2166,16 +2658,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.42</v>
+        <v>4.02</v>
       </c>
       <c r="C22" t="n">
-        <v>52.93</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>10.66</v>
       </c>
       <c r="E22" t="n">
-        <v>17.89</v>
+        <v>50.87</v>
       </c>
     </row>
     <row r="23">
@@ -2185,16 +2677,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.99</v>
+        <v>6.51</v>
       </c>
       <c r="C23" t="n">
-        <v>50.4</v>
+        <v>94.16</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>8.57</v>
       </c>
       <c r="E23" t="n">
-        <v>18.66</v>
+        <v>48.73</v>
       </c>
     </row>
   </sheetData>
@@ -2319,16 +2811,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.58</v>
+        <v>1.76</v>
       </c>
       <c r="C6" t="n">
-        <v>99.55</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>20.83</v>
+        <v>13.5</v>
       </c>
       <c r="E6" t="n">
-        <v>53.45</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="7">
@@ -2338,16 +2830,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.11</v>
+        <v>3.1</v>
       </c>
       <c r="C7" t="n">
-        <v>99.09999999999999</v>
+        <v>97.27</v>
       </c>
       <c r="D7" t="n">
-        <v>17.13</v>
+        <v>10.23</v>
       </c>
       <c r="E7" t="n">
-        <v>53.18</v>
+        <v>51.74</v>
       </c>
     </row>
     <row r="8">
@@ -2357,16 +2849,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.99</v>
+        <v>5.16</v>
       </c>
       <c r="C8" t="n">
-        <v>98.31999999999999</v>
+        <v>95.33</v>
       </c>
       <c r="D8" t="n">
-        <v>13.7</v>
+        <v>7.69</v>
       </c>
       <c r="E8" t="n">
-        <v>52.57</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="9">
@@ -2376,16 +2868,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.5</v>
+        <v>7.92</v>
       </c>
       <c r="C9" t="n">
-        <v>96.94</v>
+        <v>92.69</v>
       </c>
       <c r="D9" t="n">
-        <v>10.7</v>
+        <v>5.86</v>
       </c>
       <c r="E9" t="n">
-        <v>51.34</v>
+        <v>47.53</v>
       </c>
     </row>
     <row r="10">
@@ -2395,16 +2887,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.78</v>
+        <v>11.11</v>
       </c>
       <c r="C10" t="n">
-        <v>94.81</v>
+        <v>89.59</v>
       </c>
       <c r="D10" t="n">
-        <v>8.369999999999999</v>
+        <v>4.57</v>
       </c>
       <c r="E10" t="n">
-        <v>49.34</v>
+        <v>44.77</v>
       </c>
     </row>
     <row r="11">
@@ -2414,16 +2906,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.710000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="C11" t="n">
-        <v>92.03</v>
+        <v>99.06</v>
       </c>
       <c r="D11" t="n">
-        <v>6.72</v>
+        <v>16.3</v>
       </c>
       <c r="E11" t="n">
-        <v>46.69</v>
+        <v>53.19</v>
       </c>
     </row>
     <row r="12">
@@ -2433,16 +2925,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.87</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>88.97</v>
+        <v>98.3</v>
       </c>
       <c r="D12" t="n">
-        <v>5.42</v>
+        <v>12.83</v>
       </c>
       <c r="E12" t="n">
-        <v>43.84</v>
+        <v>52.61</v>
       </c>
     </row>
     <row r="13">
@@ -2452,16 +2944,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.98</v>
+        <v>3.48</v>
       </c>
       <c r="C13" t="n">
-        <v>85.89</v>
+        <v>96.93000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>4.24</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>41.03</v>
+        <v>51.41</v>
       </c>
     </row>
     <row r="14">
@@ -2471,16 +2963,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.04</v>
+        <v>5.71</v>
       </c>
       <c r="C14" t="n">
-        <v>82.8</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>3.17</v>
+        <v>7.41</v>
       </c>
       <c r="E14" t="n">
-        <v>38.31</v>
+        <v>49.49</v>
       </c>
     </row>
     <row r="15">
@@ -2490,16 +2982,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.08</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>79.69</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>2.26</v>
+        <v>5.73</v>
       </c>
       <c r="E15" t="n">
-        <v>35.61</v>
+        <v>46.97</v>
       </c>
     </row>
     <row r="16">
@@ -2509,16 +3001,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.2</v>
+        <v>0.82</v>
       </c>
       <c r="C16" t="n">
-        <v>76.5</v>
+        <v>99.34</v>
       </c>
       <c r="D16" t="n">
-        <v>1.58</v>
+        <v>18.58</v>
       </c>
       <c r="E16" t="n">
-        <v>32.86</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="17">
@@ -2528,16 +3020,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.31</v>
+        <v>1.42</v>
       </c>
       <c r="C17" t="n">
-        <v>73.31999999999999</v>
+        <v>98.81</v>
       </c>
       <c r="D17" t="n">
-        <v>1.07</v>
+        <v>14.99</v>
       </c>
       <c r="E17" t="n">
-        <v>30.15</v>
+        <v>53.02</v>
       </c>
     </row>
     <row r="18">
@@ -2547,16 +3039,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.37</v>
+        <v>2.56</v>
       </c>
       <c r="C18" t="n">
-        <v>70.17</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6899999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="E18" t="n">
-        <v>27.51</v>
+        <v>52.16</v>
       </c>
     </row>
     <row r="19">
@@ -2566,16 +3058,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.39</v>
+        <v>4.35</v>
       </c>
       <c r="C19" t="n">
-        <v>67.09</v>
+        <v>96.12</v>
       </c>
       <c r="D19" t="n">
-        <v>0.41</v>
+        <v>8.92</v>
       </c>
       <c r="E19" t="n">
-        <v>24.95</v>
+        <v>50.67</v>
       </c>
     </row>
     <row r="20">
@@ -2585,16 +3077,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.33</v>
+        <v>6.9</v>
       </c>
       <c r="C20" t="n">
-        <v>64.08</v>
+        <v>93.7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.21</v>
+        <v>6.86</v>
       </c>
       <c r="E20" t="n">
-        <v>22.57</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="21">
@@ -2604,16 +3096,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.22</v>
+        <v>0.68</v>
       </c>
       <c r="C21" t="n">
-        <v>61.15</v>
+        <v>99.47</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1</v>
+        <v>20.35</v>
       </c>
       <c r="E21" t="n">
-        <v>20.5</v>
+        <v>53.39</v>
       </c>
     </row>
     <row r="22">
@@ -2623,16 +3115,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.03</v>
+        <v>1.25</v>
       </c>
       <c r="C22" t="n">
-        <v>58.31</v>
+        <v>98.98</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03</v>
+        <v>16.8</v>
       </c>
       <c r="E22" t="n">
-        <v>18.92</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="23">
@@ -2642,16 +3134,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.76</v>
+        <v>2.3</v>
       </c>
       <c r="C23" t="n">
-        <v>55.57</v>
+        <v>98.05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01</v>
+        <v>13.49</v>
       </c>
       <c r="E23" t="n">
-        <v>17.94</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="24">
@@ -2661,16 +3153,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.42</v>
+        <v>4.02</v>
       </c>
       <c r="C24" t="n">
-        <v>52.93</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>10.66</v>
       </c>
       <c r="E24" t="n">
-        <v>17.89</v>
+        <v>50.87</v>
       </c>
     </row>
     <row r="25">
@@ -2680,16 +3172,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.99</v>
+        <v>6.51</v>
       </c>
       <c r="C25" t="n">
-        <v>50.4</v>
+        <v>94.16</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>8.57</v>
       </c>
       <c r="E25" t="n">
-        <v>18.66</v>
+        <v>48.73</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,26 +499,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Step 1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Step 2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Step 3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Step 4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Total</t>
         </is>
       </c>
@@ -535,19 +515,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49.07</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20.59</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="G2" t="n">
-        <v>112.05</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="3">
@@ -562,19 +530,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>174.84</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.32</v>
-      </c>
-      <c r="E3" t="n">
-        <v>70.87</v>
-      </c>
-      <c r="F3" t="n">
-        <v>79.03</v>
-      </c>
-      <c r="G3" t="n">
-        <v>381.05</v>
+        <v>242.53</v>
       </c>
     </row>
     <row r="4">
@@ -589,19 +545,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8.9</v>
+        <v>15.86</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,26 +573,6 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Step 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Step 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Step 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Step 4</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -672,27 +596,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>122.388</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>167.454</v>
       </c>
     </row>
     <row r="3">
@@ -715,27 +619,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>122.388</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>167.454</v>
       </c>
     </row>
     <row r="4">
@@ -760,27 +644,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>91.852</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>111.883</v>
       </c>
     </row>
     <row r="5">
@@ -805,27 +669,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.956</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>19.163</v>
       </c>
     </row>
     <row r="6">
@@ -848,27 +692,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.833</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>36.769</v>
       </c>
     </row>
     <row r="7">
@@ -893,27 +717,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1.254</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-0.361</v>
       </c>
     </row>
     <row r="8">
@@ -938,27 +742,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2376</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.3252</v>
       </c>
     </row>
     <row r="9">
@@ -981,27 +765,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2376</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.3252</v>
       </c>
     </row>
     <row r="10">
@@ -1026,19 +790,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>57.548</v>
-      </c>
-      <c r="F10" t="n">
-        <v>46.613</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.156</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.619</v>
+        <v>69.158</v>
       </c>
     </row>
     <row r="11">
@@ -1059,19 +811,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.107</v>
-      </c>
-      <c r="F11" t="n">
-        <v>26.226</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.395</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.717</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.769</v>
+        <v>36.38</v>
       </c>
     </row>
     <row r="12">
@@ -1092,19 +832,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.197</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.048</v>
+        <v>6.345</v>
       </c>
     </row>
     <row r="13">
@@ -1129,27 +857,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.929</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6.062</v>
       </c>
     </row>
     <row r="14">
@@ -1170,27 +878,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.185</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>10.629</v>
       </c>
     </row>
     <row r="15">
@@ -1211,27 +899,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2.472</v>
       </c>
     </row>
     <row r="16">
@@ -1256,26 +924,6 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1297,27 +945,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.545</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>5.488</v>
       </c>
     </row>
     <row r="18">
@@ -1340,27 +968,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11.289</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>31.281</v>
       </c>
     </row>
     <row r="19">
@@ -1383,27 +991,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>95.032</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>329.079</v>
       </c>
     </row>
     <row r="20">
@@ -1430,26 +1018,6 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1475,26 +1043,6 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1520,26 +1068,6 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1561,27 +1089,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>95.032</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>329.079</v>
       </c>
     </row>
   </sheetData>
@@ -1744,13 +1252,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.84</v>
+        <v>1.24</v>
       </c>
       <c r="C6" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1759,7 +1267,7 @@
         <v>0.93</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1769,22 +1277,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.84</v>
+        <v>1.24</v>
       </c>
       <c r="C7" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G7" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1794,22 +1302,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.84</v>
+        <v>1.24</v>
       </c>
       <c r="C8" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="D8" t="n">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -1819,22 +1327,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.84</v>
+        <v>1.24</v>
       </c>
       <c r="C9" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="D9" t="n">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="G9" t="n">
-        <v>3.39</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10">
@@ -1844,22 +1352,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.84</v>
+        <v>1.24</v>
       </c>
       <c r="C10" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="D10" t="n">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="G10" t="n">
-        <v>5.24</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
@@ -1869,13 +1377,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="C11" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="D11" t="n">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1884,7 +1392,7 @@
         <v>1.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -1894,22 +1402,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="C12" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="D12" t="n">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="G12" t="n">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -1919,22 +1427,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="C13" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="D13" t="n">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="14">
@@ -1944,22 +1452,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="C14" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="D14" t="n">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="G14" t="n">
-        <v>3.98</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="15">
@@ -1969,22 +1477,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="C15" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="D15" t="n">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="G15" t="n">
-        <v>6.61</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="16">
@@ -1994,22 +1502,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="C16" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22</v>
+        <v>0.51</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -2019,22 +1527,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="C17" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22</v>
+        <v>0.51</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="G17" t="n">
-        <v>1.33</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="18">
@@ -2044,22 +1552,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="C18" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="D18" t="n">
-        <v>0.22</v>
+        <v>0.51</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="G18" t="n">
-        <v>2.63</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="19">
@@ -2069,22 +1577,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="C19" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.22</v>
+        <v>0.51</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
       <c r="G19" t="n">
-        <v>4.93</v>
+        <v>32.76</v>
       </c>
     </row>
     <row r="20">
@@ -2094,22 +1602,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="C20" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="D20" t="n">
-        <v>0.22</v>
+        <v>0.51</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="G20" t="n">
-        <v>8.640000000000001</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="21">
@@ -2119,22 +1627,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="C21" t="n">
-        <v>3.43</v>
+        <v>2.18</v>
       </c>
       <c r="D21" t="n">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.96</v>
+        <v>1.29</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9399999999999999</v>
+        <v>59.89</v>
       </c>
     </row>
     <row r="22">
@@ -2144,22 +1652,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="C22" t="n">
-        <v>3.43</v>
+        <v>2.18</v>
       </c>
       <c r="D22" t="n">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.04</v>
+        <v>1.26</v>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>78.53</v>
       </c>
     </row>
     <row r="23">
@@ -2169,22 +1677,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="C23" t="n">
-        <v>3.43</v>
+        <v>2.18</v>
       </c>
       <c r="D23" t="n">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2.12</v>
+        <v>1.22</v>
       </c>
       <c r="G23" t="n">
-        <v>3.86</v>
+        <v>101.77</v>
       </c>
     </row>
     <row r="24">
@@ -2194,22 +1702,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="C24" t="n">
-        <v>3.43</v>
+        <v>2.18</v>
       </c>
       <c r="D24" t="n">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.16</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>7.42</v>
+        <v>130.33</v>
       </c>
     </row>
     <row r="25">
@@ -2219,22 +1727,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="C25" t="n">
-        <v>3.43</v>
+        <v>2.18</v>
       </c>
       <c r="D25" t="n">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.17</v>
+        <v>1.19</v>
       </c>
       <c r="G25" t="n">
-        <v>13.27</v>
+        <v>165.22</v>
       </c>
     </row>
   </sheetData>
@@ -2316,16 +1824,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>98.51000000000001</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5</v>
+        <v>40.85</v>
       </c>
       <c r="E4" t="n">
-        <v>52.8</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="5">
@@ -2335,16 +1843,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.1</v>
+        <v>0.01</v>
       </c>
       <c r="C5" t="n">
-        <v>97.27</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>10.23</v>
+        <v>37.77</v>
       </c>
       <c r="E5" t="n">
-        <v>51.74</v>
+        <v>52.95</v>
       </c>
     </row>
     <row r="6">
@@ -2354,16 +1862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.16</v>
+        <v>0.03</v>
       </c>
       <c r="C6" t="n">
-        <v>95.33</v>
+        <v>99.98</v>
       </c>
       <c r="D6" t="n">
-        <v>7.69</v>
+        <v>34.67</v>
       </c>
       <c r="E6" t="n">
-        <v>49.95</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="7">
@@ -2373,16 +1881,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.92</v>
+        <v>0.06</v>
       </c>
       <c r="C7" t="n">
-        <v>92.69</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>5.86</v>
+        <v>31.41</v>
       </c>
       <c r="E7" t="n">
-        <v>47.53</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="8">
@@ -2392,16 +1900,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.11</v>
+        <v>0.15</v>
       </c>
       <c r="C8" t="n">
-        <v>89.59</v>
+        <v>99.89</v>
       </c>
       <c r="D8" t="n">
-        <v>4.57</v>
+        <v>28.02</v>
       </c>
       <c r="E8" t="n">
-        <v>44.77</v>
+        <v>53.39</v>
       </c>
     </row>
     <row r="9">
@@ -2411,16 +1919,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.15</v>
+        <v>0.31</v>
       </c>
       <c r="C9" t="n">
-        <v>99.06</v>
+        <v>99.77</v>
       </c>
       <c r="D9" t="n">
-        <v>16.3</v>
+        <v>24.52</v>
       </c>
       <c r="E9" t="n">
-        <v>53.19</v>
+        <v>53.46</v>
       </c>
     </row>
     <row r="10">
@@ -2430,16 +1938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="C10" t="n">
-        <v>98.3</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>12.83</v>
+        <v>20.97</v>
       </c>
       <c r="E10" t="n">
-        <v>52.61</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="11">
@@ -2449,16 +1957,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.48</v>
+        <v>1.26</v>
       </c>
       <c r="C11" t="n">
-        <v>96.93000000000001</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>9.789999999999999</v>
+        <v>17.45</v>
       </c>
       <c r="E11" t="n">
-        <v>51.41</v>
+        <v>53.02</v>
       </c>
     </row>
     <row r="12">
@@ -2468,16 +1976,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.71</v>
+        <v>2.34</v>
       </c>
       <c r="C12" t="n">
-        <v>94.81999999999999</v>
+        <v>98.03</v>
       </c>
       <c r="D12" t="n">
-        <v>7.41</v>
+        <v>14.18</v>
       </c>
       <c r="E12" t="n">
-        <v>49.49</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="13">
@@ -2487,16 +1995,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.609999999999999</v>
+        <v>4.14</v>
       </c>
       <c r="C13" t="n">
-        <v>92.04000000000001</v>
+        <v>96.41</v>
       </c>
       <c r="D13" t="n">
-        <v>5.73</v>
+        <v>11.44</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97</v>
+        <v>50.68</v>
       </c>
     </row>
     <row r="14">
@@ -2506,16 +2014,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.82</v>
+        <v>6.7</v>
       </c>
       <c r="C14" t="n">
-        <v>99.34</v>
+        <v>94.05</v>
       </c>
       <c r="D14" t="n">
-        <v>18.58</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>53.36</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="15">
@@ -2525,16 +2033,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.42</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>98.81</v>
+        <v>91.2</v>
       </c>
       <c r="D15" t="n">
-        <v>14.99</v>
+        <v>7.83</v>
       </c>
       <c r="E15" t="n">
-        <v>53.02</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="16">
@@ -2544,16 +2052,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.56</v>
+        <v>12.77</v>
       </c>
       <c r="C16" t="n">
-        <v>97.79000000000001</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>11.7</v>
+        <v>6.44</v>
       </c>
       <c r="E16" t="n">
-        <v>52.16</v>
+        <v>42.92</v>
       </c>
     </row>
     <row r="17">
@@ -2563,16 +2071,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.35</v>
+        <v>15.77</v>
       </c>
       <c r="C17" t="n">
-        <v>96.12</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>8.92</v>
+        <v>5.18</v>
       </c>
       <c r="E17" t="n">
-        <v>50.67</v>
+        <v>40.23</v>
       </c>
     </row>
     <row r="18">
@@ -2582,16 +2090,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.9</v>
+        <v>18.71</v>
       </c>
       <c r="C18" t="n">
-        <v>93.7</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>6.86</v>
+        <v>4.01</v>
       </c>
       <c r="E18" t="n">
-        <v>48.48</v>
+        <v>37.62</v>
       </c>
     </row>
     <row r="19">
@@ -2601,16 +2109,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.68</v>
+        <v>21.61</v>
       </c>
       <c r="C19" t="n">
-        <v>99.47</v>
+        <v>79.33</v>
       </c>
       <c r="D19" t="n">
-        <v>20.35</v>
+        <v>2.97</v>
       </c>
       <c r="E19" t="n">
-        <v>53.39</v>
+        <v>35.06</v>
       </c>
     </row>
     <row r="20">
@@ -2620,16 +2128,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.25</v>
+        <v>24.53</v>
       </c>
       <c r="C20" t="n">
-        <v>98.98</v>
+        <v>76.3</v>
       </c>
       <c r="D20" t="n">
-        <v>16.8</v>
+        <v>2.1</v>
       </c>
       <c r="E20" t="n">
-        <v>53.08</v>
+        <v>32.59</v>
       </c>
     </row>
     <row r="21">
@@ -2639,16 +2147,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.3</v>
+        <v>27.52</v>
       </c>
       <c r="C21" t="n">
-        <v>98.05</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>13.49</v>
+        <v>1.46</v>
       </c>
       <c r="E21" t="n">
-        <v>52.3</v>
+        <v>30.26</v>
       </c>
     </row>
     <row r="22">
@@ -2658,16 +2166,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.02</v>
+        <v>30.51</v>
       </c>
       <c r="C22" t="n">
-        <v>96.48999999999999</v>
+        <v>70.13</v>
       </c>
       <c r="D22" t="n">
-        <v>10.66</v>
+        <v>0.98</v>
       </c>
       <c r="E22" t="n">
-        <v>50.87</v>
+        <v>28.15</v>
       </c>
     </row>
     <row r="23">
@@ -2677,16 +2185,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.51</v>
+        <v>33.49</v>
       </c>
       <c r="C23" t="n">
-        <v>94.16</v>
+        <v>67.08</v>
       </c>
       <c r="D23" t="n">
-        <v>8.57</v>
+        <v>0.61</v>
       </c>
       <c r="E23" t="n">
-        <v>48.73</v>
+        <v>26.65</v>
       </c>
     </row>
   </sheetData>
@@ -2811,16 +2319,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>98.51000000000001</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>13.5</v>
+        <v>40.85</v>
       </c>
       <c r="E6" t="n">
-        <v>52.8</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="7">
@@ -2830,16 +2338,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.1</v>
+        <v>0.01</v>
       </c>
       <c r="C7" t="n">
-        <v>97.27</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>10.23</v>
+        <v>37.77</v>
       </c>
       <c r="E7" t="n">
-        <v>51.74</v>
+        <v>52.95</v>
       </c>
     </row>
     <row r="8">
@@ -2849,16 +2357,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.16</v>
+        <v>0.03</v>
       </c>
       <c r="C8" t="n">
-        <v>95.33</v>
+        <v>99.98</v>
       </c>
       <c r="D8" t="n">
-        <v>7.69</v>
+        <v>34.67</v>
       </c>
       <c r="E8" t="n">
-        <v>49.95</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="9">
@@ -2868,16 +2376,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.92</v>
+        <v>0.06</v>
       </c>
       <c r="C9" t="n">
-        <v>92.69</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>5.86</v>
+        <v>31.41</v>
       </c>
       <c r="E9" t="n">
-        <v>47.53</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="10">
@@ -2887,16 +2395,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.11</v>
+        <v>0.15</v>
       </c>
       <c r="C10" t="n">
-        <v>89.59</v>
+        <v>99.89</v>
       </c>
       <c r="D10" t="n">
-        <v>4.57</v>
+        <v>28.02</v>
       </c>
       <c r="E10" t="n">
-        <v>44.77</v>
+        <v>53.39</v>
       </c>
     </row>
     <row r="11">
@@ -2906,16 +2414,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.15</v>
+        <v>0.31</v>
       </c>
       <c r="C11" t="n">
-        <v>99.06</v>
+        <v>99.77</v>
       </c>
       <c r="D11" t="n">
-        <v>16.3</v>
+        <v>24.52</v>
       </c>
       <c r="E11" t="n">
-        <v>53.19</v>
+        <v>53.46</v>
       </c>
     </row>
     <row r="12">
@@ -2925,16 +2433,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="C12" t="n">
-        <v>98.3</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>12.83</v>
+        <v>20.97</v>
       </c>
       <c r="E12" t="n">
-        <v>52.61</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="13">
@@ -2944,16 +2452,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.48</v>
+        <v>1.26</v>
       </c>
       <c r="C13" t="n">
-        <v>96.93000000000001</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>9.789999999999999</v>
+        <v>17.45</v>
       </c>
       <c r="E13" t="n">
-        <v>51.41</v>
+        <v>53.02</v>
       </c>
     </row>
     <row r="14">
@@ -2963,16 +2471,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.71</v>
+        <v>2.34</v>
       </c>
       <c r="C14" t="n">
-        <v>94.81999999999999</v>
+        <v>98.03</v>
       </c>
       <c r="D14" t="n">
-        <v>7.41</v>
+        <v>14.18</v>
       </c>
       <c r="E14" t="n">
-        <v>49.49</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="15">
@@ -2982,16 +2490,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.609999999999999</v>
+        <v>4.14</v>
       </c>
       <c r="C15" t="n">
-        <v>92.04000000000001</v>
+        <v>96.41</v>
       </c>
       <c r="D15" t="n">
-        <v>5.73</v>
+        <v>11.44</v>
       </c>
       <c r="E15" t="n">
-        <v>46.97</v>
+        <v>50.68</v>
       </c>
     </row>
     <row r="16">
@@ -3001,16 +2509,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.82</v>
+        <v>6.7</v>
       </c>
       <c r="C16" t="n">
-        <v>99.34</v>
+        <v>94.05</v>
       </c>
       <c r="D16" t="n">
-        <v>18.58</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>53.36</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="17">
@@ -3020,16 +2528,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.42</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>98.81</v>
+        <v>91.2</v>
       </c>
       <c r="D17" t="n">
-        <v>14.99</v>
+        <v>7.83</v>
       </c>
       <c r="E17" t="n">
-        <v>53.02</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="18">
@@ -3039,16 +2547,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.56</v>
+        <v>12.77</v>
       </c>
       <c r="C18" t="n">
-        <v>97.79000000000001</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>11.7</v>
+        <v>6.44</v>
       </c>
       <c r="E18" t="n">
-        <v>52.16</v>
+        <v>42.92</v>
       </c>
     </row>
     <row r="19">
@@ -3058,16 +2566,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.35</v>
+        <v>15.77</v>
       </c>
       <c r="C19" t="n">
-        <v>96.12</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>8.92</v>
+        <v>5.18</v>
       </c>
       <c r="E19" t="n">
-        <v>50.67</v>
+        <v>40.23</v>
       </c>
     </row>
     <row r="20">
@@ -3077,16 +2585,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.9</v>
+        <v>18.71</v>
       </c>
       <c r="C20" t="n">
-        <v>93.7</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>6.86</v>
+        <v>4.01</v>
       </c>
       <c r="E20" t="n">
-        <v>48.48</v>
+        <v>37.62</v>
       </c>
     </row>
     <row r="21">
@@ -3096,16 +2604,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.68</v>
+        <v>21.61</v>
       </c>
       <c r="C21" t="n">
-        <v>99.47</v>
+        <v>79.33</v>
       </c>
       <c r="D21" t="n">
-        <v>20.35</v>
+        <v>2.97</v>
       </c>
       <c r="E21" t="n">
-        <v>53.39</v>
+        <v>35.06</v>
       </c>
     </row>
     <row r="22">
@@ -3115,16 +2623,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.25</v>
+        <v>24.53</v>
       </c>
       <c r="C22" t="n">
-        <v>98.98</v>
+        <v>76.3</v>
       </c>
       <c r="D22" t="n">
-        <v>16.8</v>
+        <v>2.1</v>
       </c>
       <c r="E22" t="n">
-        <v>53.08</v>
+        <v>32.59</v>
       </c>
     </row>
     <row r="23">
@@ -3134,16 +2642,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.3</v>
+        <v>27.52</v>
       </c>
       <c r="C23" t="n">
-        <v>98.05</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>13.49</v>
+        <v>1.46</v>
       </c>
       <c r="E23" t="n">
-        <v>52.3</v>
+        <v>30.26</v>
       </c>
     </row>
     <row r="24">
@@ -3153,16 +2661,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.02</v>
+        <v>30.51</v>
       </c>
       <c r="C24" t="n">
-        <v>96.48999999999999</v>
+        <v>70.13</v>
       </c>
       <c r="D24" t="n">
-        <v>10.66</v>
+        <v>0.98</v>
       </c>
       <c r="E24" t="n">
-        <v>50.87</v>
+        <v>28.15</v>
       </c>
     </row>
     <row r="25">
@@ -3172,16 +2680,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.51</v>
+        <v>33.49</v>
       </c>
       <c r="C25" t="n">
-        <v>94.16</v>
+        <v>67.08</v>
       </c>
       <c r="D25" t="n">
-        <v>8.57</v>
+        <v>0.61</v>
       </c>
       <c r="E25" t="n">
-        <v>48.73</v>
+        <v>26.65</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>72.8</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>242.53</v>
+        <v>187.17</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.86</v>
+        <v>19.99</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>167.454</v>
+        <v>131.949</v>
       </c>
     </row>
     <row r="3">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>167.454</v>
+        <v>131.949</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>111.883</v>
+        <v>87.548</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.163</v>
+        <v>15.831</v>
       </c>
     </row>
     <row r="6">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36.769</v>
+        <v>28.839</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.361</v>
+        <v>-0.269</v>
       </c>
     </row>
     <row r="8">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.3252</v>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="9">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3252</v>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="10">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>69.158</v>
+        <v>51.475</v>
       </c>
     </row>
     <row r="11">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36.38</v>
+        <v>28.076</v>
       </c>
     </row>
     <row r="12">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.345</v>
+        <v>7.998</v>
       </c>
     </row>
     <row r="13">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6.062</v>
+        <v>4.512</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.629</v>
+        <v>8.202999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.472</v>
+        <v>3.116</v>
       </c>
     </row>
     <row r="16">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.488</v>
+        <v>4.795</v>
       </c>
     </row>
     <row r="18">
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.281</v>
+        <v>24.044</v>
       </c>
     </row>
     <row r="19">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>329.079</v>
+        <v>668.522</v>
       </c>
     </row>
     <row r="20">
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>329.079</v>
+        <v>668.522</v>
       </c>
     </row>
   </sheetData>
@@ -1252,22 +1252,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C6" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D6" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C7" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D7" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C8" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D8" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -1327,22 +1327,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C9" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D9" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="10">
@@ -1352,22 +1352,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C10" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D10" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="11">
@@ -1377,22 +1377,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C11" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D11" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="12">
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C12" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D12" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="13">
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C13" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D13" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="14">
@@ -1452,22 +1452,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C14" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D14" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>2.37</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="15">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C15" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D15" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.39</v>
+        <v>0.97</v>
       </c>
       <c r="G15" t="n">
-        <v>4.83</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="16">
@@ -1502,22 +1502,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C16" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D16" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.39</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>9.039999999999999</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="17">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C17" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D17" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.38</v>
+        <v>0.91</v>
       </c>
       <c r="G17" t="n">
-        <v>15.15</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="18">
@@ -1552,22 +1552,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C18" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D18" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="G18" t="n">
-        <v>22.97</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="19">
@@ -1577,22 +1577,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C19" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D19" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.34</v>
+        <v>0.83</v>
       </c>
       <c r="G19" t="n">
-        <v>32.76</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="20">
@@ -1602,22 +1602,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C20" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D20" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.31</v>
+        <v>0.79</v>
       </c>
       <c r="G20" t="n">
-        <v>44.9</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="21">
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C21" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D21" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.29</v>
+        <v>0.75</v>
       </c>
       <c r="G21" t="n">
-        <v>59.89</v>
+        <v>26.02</v>
       </c>
     </row>
     <row r="22">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C22" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D22" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="G22" t="n">
-        <v>78.53</v>
+        <v>29.28</v>
       </c>
     </row>
     <row r="23">
@@ -1677,22 +1677,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C23" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D23" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.22</v>
+        <v>0.73</v>
       </c>
       <c r="G23" t="n">
-        <v>101.77</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="24">
@@ -1702,22 +1702,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C24" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D24" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="G24" t="n">
-        <v>130.33</v>
+        <v>36.43</v>
       </c>
     </row>
     <row r="25">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C25" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="D25" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.19</v>
+        <v>0.83</v>
       </c>
       <c r="G25" t="n">
-        <v>165.22</v>
+        <v>40.32</v>
       </c>
     </row>
   </sheetData>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>99.55</v>
       </c>
       <c r="D4" t="n">
-        <v>40.85</v>
+        <v>20.83</v>
       </c>
       <c r="E4" t="n">
-        <v>52.82</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="5">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01</v>
+        <v>1.11</v>
       </c>
       <c r="C5" t="n">
-        <v>99.98999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>37.77</v>
+        <v>17.13</v>
       </c>
       <c r="E5" t="n">
-        <v>52.95</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="6">
@@ -1862,16 +1862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03</v>
+        <v>1.99</v>
       </c>
       <c r="C6" t="n">
-        <v>99.98</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>34.67</v>
+        <v>13.7</v>
       </c>
       <c r="E6" t="n">
-        <v>53.1</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="7">
@@ -1881,16 +1881,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06</v>
+        <v>3.5</v>
       </c>
       <c r="C7" t="n">
-        <v>99.95999999999999</v>
+        <v>96.94</v>
       </c>
       <c r="D7" t="n">
-        <v>31.41</v>
+        <v>10.7</v>
       </c>
       <c r="E7" t="n">
-        <v>53.26</v>
+        <v>51.34</v>
       </c>
     </row>
     <row r="8">
@@ -1900,16 +1900,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.15</v>
+        <v>5.78</v>
       </c>
       <c r="C8" t="n">
-        <v>99.89</v>
+        <v>94.81</v>
       </c>
       <c r="D8" t="n">
-        <v>28.02</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>53.39</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="9">
@@ -1919,16 +1919,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.31</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>99.77</v>
+        <v>92.03</v>
       </c>
       <c r="D9" t="n">
-        <v>24.52</v>
+        <v>6.72</v>
       </c>
       <c r="E9" t="n">
-        <v>53.46</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="10">
@@ -1938,16 +1938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.66</v>
+        <v>11.87</v>
       </c>
       <c r="C10" t="n">
-        <v>99.48999999999999</v>
+        <v>88.97</v>
       </c>
       <c r="D10" t="n">
-        <v>20.97</v>
+        <v>5.42</v>
       </c>
       <c r="E10" t="n">
-        <v>53.36</v>
+        <v>43.84</v>
       </c>
     </row>
     <row r="11">
@@ -1957,16 +1957,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.26</v>
+        <v>14.98</v>
       </c>
       <c r="C11" t="n">
-        <v>98.98999999999999</v>
+        <v>85.89</v>
       </c>
       <c r="D11" t="n">
-        <v>17.45</v>
+        <v>4.24</v>
       </c>
       <c r="E11" t="n">
-        <v>53.02</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="12">
@@ -1976,16 +1976,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.34</v>
+        <v>18.04</v>
       </c>
       <c r="C12" t="n">
-        <v>98.03</v>
+        <v>82.8</v>
       </c>
       <c r="D12" t="n">
-        <v>14.18</v>
+        <v>3.17</v>
       </c>
       <c r="E12" t="n">
-        <v>52.2</v>
+        <v>38.31</v>
       </c>
     </row>
     <row r="13">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.14</v>
+        <v>21.08</v>
       </c>
       <c r="C13" t="n">
-        <v>96.41</v>
+        <v>79.69</v>
       </c>
       <c r="D13" t="n">
-        <v>11.44</v>
+        <v>2.26</v>
       </c>
       <c r="E13" t="n">
-        <v>50.68</v>
+        <v>35.61</v>
       </c>
     </row>
     <row r="14">
@@ -2014,16 +2014,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.7</v>
+        <v>24.2</v>
       </c>
       <c r="C14" t="n">
-        <v>94.05</v>
+        <v>76.5</v>
       </c>
       <c r="D14" t="n">
-        <v>9.380000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="E14" t="n">
-        <v>48.4</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="15">
@@ -2033,16 +2033,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.720000000000001</v>
+        <v>27.31</v>
       </c>
       <c r="C15" t="n">
-        <v>91.2</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>7.83</v>
+        <v>1.07</v>
       </c>
       <c r="E15" t="n">
-        <v>45.67</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="16">
@@ -2052,16 +2052,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.77</v>
+        <v>30.37</v>
       </c>
       <c r="C16" t="n">
-        <v>88.26000000000001</v>
+        <v>70.17</v>
       </c>
       <c r="D16" t="n">
-        <v>6.44</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>42.92</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="17">
@@ -2071,16 +2071,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.77</v>
+        <v>33.39</v>
       </c>
       <c r="C17" t="n">
-        <v>85.29000000000001</v>
+        <v>67.09</v>
       </c>
       <c r="D17" t="n">
-        <v>5.18</v>
+        <v>0.41</v>
       </c>
       <c r="E17" t="n">
-        <v>40.23</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="18">
@@ -2090,16 +2090,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.71</v>
+        <v>36.33</v>
       </c>
       <c r="C18" t="n">
-        <v>82.31999999999999</v>
+        <v>64.08</v>
       </c>
       <c r="D18" t="n">
-        <v>4.01</v>
+        <v>0.21</v>
       </c>
       <c r="E18" t="n">
-        <v>37.62</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="19">
@@ -2109,16 +2109,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.61</v>
+        <v>39.22</v>
       </c>
       <c r="C19" t="n">
-        <v>79.33</v>
+        <v>61.15</v>
       </c>
       <c r="D19" t="n">
-        <v>2.97</v>
+        <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>35.06</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="20">
@@ -2128,16 +2128,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.53</v>
+        <v>42.03</v>
       </c>
       <c r="C20" t="n">
-        <v>76.3</v>
+        <v>58.31</v>
       </c>
       <c r="D20" t="n">
-        <v>2.1</v>
+        <v>0.03</v>
       </c>
       <c r="E20" t="n">
-        <v>32.59</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="21">
@@ -2147,16 +2147,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>27.52</v>
+        <v>44.76</v>
       </c>
       <c r="C21" t="n">
-        <v>73.20999999999999</v>
+        <v>55.57</v>
       </c>
       <c r="D21" t="n">
-        <v>1.46</v>
+        <v>0.01</v>
       </c>
       <c r="E21" t="n">
-        <v>30.26</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="22">
@@ -2166,16 +2166,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.51</v>
+        <v>47.42</v>
       </c>
       <c r="C22" t="n">
-        <v>70.13</v>
+        <v>52.93</v>
       </c>
       <c r="D22" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>28.15</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="23">
@@ -2185,16 +2185,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.49</v>
+        <v>49.99</v>
       </c>
       <c r="C23" t="n">
-        <v>67.08</v>
+        <v>50.4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>26.65</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>
@@ -2319,16 +2319,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>99.55</v>
       </c>
       <c r="D6" t="n">
-        <v>40.85</v>
+        <v>20.83</v>
       </c>
       <c r="E6" t="n">
-        <v>52.82</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="7">
@@ -2338,16 +2338,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01</v>
+        <v>1.11</v>
       </c>
       <c r="C7" t="n">
-        <v>99.98999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>37.77</v>
+        <v>17.13</v>
       </c>
       <c r="E7" t="n">
-        <v>52.95</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="8">
@@ -2357,16 +2357,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03</v>
+        <v>1.99</v>
       </c>
       <c r="C8" t="n">
-        <v>99.98</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>34.67</v>
+        <v>13.7</v>
       </c>
       <c r="E8" t="n">
-        <v>53.1</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="9">
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06</v>
+        <v>3.5</v>
       </c>
       <c r="C9" t="n">
-        <v>99.95999999999999</v>
+        <v>96.94</v>
       </c>
       <c r="D9" t="n">
-        <v>31.41</v>
+        <v>10.7</v>
       </c>
       <c r="E9" t="n">
-        <v>53.26</v>
+        <v>51.34</v>
       </c>
     </row>
     <row r="10">
@@ -2395,16 +2395,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.15</v>
+        <v>5.78</v>
       </c>
       <c r="C10" t="n">
-        <v>99.89</v>
+        <v>94.81</v>
       </c>
       <c r="D10" t="n">
-        <v>28.02</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>53.39</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="11">
@@ -2414,16 +2414,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.31</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>99.77</v>
+        <v>92.03</v>
       </c>
       <c r="D11" t="n">
-        <v>24.52</v>
+        <v>6.72</v>
       </c>
       <c r="E11" t="n">
-        <v>53.46</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="12">
@@ -2433,16 +2433,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.66</v>
+        <v>11.87</v>
       </c>
       <c r="C12" t="n">
-        <v>99.48999999999999</v>
+        <v>88.97</v>
       </c>
       <c r="D12" t="n">
-        <v>20.97</v>
+        <v>5.42</v>
       </c>
       <c r="E12" t="n">
-        <v>53.36</v>
+        <v>43.84</v>
       </c>
     </row>
     <row r="13">
@@ -2452,16 +2452,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.26</v>
+        <v>14.98</v>
       </c>
       <c r="C13" t="n">
-        <v>98.98999999999999</v>
+        <v>85.89</v>
       </c>
       <c r="D13" t="n">
-        <v>17.45</v>
+        <v>4.24</v>
       </c>
       <c r="E13" t="n">
-        <v>53.02</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="14">
@@ -2471,16 +2471,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.34</v>
+        <v>18.04</v>
       </c>
       <c r="C14" t="n">
-        <v>98.03</v>
+        <v>82.8</v>
       </c>
       <c r="D14" t="n">
-        <v>14.18</v>
+        <v>3.17</v>
       </c>
       <c r="E14" t="n">
-        <v>52.2</v>
+        <v>38.31</v>
       </c>
     </row>
     <row r="15">
@@ -2490,16 +2490,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.14</v>
+        <v>21.08</v>
       </c>
       <c r="C15" t="n">
-        <v>96.41</v>
+        <v>79.69</v>
       </c>
       <c r="D15" t="n">
-        <v>11.44</v>
+        <v>2.26</v>
       </c>
       <c r="E15" t="n">
-        <v>50.68</v>
+        <v>35.61</v>
       </c>
     </row>
     <row r="16">
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.7</v>
+        <v>24.2</v>
       </c>
       <c r="C16" t="n">
-        <v>94.05</v>
+        <v>76.5</v>
       </c>
       <c r="D16" t="n">
-        <v>9.380000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="E16" t="n">
-        <v>48.4</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="17">
@@ -2528,16 +2528,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.720000000000001</v>
+        <v>27.31</v>
       </c>
       <c r="C17" t="n">
-        <v>91.2</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>7.83</v>
+        <v>1.07</v>
       </c>
       <c r="E17" t="n">
-        <v>45.67</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="18">
@@ -2547,16 +2547,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12.77</v>
+        <v>30.37</v>
       </c>
       <c r="C18" t="n">
-        <v>88.26000000000001</v>
+        <v>70.17</v>
       </c>
       <c r="D18" t="n">
-        <v>6.44</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>42.92</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="19">
@@ -2566,16 +2566,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.77</v>
+        <v>33.39</v>
       </c>
       <c r="C19" t="n">
-        <v>85.29000000000001</v>
+        <v>67.09</v>
       </c>
       <c r="D19" t="n">
-        <v>5.18</v>
+        <v>0.41</v>
       </c>
       <c r="E19" t="n">
-        <v>40.23</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="20">
@@ -2585,16 +2585,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18.71</v>
+        <v>36.33</v>
       </c>
       <c r="C20" t="n">
-        <v>82.31999999999999</v>
+        <v>64.08</v>
       </c>
       <c r="D20" t="n">
-        <v>4.01</v>
+        <v>0.21</v>
       </c>
       <c r="E20" t="n">
-        <v>37.62</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="21">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.61</v>
+        <v>39.22</v>
       </c>
       <c r="C21" t="n">
-        <v>79.33</v>
+        <v>61.15</v>
       </c>
       <c r="D21" t="n">
-        <v>2.97</v>
+        <v>0.1</v>
       </c>
       <c r="E21" t="n">
-        <v>35.06</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="22">
@@ -2623,16 +2623,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.53</v>
+        <v>42.03</v>
       </c>
       <c r="C22" t="n">
-        <v>76.3</v>
+        <v>58.31</v>
       </c>
       <c r="D22" t="n">
-        <v>2.1</v>
+        <v>0.03</v>
       </c>
       <c r="E22" t="n">
-        <v>32.59</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="23">
@@ -2642,16 +2642,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27.52</v>
+        <v>44.76</v>
       </c>
       <c r="C23" t="n">
-        <v>73.20999999999999</v>
+        <v>55.57</v>
       </c>
       <c r="D23" t="n">
-        <v>1.46</v>
+        <v>0.01</v>
       </c>
       <c r="E23" t="n">
-        <v>30.26</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="24">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30.51</v>
+        <v>47.42</v>
       </c>
       <c r="C24" t="n">
-        <v>70.13</v>
+        <v>52.93</v>
       </c>
       <c r="D24" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>28.15</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="25">
@@ -2680,16 +2680,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.49</v>
+        <v>49.99</v>
       </c>
       <c r="C25" t="n">
-        <v>67.08</v>
+        <v>50.4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>26.65</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,31 +521,46 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>kWh</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>kWh</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>187.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>kW</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>19.99</v>
+      <c r="C5" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +611,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>131.949</v>
+        <v>131.944</v>
       </c>
     </row>
     <row r="3">
@@ -619,7 +634,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>131.949</v>
+        <v>131.944</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +659,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>87.548</v>
+        <v>87.544</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +684,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.831</v>
+        <v>15.829</v>
       </c>
     </row>
     <row r="6">
@@ -797,7 +812,7 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -811,152 +826,148 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>28.069</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>7.998</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Fixed cost</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>Solar PV</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>4.512</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>8.202999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
+          <t>Wind Turbine</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>8.201000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E17" t="n">
         <v>3.116</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Lost load cost</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>4.795</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fuel cost</t>
+          <t>Lost load cost</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C18" s="1" t="n">
@@ -968,18 +979,18 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fuel CO2 emission</t>
+          <t>Replacement cost</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C19" s="1" t="n">
@@ -987,53 +998,49 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>668.522</v>
+        <v>4.793</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RES CO2 emission</t>
+          <t>Fuel cost</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>24.046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GEN CO2 emission</t>
+          <t>Fuel CO2 emission</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
@@ -1041,18 +1048,18 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>668.492</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BESS CO2 emission</t>
+          <t>RES CO2 emission</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>BESS</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -1072,30 +1079,80 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>GEN CO2 emission</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>BESS CO2 emission</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
           <t>TOTAL CO2 emission</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D25" s="1" t="inlineStr">
         <is>
           <t>ton</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>668.522</v>
+      <c r="E25" t="n">
+        <v>668.492</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1107,7 +1164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,17 +1181,18 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Lost load cost</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Replacement cost</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Fuel cost</t>
         </is>
@@ -1153,25 +1211,30 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>Wind Turbine</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Diesel</t>
         </is>
@@ -1198,8 +1261,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
@@ -1207,6 +1272,9 @@
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1244,6 +1312,11 @@
           <t>kUSD</t>
         </is>
       </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1255,19 +1328,22 @@
         <v>0.93</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.68</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.64</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.19</v>
+      <c r="H6" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -1280,18 +1356,21 @@
         <v>0.93</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.68</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.64</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.99</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1305,18 +1384,21 @@
         <v>0.93</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.68</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.64</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.02</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -1330,18 +1412,21 @@
         <v>0.93</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.68</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.64</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.05</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1.29</v>
       </c>
     </row>
@@ -1355,18 +1440,21 @@
         <v>0.93</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.68</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.64</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.06</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>2.24</v>
       </c>
     </row>
@@ -1380,18 +1468,21 @@
         <v>0.93</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>1.68</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.64</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.05</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>3.55</v>
       </c>
     </row>
@@ -1405,18 +1496,21 @@
         <v>0.93</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.68</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.64</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.04</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>5.08</v>
       </c>
     </row>
@@ -1430,18 +1524,21 @@
         <v>0.93</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>1.68</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.64</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.02</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>6.73</v>
       </c>
     </row>
@@ -1455,18 +1552,21 @@
         <v>0.93</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>1.68</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.64</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>8.51</v>
       </c>
     </row>
@@ -1480,18 +1580,21 @@
         <v>0.93</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>1.68</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.64</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.97</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>10.44</v>
       </c>
     </row>
@@ -1505,18 +1608,21 @@
         <v>0.93</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>1.68</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.64</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>12.58</v>
       </c>
     </row>
@@ -1530,18 +1636,21 @@
         <v>0.93</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.68</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.64</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.91</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>14.91</v>
       </c>
     </row>
@@ -1555,18 +1664,21 @@
         <v>0.93</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>1.68</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.64</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.87</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>17.41</v>
       </c>
     </row>
@@ -1580,18 +1692,21 @@
         <v>0.93</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>1.68</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.64</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.83</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>20.09</v>
       </c>
     </row>
@@ -1605,18 +1720,21 @@
         <v>0.93</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>1.68</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.64</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.79</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>22.96</v>
       </c>
     </row>
@@ -1630,18 +1748,21 @@
         <v>0.93</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>1.68</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.64</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.75</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>26.02</v>
       </c>
     </row>
@@ -1655,18 +1776,21 @@
         <v>0.93</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>1.68</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0.64</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.73</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>29.28</v>
       </c>
     </row>
@@ -1680,19 +1804,22 @@
         <v>0.93</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.68</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>0.64</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>32.75</v>
+        <v>0.72</v>
+      </c>
+      <c r="H23" t="n">
+        <v>32.74</v>
       </c>
     </row>
     <row r="24">
@@ -1705,19 +1832,22 @@
         <v>0.93</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>1.68</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0.64</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.76</v>
       </c>
-      <c r="G24" t="n">
-        <v>36.43</v>
+      <c r="H24" t="n">
+        <v>36.42</v>
       </c>
     </row>
     <row r="25">
@@ -1730,24 +1860,27 @@
         <v>0.93</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>1.68</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>0.64</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.83</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>40.32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1849,7 +1982,7 @@
         <v>99.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>17.13</v>
+        <v>17.14</v>
       </c>
       <c r="E5" t="n">
         <v>53.18</v>
@@ -1871,7 +2004,7 @@
         <v>13.7</v>
       </c>
       <c r="E6" t="n">
-        <v>52.57</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="7">
@@ -1890,7 +2023,7 @@
         <v>10.7</v>
       </c>
       <c r="E7" t="n">
-        <v>51.34</v>
+        <v>51.33</v>
       </c>
     </row>
     <row r="8">
@@ -1909,7 +2042,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>49.34</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="9">
@@ -1919,16 +2052,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.710000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>92.03</v>
+        <v>92.02</v>
       </c>
       <c r="D9" t="n">
-        <v>6.72</v>
+        <v>6.73</v>
       </c>
       <c r="E9" t="n">
-        <v>46.69</v>
+        <v>46.68</v>
       </c>
     </row>
     <row r="10">
@@ -1938,7 +2071,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.87</v>
+        <v>11.88</v>
       </c>
       <c r="C10" t="n">
         <v>88.97</v>
@@ -1947,7 +2080,7 @@
         <v>5.42</v>
       </c>
       <c r="E10" t="n">
-        <v>43.84</v>
+        <v>43.82</v>
       </c>
     </row>
     <row r="11">
@@ -1957,7 +2090,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.98</v>
+        <v>14.99</v>
       </c>
       <c r="C11" t="n">
         <v>85.89</v>
@@ -1966,7 +2099,7 @@
         <v>4.24</v>
       </c>
       <c r="E11" t="n">
-        <v>41.03</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +2118,7 @@
         <v>3.17</v>
       </c>
       <c r="E12" t="n">
-        <v>38.31</v>
+        <v>38.29</v>
       </c>
     </row>
     <row r="13">
@@ -2004,7 +2137,7 @@
         <v>2.26</v>
       </c>
       <c r="E13" t="n">
-        <v>35.61</v>
+        <v>35.59</v>
       </c>
     </row>
     <row r="14">
@@ -2020,10 +2153,10 @@
         <v>76.5</v>
       </c>
       <c r="D14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="E14" t="n">
-        <v>32.86</v>
+        <v>32.84</v>
       </c>
     </row>
     <row r="15">
@@ -2042,7 +2175,7 @@
         <v>1.07</v>
       </c>
       <c r="E15" t="n">
-        <v>30.15</v>
+        <v>30.13</v>
       </c>
     </row>
     <row r="16">
@@ -2061,7 +2194,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>27.51</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="17">
@@ -2071,7 +2204,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.39</v>
+        <v>33.38</v>
       </c>
       <c r="C17" t="n">
         <v>67.09</v>
@@ -2080,7 +2213,7 @@
         <v>0.41</v>
       </c>
       <c r="E17" t="n">
-        <v>24.95</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="18">
@@ -2099,7 +2232,7 @@
         <v>0.21</v>
       </c>
       <c r="E18" t="n">
-        <v>22.57</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="19">
@@ -2109,7 +2242,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.22</v>
+        <v>39.21</v>
       </c>
       <c r="C19" t="n">
         <v>61.15</v>
@@ -2118,7 +2251,7 @@
         <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>20.5</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="20">
@@ -2128,16 +2261,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.03</v>
+        <v>42.02</v>
       </c>
       <c r="C20" t="n">
-        <v>58.31</v>
+        <v>58.32</v>
       </c>
       <c r="D20" t="n">
         <v>0.03</v>
       </c>
       <c r="E20" t="n">
-        <v>18.92</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="21">
@@ -2147,16 +2280,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.76</v>
+        <v>44.75</v>
       </c>
       <c r="C21" t="n">
-        <v>55.57</v>
+        <v>55.58</v>
       </c>
       <c r="D21" t="n">
         <v>0.01</v>
       </c>
       <c r="E21" t="n">
-        <v>17.94</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="22">
@@ -2166,16 +2299,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.42</v>
+        <v>47.41</v>
       </c>
       <c r="C22" t="n">
-        <v>52.93</v>
+        <v>52.94</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>17.89</v>
+        <v>17.81</v>
       </c>
     </row>
     <row r="23">
@@ -2185,7 +2318,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.99</v>
+        <v>49.98</v>
       </c>
       <c r="C23" t="n">
         <v>50.4</v>
@@ -2194,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>18.66</v>
+        <v>18.55</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,12 +2361,13 @@
           <t>Renewable penetration</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Curtailment share</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Battery usage</t>
         </is>
@@ -2257,10 +2391,15 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Wind Turbine</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
@@ -2284,6 +2423,9 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2311,6 +2453,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2325,9 +2472,12 @@
         <v>99.55</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>20.83</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>53.45</v>
       </c>
     </row>
@@ -2344,9 +2494,12 @@
         <v>99.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>17.13</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="F7" t="n">
         <v>53.18</v>
       </c>
     </row>
@@ -2363,10 +2516,13 @@
         <v>98.31999999999999</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>13.7</v>
       </c>
-      <c r="E8" t="n">
-        <v>52.57</v>
+      <c r="F8" t="n">
+        <v>52.56</v>
       </c>
     </row>
     <row r="9">
@@ -2382,10 +2538,13 @@
         <v>96.94</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>10.7</v>
       </c>
-      <c r="E9" t="n">
-        <v>51.34</v>
+      <c r="F9" t="n">
+        <v>51.33</v>
       </c>
     </row>
     <row r="10">
@@ -2401,10 +2560,13 @@
         <v>94.81</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="E10" t="n">
-        <v>49.34</v>
+      <c r="F10" t="n">
+        <v>49.32</v>
       </c>
     </row>
     <row r="11">
@@ -2414,16 +2576,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.710000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>92.03</v>
+        <v>92.02</v>
       </c>
       <c r="D11" t="n">
-        <v>6.72</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>46.69</v>
+        <v>6.73</v>
+      </c>
+      <c r="F11" t="n">
+        <v>46.68</v>
       </c>
     </row>
     <row r="12">
@@ -2433,16 +2598,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.87</v>
+        <v>11.88</v>
       </c>
       <c r="C12" t="n">
         <v>88.97</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>5.42</v>
       </c>
-      <c r="E12" t="n">
-        <v>43.84</v>
+      <c r="F12" t="n">
+        <v>43.82</v>
       </c>
     </row>
     <row r="13">
@@ -2452,16 +2620,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.98</v>
+        <v>14.99</v>
       </c>
       <c r="C13" t="n">
         <v>85.89</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
         <v>4.24</v>
       </c>
-      <c r="E13" t="n">
-        <v>41.03</v>
+      <c r="F13" t="n">
+        <v>41.01</v>
       </c>
     </row>
     <row r="14">
@@ -2477,10 +2648,13 @@
         <v>82.8</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>3.17</v>
       </c>
-      <c r="E14" t="n">
-        <v>38.31</v>
+      <c r="F14" t="n">
+        <v>38.29</v>
       </c>
     </row>
     <row r="15">
@@ -2496,10 +2670,13 @@
         <v>79.69</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>2.26</v>
       </c>
-      <c r="E15" t="n">
-        <v>35.61</v>
+      <c r="F15" t="n">
+        <v>35.59</v>
       </c>
     </row>
     <row r="16">
@@ -2515,10 +2692,13 @@
         <v>76.5</v>
       </c>
       <c r="D16" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>32.86</v>
+        <v>1.59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>32.84</v>
       </c>
     </row>
     <row r="17">
@@ -2534,10 +2714,13 @@
         <v>73.31999999999999</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>1.07</v>
       </c>
-      <c r="E17" t="n">
-        <v>30.15</v>
+      <c r="F17" t="n">
+        <v>30.13</v>
       </c>
     </row>
     <row r="18">
@@ -2553,10 +2736,13 @@
         <v>70.17</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E18" t="n">
-        <v>27.51</v>
+      <c r="F18" t="n">
+        <v>27.49</v>
       </c>
     </row>
     <row r="19">
@@ -2566,16 +2752,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.39</v>
+        <v>33.38</v>
       </c>
       <c r="C19" t="n">
         <v>67.09</v>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.41</v>
       </c>
-      <c r="E19" t="n">
-        <v>24.95</v>
+      <c r="F19" t="n">
+        <v>24.93</v>
       </c>
     </row>
     <row r="20">
@@ -2591,10 +2780,13 @@
         <v>64.08</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.21</v>
       </c>
-      <c r="E20" t="n">
-        <v>22.57</v>
+      <c r="F20" t="n">
+        <v>22.54</v>
       </c>
     </row>
     <row r="21">
@@ -2604,16 +2796,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.22</v>
+        <v>39.21</v>
       </c>
       <c r="C21" t="n">
         <v>61.15</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.1</v>
       </c>
-      <c r="E21" t="n">
-        <v>20.5</v>
+      <c r="F21" t="n">
+        <v>20.47</v>
       </c>
     </row>
     <row r="22">
@@ -2623,16 +2818,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.03</v>
+        <v>42.02</v>
       </c>
       <c r="C22" t="n">
-        <v>58.31</v>
+        <v>58.32</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.03</v>
       </c>
-      <c r="E22" t="n">
-        <v>18.92</v>
+      <c r="F22" t="n">
+        <v>18.88</v>
       </c>
     </row>
     <row r="23">
@@ -2642,16 +2840,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.76</v>
+        <v>44.75</v>
       </c>
       <c r="C23" t="n">
-        <v>55.57</v>
+        <v>55.58</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.01</v>
       </c>
-      <c r="E23" t="n">
-        <v>17.94</v>
+      <c r="F23" t="n">
+        <v>17.89</v>
       </c>
     </row>
     <row r="24">
@@ -2661,16 +2862,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.42</v>
+        <v>47.41</v>
       </c>
       <c r="C24" t="n">
-        <v>52.93</v>
+        <v>52.94</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>17.89</v>
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17.81</v>
       </c>
     </row>
     <row r="25">
@@ -2680,7 +2884,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.99</v>
+        <v>49.98</v>
       </c>
       <c r="C25" t="n">
         <v>50.4</v>
@@ -2689,10 +2893,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.66</v>
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18.55</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>187.13</v>
+        <v>187.14</v>
       </c>
     </row>
     <row r="5">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>87.544</v>
+        <v>87.545</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.829</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="6">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.839</v>
+        <v>28.838</v>
       </c>
     </row>
     <row r="7">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.069</v>
+        <v>28.07</v>
       </c>
     </row>
     <row r="13">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7.999</v>
       </c>
     </row>
     <row r="14">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.046</v>
+        <v>24.045</v>
       </c>
     </row>
     <row r="21">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>668.492</v>
+        <v>668.487</v>
       </c>
     </row>
     <row r="22">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>668.492</v>
+        <v>668.487</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="C10" t="n">
         <v>88.97</v>
@@ -2099,7 +2099,7 @@
         <v>4.24</v>
       </c>
       <c r="E11" t="n">
-        <v>41.01</v>
+        <v>41.02</v>
       </c>
     </row>
     <row r="12">
@@ -2232,7 +2232,7 @@
         <v>0.21</v>
       </c>
       <c r="E18" t="n">
-        <v>22.54</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="19">
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>18.55</v>
+        <v>18.56</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.88</v>
+        <v>11.87</v>
       </c>
       <c r="C12" t="n">
         <v>88.97</v>
@@ -2632,7 +2632,7 @@
         <v>4.24</v>
       </c>
       <c r="F13" t="n">
-        <v>41.01</v>
+        <v>41.02</v>
       </c>
     </row>
     <row r="14">
@@ -2786,7 +2786,7 @@
         <v>0.21</v>
       </c>
       <c r="F20" t="n">
-        <v>22.54</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="21">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>17.81</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="25">
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>18.55</v>
+        <v>18.56</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,46 +521,31 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>kWh</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>187.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>kWh</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>187.14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Genset 1</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
+        <v>19.99</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +596,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>131.944</v>
+        <v>131.949</v>
       </c>
     </row>
     <row r="3">
@@ -634,7 +619,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>131.944</v>
+        <v>131.949</v>
       </c>
     </row>
     <row r="4">
@@ -659,7 +644,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>87.545</v>
+        <v>87.548</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +669,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.83</v>
+        <v>15.831</v>
       </c>
     </row>
     <row r="6">
@@ -707,7 +692,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.838</v>
+        <v>28.839</v>
       </c>
     </row>
     <row r="7">
@@ -812,7 +797,7 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -826,81 +811,81 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>28.076</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
+          <t>Diesel Genset 1</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>7.998</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Fixed cost</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Solar PV</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4.512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>28.07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Genset 1</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>7.999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fixed cost</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Solar PV</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
       <c r="E14" t="n">
-        <v>4.512</v>
+        <v>8.202999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -914,60 +899,64 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3.116</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Lost load cost</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Replacement cost</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>8.201000000000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Genset 1</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
       <c r="E17" t="n">
-        <v>3.116</v>
+        <v>4.795</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Lost load cost</t>
+          <t>Fuel cost</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="C18" s="1" t="n">
@@ -979,18 +968,18 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>24.044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Replacement cost</t>
+          <t>Fuel CO2 emission</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C19" s="1" t="n">
@@ -998,49 +987,53 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.793</v>
+        <v>668.522</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fuel cost</t>
+          <t>RES CO2 emission</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>1</v>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fuel CO2 emission</t>
+          <t>GEN CO2 emission</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>1</v>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
@@ -1048,18 +1041,18 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>668.487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RES CO2 emission</t>
+          <t>BESS CO2 emission</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>RES</t>
+          <t>BESS</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -1079,18 +1072,16 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>GEN CO2 emission</t>
+          <t>TOTAL CO2 emission</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
@@ -1098,61 +1089,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>BESS CO2 emission</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>BESS</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL CO2 emission</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>668.487</v>
+        <v>668.522</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1164,7 +1107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,18 +1124,17 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lost load cost</t>
+        </is>
+      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Lost load cost</t>
+          <t>Replacement cost</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Fuel cost</t>
         </is>
@@ -1211,30 +1153,25 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Diesel Genset 1</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Genset 1</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
       <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Diesel</t>
         </is>
@@ -1261,10 +1198,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
@@ -1272,9 +1207,6 @@
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1312,11 +1244,6 @@
           <t>kUSD</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1328,22 +1255,19 @@
         <v>0.93</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D6" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E6" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -1356,21 +1280,18 @@
         <v>0.93</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D7" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E7" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="G7" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="H7" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1384,21 +1305,18 @@
         <v>0.93</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D8" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E8" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H8" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -1412,21 +1330,18 @@
         <v>0.93</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D9" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E9" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="G9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="H9" t="n">
         <v>1.29</v>
       </c>
     </row>
@@ -1440,21 +1355,18 @@
         <v>0.93</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D10" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E10" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="G10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H10" t="n">
         <v>2.24</v>
       </c>
     </row>
@@ -1468,21 +1380,18 @@
         <v>0.93</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D11" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E11" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="G11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="H11" t="n">
         <v>3.55</v>
       </c>
     </row>
@@ -1496,21 +1405,18 @@
         <v>0.93</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D12" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E12" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="H12" t="n">
         <v>5.08</v>
       </c>
     </row>
@@ -1524,21 +1430,18 @@
         <v>0.93</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D13" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E13" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H13" t="n">
         <v>6.73</v>
       </c>
     </row>
@@ -1552,21 +1455,18 @@
         <v>0.93</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D14" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E14" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
         <v>8.51</v>
       </c>
     </row>
@@ -1580,21 +1480,18 @@
         <v>0.93</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D15" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E15" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="G15" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="H15" t="n">
         <v>10.44</v>
       </c>
     </row>
@@ -1608,21 +1505,18 @@
         <v>0.93</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D16" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E16" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H16" t="n">
         <v>12.58</v>
       </c>
     </row>
@@ -1636,21 +1530,18 @@
         <v>0.93</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D17" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E17" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="G17" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="H17" t="n">
         <v>14.91</v>
       </c>
     </row>
@@ -1664,21 +1555,18 @@
         <v>0.93</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D18" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E18" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="G18" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H18" t="n">
         <v>17.41</v>
       </c>
     </row>
@@ -1692,21 +1580,18 @@
         <v>0.93</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D19" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E19" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="G19" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H19" t="n">
         <v>20.09</v>
       </c>
     </row>
@@ -1720,21 +1605,18 @@
         <v>0.93</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D20" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E20" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="G20" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H20" t="n">
         <v>22.96</v>
       </c>
     </row>
@@ -1748,21 +1630,18 @@
         <v>0.93</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D21" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E21" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G21" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H21" t="n">
         <v>26.02</v>
       </c>
     </row>
@@ -1776,21 +1655,18 @@
         <v>0.93</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D22" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E22" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="G22" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H22" t="n">
         <v>29.28</v>
       </c>
     </row>
@@ -1804,22 +1680,19 @@
         <v>0.93</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D23" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E23" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="G23" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="H23" t="n">
-        <v>32.74</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="24">
@@ -1832,22 +1705,19 @@
         <v>0.93</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D24" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E24" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="G24" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H24" t="n">
-        <v>36.42</v>
+        <v>36.43</v>
       </c>
     </row>
     <row r="25">
@@ -1860,27 +1730,24 @@
         <v>0.93</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="D25" t="n">
-        <v>1.68</v>
+        <v>0.64</v>
       </c>
       <c r="E25" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="G25" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H25" t="n">
         <v>40.32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1982,7 +1849,7 @@
         <v>99.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>17.14</v>
+        <v>17.13</v>
       </c>
       <c r="E5" t="n">
         <v>53.18</v>
@@ -2004,7 +1871,7 @@
         <v>13.7</v>
       </c>
       <c r="E6" t="n">
-        <v>52.56</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="7">
@@ -2023,7 +1890,7 @@
         <v>10.7</v>
       </c>
       <c r="E7" t="n">
-        <v>51.33</v>
+        <v>51.34</v>
       </c>
     </row>
     <row r="8">
@@ -2042,7 +1909,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>49.32</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="9">
@@ -2052,16 +1919,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.720000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>92.02</v>
+        <v>92.03</v>
       </c>
       <c r="D9" t="n">
-        <v>6.73</v>
+        <v>6.72</v>
       </c>
       <c r="E9" t="n">
-        <v>46.68</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="10">
@@ -2080,7 +1947,7 @@
         <v>5.42</v>
       </c>
       <c r="E10" t="n">
-        <v>43.82</v>
+        <v>43.84</v>
       </c>
     </row>
     <row r="11">
@@ -2090,7 +1957,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.99</v>
+        <v>14.98</v>
       </c>
       <c r="C11" t="n">
         <v>85.89</v>
@@ -2099,7 +1966,7 @@
         <v>4.24</v>
       </c>
       <c r="E11" t="n">
-        <v>41.02</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="12">
@@ -2118,7 +1985,7 @@
         <v>3.17</v>
       </c>
       <c r="E12" t="n">
-        <v>38.29</v>
+        <v>38.31</v>
       </c>
     </row>
     <row r="13">
@@ -2137,7 +2004,7 @@
         <v>2.26</v>
       </c>
       <c r="E13" t="n">
-        <v>35.59</v>
+        <v>35.61</v>
       </c>
     </row>
     <row r="14">
@@ -2153,10 +2020,10 @@
         <v>76.5</v>
       </c>
       <c r="D14" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="E14" t="n">
-        <v>32.84</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="15">
@@ -2175,7 +2042,7 @@
         <v>1.07</v>
       </c>
       <c r="E15" t="n">
-        <v>30.13</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="16">
@@ -2194,7 +2061,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>27.49</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="17">
@@ -2204,7 +2071,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.38</v>
+        <v>33.39</v>
       </c>
       <c r="C17" t="n">
         <v>67.09</v>
@@ -2213,7 +2080,7 @@
         <v>0.41</v>
       </c>
       <c r="E17" t="n">
-        <v>24.93</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="18">
@@ -2232,7 +2099,7 @@
         <v>0.21</v>
       </c>
       <c r="E18" t="n">
-        <v>22.55</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="19">
@@ -2242,7 +2109,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.21</v>
+        <v>39.22</v>
       </c>
       <c r="C19" t="n">
         <v>61.15</v>
@@ -2251,7 +2118,7 @@
         <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>20.47</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="20">
@@ -2261,16 +2128,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.02</v>
+        <v>42.03</v>
       </c>
       <c r="C20" t="n">
-        <v>58.32</v>
+        <v>58.31</v>
       </c>
       <c r="D20" t="n">
         <v>0.03</v>
       </c>
       <c r="E20" t="n">
-        <v>18.88</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="21">
@@ -2280,16 +2147,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.75</v>
+        <v>44.76</v>
       </c>
       <c r="C21" t="n">
-        <v>55.58</v>
+        <v>55.57</v>
       </c>
       <c r="D21" t="n">
         <v>0.01</v>
       </c>
       <c r="E21" t="n">
-        <v>17.89</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="22">
@@ -2299,16 +2166,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.41</v>
+        <v>47.42</v>
       </c>
       <c r="C22" t="n">
-        <v>52.94</v>
+        <v>52.93</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>17.82</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2185,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.98</v>
+        <v>49.99</v>
       </c>
       <c r="C23" t="n">
         <v>50.4</v>
@@ -2327,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>18.56</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,13 +2228,12 @@
           <t>Renewable penetration</t>
         </is>
       </c>
-      <c r="D1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Curtailment share</t>
+        </is>
+      </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Curtailment share</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Battery usage</t>
         </is>
@@ -2391,15 +2257,10 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
@@ -2423,9 +2284,6 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2453,11 +2311,6 @@
           <t>%</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2472,12 +2325,9 @@
         <v>99.55</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>20.83</v>
       </c>
       <c r="E6" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="F6" t="n">
         <v>53.45</v>
       </c>
     </row>
@@ -2494,12 +2344,9 @@
         <v>99.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17.13</v>
       </c>
       <c r="E7" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="F7" t="n">
         <v>53.18</v>
       </c>
     </row>
@@ -2516,13 +2363,10 @@
         <v>98.31999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="E8" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>52.56</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="9">
@@ -2538,13 +2382,10 @@
         <v>96.94</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="E9" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>51.33</v>
+        <v>51.34</v>
       </c>
     </row>
     <row r="10">
@@ -2560,13 +2401,10 @@
         <v>94.81</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>49.32</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="11">
@@ -2576,19 +2414,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.720000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>92.02</v>
+        <v>92.03</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.72</v>
       </c>
       <c r="E11" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F11" t="n">
-        <v>46.68</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="12">
@@ -2604,13 +2439,10 @@
         <v>88.97</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>5.42</v>
       </c>
       <c r="E12" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="F12" t="n">
-        <v>43.82</v>
+        <v>43.84</v>
       </c>
     </row>
     <row r="13">
@@ -2620,19 +2452,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.99</v>
+        <v>14.98</v>
       </c>
       <c r="C13" t="n">
         <v>85.89</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="E13" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F13" t="n">
-        <v>41.02</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="14">
@@ -2648,13 +2477,10 @@
         <v>82.8</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="E14" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="F14" t="n">
-        <v>38.29</v>
+        <v>38.31</v>
       </c>
     </row>
     <row r="15">
@@ -2670,13 +2496,10 @@
         <v>79.69</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="E15" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F15" t="n">
-        <v>35.59</v>
+        <v>35.61</v>
       </c>
     </row>
     <row r="16">
@@ -2692,13 +2515,10 @@
         <v>76.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="E16" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="F16" t="n">
-        <v>32.84</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="17">
@@ -2714,13 +2534,10 @@
         <v>73.31999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="E17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="F17" t="n">
-        <v>30.13</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="18">
@@ -2736,13 +2553,10 @@
         <v>70.17</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>27.49</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="19">
@@ -2752,19 +2566,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.38</v>
+        <v>33.39</v>
       </c>
       <c r="C19" t="n">
         <v>67.09</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E19" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F19" t="n">
-        <v>24.93</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="20">
@@ -2780,13 +2591,10 @@
         <v>64.08</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E20" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F20" t="n">
-        <v>22.55</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="21">
@@ -2796,19 +2604,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.21</v>
+        <v>39.22</v>
       </c>
       <c r="C21" t="n">
         <v>61.15</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20.47</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="22">
@@ -2818,19 +2623,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.02</v>
+        <v>42.03</v>
       </c>
       <c r="C22" t="n">
-        <v>58.32</v>
+        <v>58.31</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F22" t="n">
-        <v>18.88</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="23">
@@ -2840,19 +2642,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.75</v>
+        <v>44.76</v>
       </c>
       <c r="C23" t="n">
-        <v>55.58</v>
+        <v>55.57</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F23" t="n">
-        <v>17.89</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="24">
@@ -2862,19 +2661,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.41</v>
+        <v>47.42</v>
       </c>
       <c r="C24" t="n">
-        <v>52.94</v>
+        <v>52.93</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>17.82</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="25">
@@ -2884,7 +2680,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.98</v>
+        <v>49.99</v>
       </c>
       <c r="C25" t="n">
         <v>50.4</v>
@@ -2893,16 +2689,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>18.56</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>